--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.933054324490214</v>
+        <v>0.9330543244902137</v>
       </c>
       <c r="D2">
         <v>1.022852926751707</v>
       </c>
       <c r="E2">
-        <v>0.9487702266654365</v>
+        <v>0.9487702266654364</v>
       </c>
       <c r="F2">
-        <v>0.9573040672040122</v>
+        <v>0.9573040672040121</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9491219582594541</v>
+        <v>0.9491219582594533</v>
       </c>
       <c r="D3">
         <v>1.02709932336981</v>
       </c>
       <c r="E3">
-        <v>0.9626175051446924</v>
+        <v>0.9626175051446915</v>
       </c>
       <c r="F3">
-        <v>0.9716865995921711</v>
+        <v>0.9716865995921702</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04209143434078</v>
       </c>
       <c r="J3">
-        <v>0.971102718652833</v>
+        <v>0.9711027186528324</v>
       </c>
       <c r="K3">
         <v>1.037396818345735</v>
       </c>
       <c r="L3">
-        <v>0.9737521536913126</v>
+        <v>0.9737521536913116</v>
       </c>
       <c r="M3">
-        <v>0.9826950492818559</v>
+        <v>0.982695049281855</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9588663219872131</v>
+        <v>0.9588663219872119</v>
       </c>
       <c r="D4">
-        <v>1.029709472364878</v>
+        <v>1.029709472364877</v>
       </c>
       <c r="E4">
-        <v>0.971026048602016</v>
+        <v>0.9710260486020148</v>
       </c>
       <c r="F4">
-        <v>0.9804262435259401</v>
+        <v>0.980426243525939</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044070689228344</v>
       </c>
       <c r="J4">
-        <v>0.979384151603206</v>
+        <v>0.9793841516032049</v>
       </c>
       <c r="K4">
-        <v>1.039462080434205</v>
+        <v>1.039462080434204</v>
       </c>
       <c r="L4">
-        <v>0.9814872168374718</v>
+        <v>0.9814872168374703</v>
       </c>
       <c r="M4">
-        <v>0.9907667918266848</v>
+        <v>0.9907667918266835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9628254047890857</v>
+        <v>0.9628254047890854</v>
       </c>
       <c r="D5">
         <v>1.030777150409713</v>
       </c>
       <c r="E5">
-        <v>0.9744445043443385</v>
+        <v>0.9744445043443379</v>
       </c>
       <c r="F5">
-        <v>0.9839805507375824</v>
+        <v>0.9839805507375819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044871704669551</v>
+        <v>1.04487170466955</v>
       </c>
       <c r="J5">
-        <v>0.9827474938276107</v>
+        <v>0.9827474938276101</v>
       </c>
       <c r="K5">
         <v>1.040302132787356</v>
       </c>
       <c r="L5">
-        <v>0.9846288452625654</v>
+        <v>0.9846288452625648</v>
       </c>
       <c r="M5">
-        <v>0.9940466767791341</v>
+        <v>0.9940466767791336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9634825673464227</v>
+        <v>0.9634825673464238</v>
       </c>
       <c r="D6">
-        <v>1.030954765010071</v>
+        <v>1.030954765010072</v>
       </c>
       <c r="E6">
-        <v>0.975012041307343</v>
+        <v>0.9750120413073442</v>
       </c>
       <c r="F6">
-        <v>0.9845707096982824</v>
+        <v>0.9845707096982833</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045004466065431</v>
+        <v>1.045004466065432</v>
       </c>
       <c r="J6">
-        <v>0.9833056828020749</v>
+        <v>0.9833056828020761</v>
       </c>
       <c r="K6">
-        <v>1.040441608798487</v>
+        <v>1.040441608798488</v>
       </c>
       <c r="L6">
-        <v>0.9851502468144897</v>
+        <v>0.9851502468144907</v>
       </c>
       <c r="M6">
-        <v>0.9945911073282554</v>
+        <v>0.9945911073282564</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9589197415589337</v>
+        <v>0.9589197415589333</v>
       </c>
       <c r="D7">
         <v>1.02972385126166</v>
       </c>
       <c r="E7">
-        <v>0.9710721656891025</v>
+        <v>0.971072165689102</v>
       </c>
       <c r="F7">
-        <v>0.9804741886355188</v>
+        <v>0.9804741886355186</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044081510383276</v>
+        <v>1.044081510383275</v>
       </c>
       <c r="J7">
-        <v>0.9794295386562087</v>
+        <v>0.9794295386562084</v>
       </c>
       <c r="K7">
         <v>1.039473412290605</v>
       </c>
       <c r="L7">
-        <v>0.9815296113087397</v>
+        <v>0.9815296113087393</v>
       </c>
       <c r="M7">
-        <v>0.990811046237195</v>
+        <v>0.9908110462371944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9386321800160494</v>
+        <v>0.9386321800160485</v>
       </c>
       <c r="D8">
         <v>1.024318709647071</v>
       </c>
       <c r="E8">
-        <v>0.9535746423068343</v>
+        <v>0.9535746423068331</v>
       </c>
       <c r="F8">
-        <v>0.9622927326244402</v>
+        <v>0.9622927326244398</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039950898012668</v>
       </c>
       <c r="J8">
-        <v>0.9621837355746261</v>
+        <v>0.9621837355746251</v>
       </c>
       <c r="K8">
         <v>1.035179044007676</v>
       </c>
       <c r="L8">
-        <v>0.9654224942794083</v>
+        <v>0.965422494279407</v>
       </c>
       <c r="M8">
-        <v>0.9740089152469952</v>
+        <v>0.9740089152469946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8967510835101482</v>
+        <v>0.8967510835101472</v>
       </c>
       <c r="D9">
-        <v>1.013543614453206</v>
+        <v>1.013543614453205</v>
       </c>
       <c r="E9">
-        <v>0.9175796948749747</v>
+        <v>0.9175796948749734</v>
       </c>
       <c r="F9">
-        <v>0.9249584913127428</v>
+        <v>0.9249584913127414</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031356863715685</v>
       </c>
       <c r="J9">
-        <v>0.9265622036536301</v>
+        <v>0.926562203653629</v>
       </c>
       <c r="K9">
-        <v>1.026420712248195</v>
+        <v>1.026420712248194</v>
       </c>
       <c r="L9">
-        <v>0.932168297338278</v>
+        <v>0.9321682973382767</v>
       </c>
       <c r="M9">
-        <v>0.9393989247506289</v>
+        <v>0.9393989247506275</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8623300982188217</v>
+        <v>0.8623300982188218</v>
       </c>
       <c r="D10">
         <v>1.005113589865198</v>
       </c>
       <c r="E10">
-        <v>0.8881564793245516</v>
+        <v>0.8881564793245513</v>
       </c>
       <c r="F10">
         <v>0.8945191893617994</v>
@@ -749,10 +749,10 @@
         <v>1.019391126613497</v>
       </c>
       <c r="L10">
-        <v>0.904888489003865</v>
+        <v>0.9048884890038646</v>
       </c>
       <c r="M10">
-        <v>0.9110954527509895</v>
+        <v>0.9110954527509892</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8449175620878601</v>
+        <v>0.8449175620878574</v>
       </c>
       <c r="D11">
         <v>1.001006056149069</v>
       </c>
       <c r="E11">
-        <v>0.8733386400830596</v>
+        <v>0.8733386400830572</v>
       </c>
       <c r="F11">
-        <v>0.8792204500695835</v>
+        <v>0.8792204500695814</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02076991097467</v>
+        <v>1.020769910974669</v>
       </c>
       <c r="J11">
-        <v>0.8825444405052075</v>
+        <v>0.8825444405052052</v>
       </c>
       <c r="K11">
         <v>1.015909024631624</v>
       </c>
       <c r="L11">
-        <v>0.8911223759685103</v>
+        <v>0.8911223759685081</v>
       </c>
       <c r="M11">
-        <v>0.8968464548848628</v>
+        <v>0.8968464548848607</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8379246923383339</v>
+        <v>0.8379246923383344</v>
       </c>
       <c r="D12">
-        <v>0.9993872176942693</v>
+        <v>0.9993872176942692</v>
       </c>
       <c r="E12">
-        <v>0.8674018360824534</v>
+        <v>0.8674018360824538</v>
       </c>
       <c r="F12">
-        <v>0.873097293547421</v>
+        <v>0.8730972935474214</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019355882887634</v>
       </c>
       <c r="J12">
-        <v>0.8766188687605306</v>
+        <v>0.8766188687605309</v>
       </c>
       <c r="K12">
-        <v>1.014526167069832</v>
+        <v>1.014526167069831</v>
       </c>
       <c r="L12">
-        <v>0.8856021973937993</v>
+        <v>0.8856021973937996</v>
       </c>
       <c r="M12">
-        <v>0.8911394432774529</v>
+        <v>0.891139443277453</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8394519029062638</v>
+        <v>0.8394519029062649</v>
       </c>
       <c r="D13">
-        <v>0.9997392422829136</v>
+        <v>0.9997392422829143</v>
       </c>
       <c r="E13">
-        <v>0.8686976908590848</v>
+        <v>0.8686976908590859</v>
       </c>
       <c r="F13">
-        <v>0.874433505005215</v>
+        <v>0.8744335050052162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01966431436858</v>
+        <v>1.019664314368581</v>
       </c>
       <c r="J13">
-        <v>0.877912647554083</v>
+        <v>0.8779126475540842</v>
       </c>
       <c r="K13">
         <v>1.014827388994923</v>
       </c>
       <c r="L13">
-        <v>0.8868073380340323</v>
+        <v>0.8868073380340334</v>
       </c>
       <c r="M13">
-        <v>0.8923850307936613</v>
+        <v>0.8923850307936625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8443514423061552</v>
+        <v>0.8443514423061563</v>
       </c>
       <c r="D14">
-        <v>1.00087433846082</v>
+        <v>1.000874338460819</v>
       </c>
       <c r="E14">
-        <v>0.8728577066722479</v>
+        <v>0.8728577066722489</v>
       </c>
       <c r="F14">
-        <v>0.8787242821563399</v>
+        <v>0.8787242821563409</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020655271052575</v>
       </c>
       <c r="J14">
-        <v>0.8820645808579829</v>
+        <v>0.8820645808579838</v>
       </c>
       <c r="K14">
-        <v>1.01579673209634</v>
+        <v>1.015796732096339</v>
       </c>
       <c r="L14">
-        <v>0.8906752915555119</v>
+        <v>0.8906752915555131</v>
       </c>
       <c r="M14">
-        <v>0.8963840905687666</v>
+        <v>0.8963840905687674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8472946113169615</v>
+        <v>0.8472946113169603</v>
       </c>
       <c r="D15">
         <v>1.001560384709982</v>
       </c>
       <c r="E15">
-        <v>0.8753585894035123</v>
+        <v>0.8753585894035106</v>
       </c>
       <c r="F15">
-        <v>0.8813046477118482</v>
+        <v>0.8813046477118468</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021251570996091</v>
       </c>
       <c r="J15">
-        <v>0.8845595647082721</v>
+        <v>0.8845595647082707</v>
       </c>
       <c r="K15">
         <v>1.016381170009803</v>
       </c>
       <c r="L15">
-        <v>0.8929999651055883</v>
+        <v>0.8929999651055869</v>
       </c>
       <c r="M15">
-        <v>0.8987884957333755</v>
+        <v>0.8987884957333738</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.863422122436336</v>
+        <v>0.8634221224363352</v>
       </c>
       <c r="D16">
         <v>1.00537478181481</v>
       </c>
       <c r="E16">
-        <v>0.8890873620687387</v>
+        <v>0.8890873620687382</v>
       </c>
       <c r="F16">
-        <v>0.8954810067269532</v>
+        <v>0.895481006726953</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024531371982511</v>
       </c>
       <c r="J16">
-        <v>0.8982420423592207</v>
+        <v>0.8982420423592199</v>
       </c>
       <c r="K16">
         <v>1.019611271716761</v>
       </c>
       <c r="L16">
-        <v>0.9057527140054705</v>
+        <v>0.9057527140054701</v>
       </c>
       <c r="M16">
-        <v>0.9119907761876904</v>
+        <v>0.9119907761876901</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8727866200356446</v>
+        <v>0.872786620035644</v>
       </c>
       <c r="D17">
         <v>1.007631695981952</v>
       </c>
       <c r="E17">
-        <v>0.8970772947711345</v>
+        <v>0.8970772947711343</v>
       </c>
       <c r="F17">
-        <v>0.9037398306801669</v>
+        <v>0.9037398306801662</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026443957042963</v>
       </c>
       <c r="J17">
-        <v>0.9061941517513384</v>
+        <v>0.9061941517513379</v>
       </c>
       <c r="K17">
         <v>1.021507224148107</v>
       </c>
       <c r="L17">
-        <v>0.9131675347664432</v>
+        <v>0.9131675347664429</v>
       </c>
       <c r="M17">
-        <v>0.9196760924527873</v>
+        <v>0.9196760924527866</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8780197000544436</v>
+        <v>0.878019700054443</v>
       </c>
       <c r="D18">
         <v>1.008906113448115</v>
       </c>
       <c r="E18">
-        <v>0.9015477491136709</v>
+        <v>0.90154774911367</v>
       </c>
       <c r="F18">
-        <v>0.9083633083904619</v>
+        <v>0.9083633083904612</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02751485348146</v>
       </c>
       <c r="J18">
-        <v>0.9106399203447282</v>
+        <v>0.9106399203447273</v>
       </c>
       <c r="K18">
-        <v>1.022572866416699</v>
+        <v>1.0225728664167</v>
       </c>
       <c r="L18">
-        <v>0.9173138204373854</v>
+        <v>0.9173138204373845</v>
       </c>
       <c r="M18">
-        <v>0.923976457133851</v>
+        <v>0.9239764571338502</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8797684250874962</v>
+        <v>0.879768425087496</v>
       </c>
       <c r="D19">
-        <v>1.009334069963998</v>
+        <v>1.009334069963999</v>
       </c>
       <c r="E19">
-        <v>0.903042482326509</v>
+        <v>0.9030424823265089</v>
       </c>
       <c r="F19">
         <v>0.9099096085779573</v>
@@ -1085,16 +1085,16 @@
         <v>1.027873002731637</v>
       </c>
       <c r="J19">
-        <v>0.9121258318425889</v>
+        <v>0.9121258318425886</v>
       </c>
       <c r="K19">
-        <v>1.022929917266178</v>
+        <v>1.022929917266179</v>
       </c>
       <c r="L19">
-        <v>0.9186997723486919</v>
+        <v>0.9186997723486917</v>
       </c>
       <c r="M19">
-        <v>0.9254143547750453</v>
+        <v>0.9254143547750451</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8718063995337202</v>
+        <v>0.8718063995337172</v>
       </c>
       <c r="D20">
-        <v>1.007394028923131</v>
+        <v>1.00739402892313</v>
       </c>
       <c r="E20">
-        <v>0.8962403556328276</v>
+        <v>0.8962403556328247</v>
       </c>
       <c r="F20">
-        <v>0.9028744460038596</v>
+        <v>0.9028744460038567</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.026243521098146</v>
       </c>
       <c r="J20">
-        <v>0.9053615523130569</v>
+        <v>0.9053615523130542</v>
       </c>
       <c r="K20">
-        <v>1.021308097432665</v>
+        <v>1.021308097432664</v>
       </c>
       <c r="L20">
-        <v>0.9123910920457504</v>
+        <v>0.9123910920457476</v>
       </c>
       <c r="M20">
-        <v>0.9188710192939501</v>
+        <v>0.9188710192939473</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8429248157229301</v>
+        <v>0.8429248157229304</v>
       </c>
       <c r="D21">
         <v>1.000542924589861</v>
       </c>
       <c r="E21">
-        <v>0.8716459898765828</v>
+        <v>0.8716459898765831</v>
       </c>
       <c r="F21">
-        <v>0.8774742891564624</v>
+        <v>0.8774742891564628</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020366503666337</v>
       </c>
       <c r="J21">
-        <v>0.8808554414003805</v>
+        <v>0.880855441400381</v>
       </c>
       <c r="K21">
         <v>1.015514018393974</v>
       </c>
       <c r="L21">
-        <v>0.8895487800304864</v>
+        <v>0.8895487800304867</v>
       </c>
       <c r="M21">
-        <v>0.8952191935656746</v>
+        <v>0.8952191935656748</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8215639692057158</v>
+        <v>0.8215639692057144</v>
       </c>
       <c r="D22">
-        <v>0.9956700367069063</v>
+        <v>0.9956700367069057</v>
       </c>
       <c r="E22">
-        <v>0.8535457802009814</v>
+        <v>0.85354578020098</v>
       </c>
       <c r="F22">
-        <v>0.8588212790900452</v>
+        <v>0.8588212790900439</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01606645520451</v>
       </c>
       <c r="J22">
-        <v>0.8627718351143657</v>
+        <v>0.8627718351143642</v>
       </c>
       <c r="K22">
         <v>1.011327761812819</v>
       </c>
       <c r="L22">
-        <v>0.8727084897600661</v>
+        <v>0.8727084897600648</v>
       </c>
       <c r="M22">
-        <v>0.8778252981648234</v>
+        <v>0.8778252981648224</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8332712715657185</v>
+        <v>0.8332712715657181</v>
       </c>
       <c r="D23">
         <v>0.9983198725544625</v>
       </c>
       <c r="E23">
-        <v>0.8634558776663767</v>
+        <v>0.8634558776663764</v>
       </c>
       <c r="F23">
-        <v>0.8690295647632998</v>
+        <v>0.8690295647632996</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018417479923349</v>
       </c>
       <c r="J23">
-        <v>0.8726779373821452</v>
+        <v>0.8726779373821449</v>
       </c>
       <c r="K23">
         <v>1.013611101618277</v>
       </c>
       <c r="L23">
-        <v>0.8819317077534629</v>
+        <v>0.8819317077534626</v>
       </c>
       <c r="M23">
-        <v>0.8873469578499581</v>
+        <v>0.8873469578499579</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1263,7 +1263,7 @@
         <v>1.007501548614977</v>
       </c>
       <c r="E24">
-        <v>0.8966191113729076</v>
+        <v>0.8966191113729074</v>
       </c>
       <c r="F24">
         <v>0.9032660667431828</v>
@@ -1281,7 +1281,7 @@
         <v>1.02139819699402</v>
       </c>
       <c r="L24">
-        <v>0.9127424776771006</v>
+        <v>0.9127424776771007</v>
       </c>
       <c r="M24">
         <v>0.9192353531068136</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9084974514292619</v>
+        <v>0.9084974514292604</v>
       </c>
       <c r="D25">
-        <v>1.016510610518233</v>
+        <v>1.016510610518234</v>
       </c>
       <c r="E25">
-        <v>0.9276557295286348</v>
+        <v>0.9276557295286333</v>
       </c>
       <c r="F25">
-        <v>0.9353994948660779</v>
+        <v>0.9353994948660768</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033769909161043</v>
       </c>
       <c r="J25">
-        <v>0.9365519798765118</v>
+        <v>0.9365519798765105</v>
       </c>
       <c r="K25">
         <v>1.028857915304059</v>
       </c>
       <c r="L25">
-        <v>0.941491512286869</v>
+        <v>0.9414915122868678</v>
       </c>
       <c r="M25">
-        <v>0.9490908968184496</v>
+        <v>0.9490908968184485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9330543244902137</v>
+        <v>0.933054324490214</v>
       </c>
       <c r="D2">
         <v>1.022852926751707</v>
       </c>
       <c r="E2">
-        <v>0.9487702266654364</v>
+        <v>0.9487702266654365</v>
       </c>
       <c r="F2">
-        <v>0.9573040672040121</v>
+        <v>0.9573040672040122</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9491219582594533</v>
+        <v>0.9491219582594541</v>
       </c>
       <c r="D3">
         <v>1.02709932336981</v>
       </c>
       <c r="E3">
-        <v>0.9626175051446915</v>
+        <v>0.9626175051446924</v>
       </c>
       <c r="F3">
-        <v>0.9716865995921702</v>
+        <v>0.9716865995921711</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04209143434078</v>
       </c>
       <c r="J3">
-        <v>0.9711027186528324</v>
+        <v>0.971102718652833</v>
       </c>
       <c r="K3">
         <v>1.037396818345735</v>
       </c>
       <c r="L3">
-        <v>0.9737521536913116</v>
+        <v>0.9737521536913126</v>
       </c>
       <c r="M3">
-        <v>0.982695049281855</v>
+        <v>0.9826950492818559</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9588663219872119</v>
+        <v>0.9588663219872131</v>
       </c>
       <c r="D4">
-        <v>1.029709472364877</v>
+        <v>1.029709472364878</v>
       </c>
       <c r="E4">
-        <v>0.9710260486020148</v>
+        <v>0.971026048602016</v>
       </c>
       <c r="F4">
-        <v>0.980426243525939</v>
+        <v>0.9804262435259401</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044070689228344</v>
       </c>
       <c r="J4">
-        <v>0.9793841516032049</v>
+        <v>0.979384151603206</v>
       </c>
       <c r="K4">
-        <v>1.039462080434204</v>
+        <v>1.039462080434205</v>
       </c>
       <c r="L4">
-        <v>0.9814872168374703</v>
+        <v>0.9814872168374718</v>
       </c>
       <c r="M4">
-        <v>0.9907667918266835</v>
+        <v>0.9907667918266848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9628254047890854</v>
+        <v>0.9628254047890857</v>
       </c>
       <c r="D5">
         <v>1.030777150409713</v>
       </c>
       <c r="E5">
-        <v>0.9744445043443379</v>
+        <v>0.9744445043443385</v>
       </c>
       <c r="F5">
-        <v>0.9839805507375819</v>
+        <v>0.9839805507375824</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04487170466955</v>
+        <v>1.044871704669551</v>
       </c>
       <c r="J5">
-        <v>0.9827474938276101</v>
+        <v>0.9827474938276107</v>
       </c>
       <c r="K5">
         <v>1.040302132787356</v>
       </c>
       <c r="L5">
-        <v>0.9846288452625648</v>
+        <v>0.9846288452625654</v>
       </c>
       <c r="M5">
-        <v>0.9940466767791336</v>
+        <v>0.9940466767791341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9634825673464238</v>
+        <v>0.9634825673464227</v>
       </c>
       <c r="D6">
-        <v>1.030954765010072</v>
+        <v>1.030954765010071</v>
       </c>
       <c r="E6">
-        <v>0.9750120413073442</v>
+        <v>0.975012041307343</v>
       </c>
       <c r="F6">
-        <v>0.9845707096982833</v>
+        <v>0.9845707096982824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045004466065432</v>
+        <v>1.045004466065431</v>
       </c>
       <c r="J6">
-        <v>0.9833056828020761</v>
+        <v>0.9833056828020749</v>
       </c>
       <c r="K6">
-        <v>1.040441608798488</v>
+        <v>1.040441608798487</v>
       </c>
       <c r="L6">
-        <v>0.9851502468144907</v>
+        <v>0.9851502468144897</v>
       </c>
       <c r="M6">
-        <v>0.9945911073282564</v>
+        <v>0.9945911073282554</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9589197415589333</v>
+        <v>0.9589197415589337</v>
       </c>
       <c r="D7">
         <v>1.02972385126166</v>
       </c>
       <c r="E7">
-        <v>0.971072165689102</v>
+        <v>0.9710721656891025</v>
       </c>
       <c r="F7">
-        <v>0.9804741886355186</v>
+        <v>0.9804741886355188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044081510383275</v>
+        <v>1.044081510383276</v>
       </c>
       <c r="J7">
-        <v>0.9794295386562084</v>
+        <v>0.9794295386562087</v>
       </c>
       <c r="K7">
         <v>1.039473412290605</v>
       </c>
       <c r="L7">
-        <v>0.9815296113087393</v>
+        <v>0.9815296113087397</v>
       </c>
       <c r="M7">
-        <v>0.9908110462371944</v>
+        <v>0.990811046237195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9386321800160485</v>
+        <v>0.9386321800160494</v>
       </c>
       <c r="D8">
         <v>1.024318709647071</v>
       </c>
       <c r="E8">
-        <v>0.9535746423068331</v>
+        <v>0.9535746423068343</v>
       </c>
       <c r="F8">
-        <v>0.9622927326244398</v>
+        <v>0.9622927326244402</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039950898012668</v>
       </c>
       <c r="J8">
-        <v>0.9621837355746251</v>
+        <v>0.9621837355746261</v>
       </c>
       <c r="K8">
         <v>1.035179044007676</v>
       </c>
       <c r="L8">
-        <v>0.965422494279407</v>
+        <v>0.9654224942794083</v>
       </c>
       <c r="M8">
-        <v>0.9740089152469946</v>
+        <v>0.9740089152469952</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8967510835101472</v>
+        <v>0.8967510835101482</v>
       </c>
       <c r="D9">
-        <v>1.013543614453205</v>
+        <v>1.013543614453206</v>
       </c>
       <c r="E9">
-        <v>0.9175796948749734</v>
+        <v>0.9175796948749747</v>
       </c>
       <c r="F9">
-        <v>0.9249584913127414</v>
+        <v>0.9249584913127428</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031356863715685</v>
       </c>
       <c r="J9">
-        <v>0.926562203653629</v>
+        <v>0.9265622036536301</v>
       </c>
       <c r="K9">
-        <v>1.026420712248194</v>
+        <v>1.026420712248195</v>
       </c>
       <c r="L9">
-        <v>0.9321682973382767</v>
+        <v>0.932168297338278</v>
       </c>
       <c r="M9">
-        <v>0.9393989247506275</v>
+        <v>0.9393989247506289</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8623300982188218</v>
+        <v>0.8623300982188217</v>
       </c>
       <c r="D10">
         <v>1.005113589865198</v>
       </c>
       <c r="E10">
-        <v>0.8881564793245513</v>
+        <v>0.8881564793245516</v>
       </c>
       <c r="F10">
         <v>0.8945191893617994</v>
@@ -749,10 +749,10 @@
         <v>1.019391126613497</v>
       </c>
       <c r="L10">
-        <v>0.9048884890038646</v>
+        <v>0.904888489003865</v>
       </c>
       <c r="M10">
-        <v>0.9110954527509892</v>
+        <v>0.9110954527509895</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8449175620878574</v>
+        <v>0.8449175620878601</v>
       </c>
       <c r="D11">
         <v>1.001006056149069</v>
       </c>
       <c r="E11">
-        <v>0.8733386400830572</v>
+        <v>0.8733386400830596</v>
       </c>
       <c r="F11">
-        <v>0.8792204500695814</v>
+        <v>0.8792204500695835</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020769910974669</v>
+        <v>1.02076991097467</v>
       </c>
       <c r="J11">
-        <v>0.8825444405052052</v>
+        <v>0.8825444405052075</v>
       </c>
       <c r="K11">
         <v>1.015909024631624</v>
       </c>
       <c r="L11">
-        <v>0.8911223759685081</v>
+        <v>0.8911223759685103</v>
       </c>
       <c r="M11">
-        <v>0.8968464548848607</v>
+        <v>0.8968464548848628</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8379246923383344</v>
+        <v>0.8379246923383339</v>
       </c>
       <c r="D12">
-        <v>0.9993872176942692</v>
+        <v>0.9993872176942693</v>
       </c>
       <c r="E12">
-        <v>0.8674018360824538</v>
+        <v>0.8674018360824534</v>
       </c>
       <c r="F12">
-        <v>0.8730972935474214</v>
+        <v>0.873097293547421</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.019355882887634</v>
       </c>
       <c r="J12">
-        <v>0.8766188687605309</v>
+        <v>0.8766188687605306</v>
       </c>
       <c r="K12">
-        <v>1.014526167069831</v>
+        <v>1.014526167069832</v>
       </c>
       <c r="L12">
-        <v>0.8856021973937996</v>
+        <v>0.8856021973937993</v>
       </c>
       <c r="M12">
-        <v>0.891139443277453</v>
+        <v>0.8911394432774529</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8394519029062649</v>
+        <v>0.8394519029062638</v>
       </c>
       <c r="D13">
-        <v>0.9997392422829143</v>
+        <v>0.9997392422829136</v>
       </c>
       <c r="E13">
-        <v>0.8686976908590859</v>
+        <v>0.8686976908590848</v>
       </c>
       <c r="F13">
-        <v>0.8744335050052162</v>
+        <v>0.874433505005215</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019664314368581</v>
+        <v>1.01966431436858</v>
       </c>
       <c r="J13">
-        <v>0.8779126475540842</v>
+        <v>0.877912647554083</v>
       </c>
       <c r="K13">
         <v>1.014827388994923</v>
       </c>
       <c r="L13">
-        <v>0.8868073380340334</v>
+        <v>0.8868073380340323</v>
       </c>
       <c r="M13">
-        <v>0.8923850307936625</v>
+        <v>0.8923850307936613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8443514423061563</v>
+        <v>0.8443514423061552</v>
       </c>
       <c r="D14">
-        <v>1.000874338460819</v>
+        <v>1.00087433846082</v>
       </c>
       <c r="E14">
-        <v>0.8728577066722489</v>
+        <v>0.8728577066722479</v>
       </c>
       <c r="F14">
-        <v>0.8787242821563409</v>
+        <v>0.8787242821563399</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020655271052575</v>
       </c>
       <c r="J14">
-        <v>0.8820645808579838</v>
+        <v>0.8820645808579829</v>
       </c>
       <c r="K14">
-        <v>1.015796732096339</v>
+        <v>1.01579673209634</v>
       </c>
       <c r="L14">
-        <v>0.8906752915555131</v>
+        <v>0.8906752915555119</v>
       </c>
       <c r="M14">
-        <v>0.8963840905687674</v>
+        <v>0.8963840905687666</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8472946113169603</v>
+        <v>0.8472946113169615</v>
       </c>
       <c r="D15">
         <v>1.001560384709982</v>
       </c>
       <c r="E15">
-        <v>0.8753585894035106</v>
+        <v>0.8753585894035123</v>
       </c>
       <c r="F15">
-        <v>0.8813046477118468</v>
+        <v>0.8813046477118482</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021251570996091</v>
       </c>
       <c r="J15">
-        <v>0.8845595647082707</v>
+        <v>0.8845595647082721</v>
       </c>
       <c r="K15">
         <v>1.016381170009803</v>
       </c>
       <c r="L15">
-        <v>0.8929999651055869</v>
+        <v>0.8929999651055883</v>
       </c>
       <c r="M15">
-        <v>0.8987884957333738</v>
+        <v>0.8987884957333755</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8634221224363352</v>
+        <v>0.863422122436336</v>
       </c>
       <c r="D16">
         <v>1.00537478181481</v>
       </c>
       <c r="E16">
-        <v>0.8890873620687382</v>
+        <v>0.8890873620687387</v>
       </c>
       <c r="F16">
-        <v>0.895481006726953</v>
+        <v>0.8954810067269532</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024531371982511</v>
       </c>
       <c r="J16">
-        <v>0.8982420423592199</v>
+        <v>0.8982420423592207</v>
       </c>
       <c r="K16">
         <v>1.019611271716761</v>
       </c>
       <c r="L16">
-        <v>0.9057527140054701</v>
+        <v>0.9057527140054705</v>
       </c>
       <c r="M16">
-        <v>0.9119907761876901</v>
+        <v>0.9119907761876904</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.872786620035644</v>
+        <v>0.8727866200356446</v>
       </c>
       <c r="D17">
         <v>1.007631695981952</v>
       </c>
       <c r="E17">
-        <v>0.8970772947711343</v>
+        <v>0.8970772947711345</v>
       </c>
       <c r="F17">
-        <v>0.9037398306801662</v>
+        <v>0.9037398306801669</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026443957042963</v>
       </c>
       <c r="J17">
-        <v>0.9061941517513379</v>
+        <v>0.9061941517513384</v>
       </c>
       <c r="K17">
         <v>1.021507224148107</v>
       </c>
       <c r="L17">
-        <v>0.9131675347664429</v>
+        <v>0.9131675347664432</v>
       </c>
       <c r="M17">
-        <v>0.9196760924527866</v>
+        <v>0.9196760924527873</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.878019700054443</v>
+        <v>0.8780197000544436</v>
       </c>
       <c r="D18">
         <v>1.008906113448115</v>
       </c>
       <c r="E18">
-        <v>0.90154774911367</v>
+        <v>0.9015477491136709</v>
       </c>
       <c r="F18">
-        <v>0.9083633083904612</v>
+        <v>0.9083633083904619</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02751485348146</v>
       </c>
       <c r="J18">
-        <v>0.9106399203447273</v>
+        <v>0.9106399203447282</v>
       </c>
       <c r="K18">
-        <v>1.0225728664167</v>
+        <v>1.022572866416699</v>
       </c>
       <c r="L18">
-        <v>0.9173138204373845</v>
+        <v>0.9173138204373854</v>
       </c>
       <c r="M18">
-        <v>0.9239764571338502</v>
+        <v>0.923976457133851</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.879768425087496</v>
+        <v>0.8797684250874962</v>
       </c>
       <c r="D19">
-        <v>1.009334069963999</v>
+        <v>1.009334069963998</v>
       </c>
       <c r="E19">
-        <v>0.9030424823265089</v>
+        <v>0.903042482326509</v>
       </c>
       <c r="F19">
         <v>0.9099096085779573</v>
@@ -1085,16 +1085,16 @@
         <v>1.027873002731637</v>
       </c>
       <c r="J19">
-        <v>0.9121258318425886</v>
+        <v>0.9121258318425889</v>
       </c>
       <c r="K19">
-        <v>1.022929917266179</v>
+        <v>1.022929917266178</v>
       </c>
       <c r="L19">
-        <v>0.9186997723486917</v>
+        <v>0.9186997723486919</v>
       </c>
       <c r="M19">
-        <v>0.9254143547750451</v>
+        <v>0.9254143547750453</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8718063995337172</v>
+        <v>0.8718063995337202</v>
       </c>
       <c r="D20">
-        <v>1.00739402892313</v>
+        <v>1.007394028923131</v>
       </c>
       <c r="E20">
-        <v>0.8962403556328247</v>
+        <v>0.8962403556328276</v>
       </c>
       <c r="F20">
-        <v>0.9028744460038567</v>
+        <v>0.9028744460038596</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.026243521098146</v>
       </c>
       <c r="J20">
-        <v>0.9053615523130542</v>
+        <v>0.9053615523130569</v>
       </c>
       <c r="K20">
-        <v>1.021308097432664</v>
+        <v>1.021308097432665</v>
       </c>
       <c r="L20">
-        <v>0.9123910920457476</v>
+        <v>0.9123910920457504</v>
       </c>
       <c r="M20">
-        <v>0.9188710192939473</v>
+        <v>0.9188710192939501</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8429248157229304</v>
+        <v>0.8429248157229301</v>
       </c>
       <c r="D21">
         <v>1.000542924589861</v>
       </c>
       <c r="E21">
-        <v>0.8716459898765831</v>
+        <v>0.8716459898765828</v>
       </c>
       <c r="F21">
-        <v>0.8774742891564628</v>
+        <v>0.8774742891564624</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020366503666337</v>
       </c>
       <c r="J21">
-        <v>0.880855441400381</v>
+        <v>0.8808554414003805</v>
       </c>
       <c r="K21">
         <v>1.015514018393974</v>
       </c>
       <c r="L21">
-        <v>0.8895487800304867</v>
+        <v>0.8895487800304864</v>
       </c>
       <c r="M21">
-        <v>0.8952191935656748</v>
+        <v>0.8952191935656746</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8215639692057144</v>
+        <v>0.8215639692057158</v>
       </c>
       <c r="D22">
-        <v>0.9956700367069057</v>
+        <v>0.9956700367069063</v>
       </c>
       <c r="E22">
-        <v>0.85354578020098</v>
+        <v>0.8535457802009814</v>
       </c>
       <c r="F22">
-        <v>0.8588212790900439</v>
+        <v>0.8588212790900452</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01606645520451</v>
       </c>
       <c r="J22">
-        <v>0.8627718351143642</v>
+        <v>0.8627718351143657</v>
       </c>
       <c r="K22">
         <v>1.011327761812819</v>
       </c>
       <c r="L22">
-        <v>0.8727084897600648</v>
+        <v>0.8727084897600661</v>
       </c>
       <c r="M22">
-        <v>0.8778252981648224</v>
+        <v>0.8778252981648234</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8332712715657181</v>
+        <v>0.8332712715657185</v>
       </c>
       <c r="D23">
         <v>0.9983198725544625</v>
       </c>
       <c r="E23">
-        <v>0.8634558776663764</v>
+        <v>0.8634558776663767</v>
       </c>
       <c r="F23">
-        <v>0.8690295647632996</v>
+        <v>0.8690295647632998</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018417479923349</v>
       </c>
       <c r="J23">
-        <v>0.8726779373821449</v>
+        <v>0.8726779373821452</v>
       </c>
       <c r="K23">
         <v>1.013611101618277</v>
       </c>
       <c r="L23">
-        <v>0.8819317077534626</v>
+        <v>0.8819317077534629</v>
       </c>
       <c r="M23">
-        <v>0.8873469578499579</v>
+        <v>0.8873469578499581</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1263,7 +1263,7 @@
         <v>1.007501548614977</v>
       </c>
       <c r="E24">
-        <v>0.8966191113729074</v>
+        <v>0.8966191113729076</v>
       </c>
       <c r="F24">
         <v>0.9032660667431828</v>
@@ -1281,7 +1281,7 @@
         <v>1.02139819699402</v>
       </c>
       <c r="L24">
-        <v>0.9127424776771007</v>
+        <v>0.9127424776771006</v>
       </c>
       <c r="M24">
         <v>0.9192353531068136</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9084974514292604</v>
+        <v>0.9084974514292619</v>
       </c>
       <c r="D25">
-        <v>1.016510610518234</v>
+        <v>1.016510610518233</v>
       </c>
       <c r="E25">
-        <v>0.9276557295286333</v>
+        <v>0.9276557295286348</v>
       </c>
       <c r="F25">
-        <v>0.9353994948660768</v>
+        <v>0.9353994948660779</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033769909161043</v>
       </c>
       <c r="J25">
-        <v>0.9365519798765105</v>
+        <v>0.9365519798765118</v>
       </c>
       <c r="K25">
         <v>1.028857915304059</v>
       </c>
       <c r="L25">
-        <v>0.9414915122868678</v>
+        <v>0.941491512286869</v>
       </c>
       <c r="M25">
-        <v>0.9490908968184485</v>
+        <v>0.9490908968184496</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.933054324490214</v>
+        <v>0.937551743930165</v>
       </c>
       <c r="D2">
-        <v>1.022852926751707</v>
+        <v>1.023577507877677</v>
       </c>
       <c r="E2">
-        <v>0.9487702266654365</v>
+        <v>0.952616677737853</v>
       </c>
       <c r="F2">
-        <v>0.9573040672040122</v>
+        <v>0.9608694322101214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03880952266564</v>
+        <v>1.039621021268499</v>
       </c>
       <c r="J2">
-        <v>0.9574399690436662</v>
+        <v>0.961775405125132</v>
       </c>
       <c r="K2">
-        <v>1.034002806550296</v>
+        <v>1.034717859385426</v>
       </c>
       <c r="L2">
-        <v>0.9609926256178594</v>
+        <v>0.964778137495804</v>
       </c>
       <c r="M2">
-        <v>0.9693921109730554</v>
+        <v>0.972902246011014</v>
+      </c>
+      <c r="N2">
+        <v>0.9631412365175906</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9491219582594541</v>
+        <v>0.9535286808493575</v>
       </c>
       <c r="D3">
-        <v>1.02709932336981</v>
+        <v>1.02780839038976</v>
       </c>
       <c r="E3">
-        <v>0.9626175051446924</v>
+        <v>0.9663914332677831</v>
       </c>
       <c r="F3">
-        <v>0.9716865995921711</v>
+        <v>0.9751742195554782</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04209143434078</v>
+        <v>1.042887145913412</v>
       </c>
       <c r="J3">
-        <v>0.971102718652833</v>
+        <v>0.9753716824952877</v>
       </c>
       <c r="K3">
-        <v>1.037396818345735</v>
+        <v>1.038097404380283</v>
       </c>
       <c r="L3">
-        <v>0.9737521536913126</v>
+        <v>0.9774732034532625</v>
       </c>
       <c r="M3">
-        <v>0.9826950492818559</v>
+        <v>0.986134924823149</v>
+      </c>
+      <c r="N3">
+        <v>0.9767568221611267</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9588663219872131</v>
+        <v>0.9632250768502396</v>
       </c>
       <c r="D4">
-        <v>1.029709472364878</v>
+        <v>1.030410291193804</v>
       </c>
       <c r="E4">
-        <v>0.971026048602016</v>
+        <v>0.9747617301345233</v>
       </c>
       <c r="F4">
-        <v>0.9804262435259401</v>
+        <v>0.9838724761267702</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044070689228344</v>
+        <v>1.044858125009802</v>
       </c>
       <c r="J4">
-        <v>0.979384151603206</v>
+        <v>0.9836186797967311</v>
       </c>
       <c r="K4">
-        <v>1.039462080434205</v>
+        <v>1.040155038305014</v>
       </c>
       <c r="L4">
-        <v>0.9814872168374718</v>
+        <v>0.9851746151116727</v>
       </c>
       <c r="M4">
-        <v>0.9907667918266848</v>
+        <v>0.9941695238722934</v>
+      </c>
+      <c r="N4">
+        <v>0.9850155311446822</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9628254047890857</v>
+        <v>0.9671660700364277</v>
       </c>
       <c r="D5">
-        <v>1.030777150409713</v>
+        <v>1.031474851777048</v>
       </c>
       <c r="E5">
-        <v>0.9744445043443385</v>
+        <v>0.9781657908243243</v>
       </c>
       <c r="F5">
-        <v>0.9839805507375824</v>
+        <v>0.9874111175276837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044871704669551</v>
+        <v>1.045656040160571</v>
       </c>
       <c r="J5">
-        <v>0.9827474938276107</v>
+        <v>0.9869692041723125</v>
       </c>
       <c r="K5">
-        <v>1.040302132787356</v>
+        <v>1.040992222406089</v>
       </c>
       <c r="L5">
-        <v>0.9846288452625654</v>
+        <v>0.988303658731719</v>
       </c>
       <c r="M5">
-        <v>0.9940466767791341</v>
+        <v>0.9974354100445378</v>
+      </c>
+      <c r="N5">
+        <v>0.9883708136491871</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9634825673464227</v>
+        <v>0.9678203053567832</v>
       </c>
       <c r="D6">
-        <v>1.030954765010071</v>
+        <v>1.031651961599837</v>
       </c>
       <c r="E6">
-        <v>0.975012041307343</v>
+        <v>0.9787310001566426</v>
       </c>
       <c r="F6">
-        <v>0.9845707096982824</v>
+        <v>0.9879987382165643</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045004466065431</v>
+        <v>1.04578830118643</v>
       </c>
       <c r="J6">
-        <v>0.9833056828020749</v>
+        <v>0.9875253288903583</v>
       </c>
       <c r="K6">
-        <v>1.040441608798487</v>
+        <v>1.041131234868299</v>
       </c>
       <c r="L6">
-        <v>0.9851502468144897</v>
+        <v>0.9888230301245308</v>
       </c>
       <c r="M6">
-        <v>0.9945911073282554</v>
+        <v>0.997977575992285</v>
+      </c>
+      <c r="N6">
+        <v>0.9889277281281209</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9589197415589337</v>
+        <v>0.9632782470932744</v>
       </c>
       <c r="D7">
-        <v>1.02972385126166</v>
+        <v>1.030424627146519</v>
       </c>
       <c r="E7">
-        <v>0.9710721656891025</v>
+        <v>0.9748076486950223</v>
       </c>
       <c r="F7">
-        <v>0.9804741886355188</v>
+        <v>0.9839202055434211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044081510383276</v>
+        <v>1.044868903344645</v>
       </c>
       <c r="J7">
-        <v>0.9794295386562087</v>
+        <v>0.9836638894950742</v>
       </c>
       <c r="K7">
-        <v>1.039473412290605</v>
+        <v>1.040166330589651</v>
       </c>
       <c r="L7">
-        <v>0.9815296113087397</v>
+        <v>0.9852168356922636</v>
       </c>
       <c r="M7">
-        <v>0.990811046237195</v>
+        <v>0.9942135852953456</v>
+      </c>
+      <c r="N7">
+        <v>0.9850608050459826</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9386321800160494</v>
+        <v>0.9430963820557052</v>
       </c>
       <c r="D8">
-        <v>1.024318709647071</v>
+        <v>1.025037621523965</v>
       </c>
       <c r="E8">
-        <v>0.9535746423068343</v>
+        <v>0.9573945079157949</v>
       </c>
       <c r="F8">
-        <v>0.9622927326244402</v>
+        <v>0.9658296929450687</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039950898012668</v>
+        <v>1.040756599383146</v>
       </c>
       <c r="J8">
-        <v>0.9621837355746261</v>
+        <v>0.966494652363668</v>
       </c>
       <c r="K8">
-        <v>1.035179044007676</v>
+        <v>1.03588879511693</v>
       </c>
       <c r="L8">
-        <v>0.9654224942794083</v>
+        <v>0.9691842924445958</v>
       </c>
       <c r="M8">
-        <v>0.9740089152469952</v>
+        <v>0.977493318182265</v>
+      </c>
+      <c r="N8">
+        <v>0.9678671856285107</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8967510835101482</v>
+        <v>0.9015179322243468</v>
       </c>
       <c r="D9">
-        <v>1.013543614453206</v>
+        <v>1.01431367134458</v>
       </c>
       <c r="E9">
-        <v>0.9175796948749747</v>
+        <v>0.9216422909160754</v>
       </c>
       <c r="F9">
-        <v>0.9249584913127428</v>
+        <v>0.9287520329611335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031356863715685</v>
+        <v>1.032215643187802</v>
       </c>
       <c r="J9">
-        <v>0.9265622036536301</v>
+        <v>0.931101364697288</v>
       </c>
       <c r="K9">
-        <v>1.026420712248195</v>
+        <v>1.027178710706136</v>
       </c>
       <c r="L9">
-        <v>0.932168297338278</v>
+        <v>0.9361489286841678</v>
       </c>
       <c r="M9">
-        <v>0.9393989247506289</v>
+        <v>0.9431174935210835</v>
+      </c>
+      <c r="N9">
+        <v>0.9324236354339778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8623300982188217</v>
+        <v>0.8674651159713285</v>
       </c>
       <c r="D10">
-        <v>1.005113589865198</v>
+        <v>1.005944637376891</v>
       </c>
       <c r="E10">
-        <v>0.8881564793245516</v>
+        <v>0.8925148007075787</v>
       </c>
       <c r="F10">
-        <v>0.8945191893617994</v>
+        <v>0.8986202551255937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024308693388017</v>
+        <v>1.025232116739972</v>
       </c>
       <c r="J10">
-        <v>0.8973150439093365</v>
+        <v>0.9021402895335241</v>
       </c>
       <c r="K10">
-        <v>1.019391126613497</v>
+        <v>1.020207382715596</v>
       </c>
       <c r="L10">
-        <v>0.904888489003865</v>
+        <v>0.9091398052193131</v>
       </c>
       <c r="M10">
-        <v>0.9110954527509895</v>
+        <v>0.9150977014848333</v>
+      </c>
+      <c r="N10">
+        <v>0.9034214322215992</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8449175620878601</v>
+        <v>0.8502980913441496</v>
       </c>
       <c r="D11">
-        <v>1.001006056149069</v>
+        <v>1.00187725180111</v>
       </c>
       <c r="E11">
-        <v>0.8733386400830596</v>
+        <v>0.8778940778260295</v>
       </c>
       <c r="F11">
-        <v>0.8792204500695835</v>
+        <v>0.8835247968240045</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02076991097467</v>
+        <v>1.021736303555253</v>
       </c>
       <c r="J11">
-        <v>0.8825444405052075</v>
+        <v>0.887563043593139</v>
       </c>
       <c r="K11">
-        <v>1.015909024631624</v>
+        <v>1.01676385252454</v>
       </c>
       <c r="L11">
-        <v>0.8911223759685103</v>
+        <v>0.8955554009172827</v>
       </c>
       <c r="M11">
-        <v>0.8968464548848628</v>
+        <v>0.901037176907697</v>
+      </c>
+      <c r="N11">
+        <v>0.8888234849199451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8379246923383339</v>
+        <v>0.8434183310748408</v>
       </c>
       <c r="D12">
-        <v>0.9993872176942693</v>
+        <v>1.00027680248217</v>
       </c>
       <c r="E12">
-        <v>0.8674018360824534</v>
+        <v>0.8720480427329483</v>
       </c>
       <c r="F12">
-        <v>0.873097293547421</v>
+        <v>0.8774949310126391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019355882887634</v>
+        <v>1.020342030157826</v>
       </c>
       <c r="J12">
-        <v>0.8766188687605306</v>
+        <v>0.8817270059777426</v>
       </c>
       <c r="K12">
-        <v>1.014526167069832</v>
+        <v>1.015398701314078</v>
       </c>
       <c r="L12">
-        <v>0.8856021973937993</v>
+        <v>0.8901191273866588</v>
       </c>
       <c r="M12">
-        <v>0.8911394432774529</v>
+        <v>0.8954168326135056</v>
+      </c>
+      <c r="N12">
+        <v>0.882979159461732</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8394519029062638</v>
+        <v>0.8449200479084413</v>
       </c>
       <c r="D13">
-        <v>0.9997392422829136</v>
+        <v>1.000624687620481</v>
       </c>
       <c r="E13">
-        <v>0.8686976908590848</v>
+        <v>0.8733234417671049</v>
       </c>
       <c r="F13">
-        <v>0.874433505005215</v>
+        <v>0.8788101335110082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01966431436858</v>
+        <v>1.020646011378282</v>
       </c>
       <c r="J13">
-        <v>0.877912647554083</v>
+        <v>0.8830005836818675</v>
       </c>
       <c r="K13">
-        <v>1.014827388994923</v>
+        <v>1.015695935658312</v>
       </c>
       <c r="L13">
-        <v>0.8868073380340323</v>
+        <v>0.8913053482576416</v>
       </c>
       <c r="M13">
-        <v>0.8923850307936613</v>
+        <v>0.8966428946344209</v>
+      </c>
+      <c r="N13">
+        <v>0.8842545457922781</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8443514423061552</v>
+        <v>0.8497407919707449</v>
       </c>
       <c r="D14">
-        <v>1.00087433846082</v>
+        <v>1.001746970348585</v>
       </c>
       <c r="E14">
-        <v>0.8728577066722479</v>
+        <v>0.877420223758844</v>
       </c>
       <c r="F14">
-        <v>0.8787242821563399</v>
+        <v>0.883035911357416</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020655271052575</v>
+        <v>1.021623205059046</v>
       </c>
       <c r="J14">
-        <v>0.8820645808579829</v>
+        <v>0.8870901569413382</v>
       </c>
       <c r="K14">
-        <v>1.01579673209634</v>
+        <v>1.016652942116145</v>
       </c>
       <c r="L14">
-        <v>0.8906752915555119</v>
+        <v>0.8951148558793288</v>
       </c>
       <c r="M14">
-        <v>0.8963840905687666</v>
+        <v>0.9005815745418982</v>
+      </c>
+      <c r="N14">
+        <v>0.8883499267148581</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8472946113169615</v>
+        <v>0.8526387229650818</v>
       </c>
       <c r="D15">
-        <v>1.001560384709982</v>
+        <v>1.002425646251184</v>
       </c>
       <c r="E15">
-        <v>0.8753585894035123</v>
+        <v>0.8798847961493452</v>
       </c>
       <c r="F15">
-        <v>0.8813046477118482</v>
+        <v>0.8855789126216893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021251570996091</v>
+        <v>1.022211597663638</v>
       </c>
       <c r="J15">
-        <v>0.8845595647082721</v>
+        <v>0.8895493950476862</v>
       </c>
       <c r="K15">
-        <v>1.016381170009803</v>
+        <v>1.017230288857374</v>
       </c>
       <c r="L15">
-        <v>0.8929999651055883</v>
+        <v>0.8974059974872468</v>
       </c>
       <c r="M15">
-        <v>0.8987884957333755</v>
+        <v>0.902951292565808</v>
+      </c>
+      <c r="N15">
+        <v>0.8908126572213956</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.863422122436336</v>
+        <v>0.8685432657459878</v>
       </c>
       <c r="D16">
-        <v>1.00537478181481</v>
+        <v>1.006203549607289</v>
       </c>
       <c r="E16">
-        <v>0.8890873620687387</v>
+        <v>0.8934345405612075</v>
       </c>
       <c r="F16">
-        <v>0.8954810067269532</v>
+        <v>0.8995705479221497</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024531371982511</v>
+        <v>1.025452363347525</v>
       </c>
       <c r="J16">
-        <v>0.8982420423592207</v>
+        <v>0.9030564095952467</v>
       </c>
       <c r="K16">
-        <v>1.019611271716761</v>
+        <v>1.020425341844162</v>
       </c>
       <c r="L16">
-        <v>0.9057527140054705</v>
+        <v>0.909993782868687</v>
       </c>
       <c r="M16">
-        <v>0.9119907761876904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.91598235817806</v>
+      </c>
+      <c r="N16">
+        <v>0.9043388532788901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8727866200356446</v>
+        <v>0.8777952865111524</v>
       </c>
       <c r="D17">
-        <v>1.007631695981952</v>
+        <v>1.008441933594383</v>
       </c>
       <c r="E17">
-        <v>0.8970772947711345</v>
+        <v>0.9013341310506979</v>
       </c>
       <c r="F17">
-        <v>0.9037398306801669</v>
+        <v>0.9077357781416585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026443957042963</v>
+        <v>1.027345219053789</v>
       </c>
       <c r="J17">
-        <v>0.9061941517513384</v>
+        <v>0.9109205675524429</v>
       </c>
       <c r="K17">
-        <v>1.021507224148107</v>
+        <v>1.022303546668556</v>
       </c>
       <c r="L17">
-        <v>0.9131675347664432</v>
+        <v>0.9173256401070023</v>
       </c>
       <c r="M17">
-        <v>0.9196760924527873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9235811354267006</v>
+      </c>
+      <c r="N17">
+        <v>0.9122141792424169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8780197000544436</v>
+        <v>0.8829702535728525</v>
       </c>
       <c r="D18">
-        <v>1.008906113448115</v>
+        <v>1.009706740435939</v>
       </c>
       <c r="E18">
-        <v>0.9015477491136709</v>
+        <v>0.9057579041852122</v>
       </c>
       <c r="F18">
-        <v>0.9083633083904619</v>
+        <v>0.9123107734667331</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02751485348146</v>
+        <v>1.028405913048235</v>
       </c>
       <c r="J18">
-        <v>0.9106399203447282</v>
+        <v>0.9153210803022824</v>
       </c>
       <c r="K18">
-        <v>1.022572866416699</v>
+        <v>1.023360000310679</v>
       </c>
       <c r="L18">
-        <v>0.9173138204373854</v>
+        <v>0.9214291490955266</v>
       </c>
       <c r="M18">
-        <v>0.923976457133851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9278367407152344</v>
+      </c>
+      <c r="N18">
+        <v>0.916620941225107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8797684250874962</v>
+        <v>0.8847002660499473</v>
       </c>
       <c r="D19">
-        <v>1.009334069963998</v>
+        <v>1.010131596574239</v>
       </c>
       <c r="E19">
-        <v>0.903042482326509</v>
+        <v>0.9072376056491207</v>
       </c>
       <c r="F19">
-        <v>0.9099096085779573</v>
+        <v>0.9138414423963958</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027873002731637</v>
+        <v>1.028760775925871</v>
       </c>
       <c r="J19">
-        <v>0.9121258318425889</v>
+        <v>0.9167924496793288</v>
       </c>
       <c r="K19">
-        <v>1.022929917266178</v>
+        <v>1.023714089554522</v>
       </c>
       <c r="L19">
-        <v>0.9186997723486919</v>
+        <v>0.9228013414984302</v>
       </c>
       <c r="M19">
-        <v>0.9254143547750453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9292602185917492</v>
+      </c>
+      <c r="N19">
+        <v>0.9180944001154375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8718063995337202</v>
+        <v>0.8768263158214198</v>
       </c>
       <c r="D20">
-        <v>1.007394028923131</v>
+        <v>1.008206124008305</v>
       </c>
       <c r="E20">
-        <v>0.8962403556328276</v>
+        <v>0.9005062284590103</v>
       </c>
       <c r="F20">
-        <v>0.9028744460038596</v>
+        <v>0.9068797686192627</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026243521098146</v>
+        <v>1.027146757482637</v>
       </c>
       <c r="J20">
-        <v>0.9053615523130569</v>
+        <v>0.9100967445402859</v>
       </c>
       <c r="K20">
-        <v>1.021308097432665</v>
+        <v>1.022106197212541</v>
       </c>
       <c r="L20">
-        <v>0.9123910920457504</v>
+        <v>0.9165574857681119</v>
       </c>
       <c r="M20">
-        <v>0.9188710192939501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9227847232194332</v>
+      </c>
+      <c r="N20">
+        <v>0.9113891863070889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8429248157229301</v>
+        <v>0.8483366493920882</v>
       </c>
       <c r="D21">
-        <v>1.000542924589861</v>
+        <v>1.001419215817808</v>
       </c>
       <c r="E21">
-        <v>0.8716459898765828</v>
+        <v>0.8762265520249845</v>
       </c>
       <c r="F21">
-        <v>0.8774742891564624</v>
+        <v>0.8818044760474304</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020366503666337</v>
+        <v>1.021338366185806</v>
       </c>
       <c r="J21">
-        <v>0.8808554414003805</v>
+        <v>0.8858987994100658</v>
       </c>
       <c r="K21">
-        <v>1.015514018393974</v>
+        <v>1.016373750512772</v>
       </c>
       <c r="L21">
-        <v>0.8895487800304864</v>
+        <v>0.8940050167250705</v>
       </c>
       <c r="M21">
-        <v>0.8952191935656746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8994339116027507</v>
+      </c>
+      <c r="N21">
+        <v>0.8871568773192406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8215639692057158</v>
+        <v>0.8273620315735312</v>
       </c>
       <c r="D22">
-        <v>0.9956700367069063</v>
+        <v>0.9966088429111909</v>
       </c>
       <c r="E22">
-        <v>0.8535457802009814</v>
+        <v>0.8584361280676962</v>
       </c>
       <c r="F22">
-        <v>0.8588212790900452</v>
+        <v>0.8634690797731498</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01606645520451</v>
+        <v>1.017105647589852</v>
       </c>
       <c r="J22">
-        <v>0.8627718351143657</v>
+        <v>0.8681219817514272</v>
       </c>
       <c r="K22">
-        <v>1.011327761812819</v>
+        <v>1.012247779957669</v>
       </c>
       <c r="L22">
-        <v>0.8727084897600661</v>
+        <v>0.8774516419876431</v>
       </c>
       <c r="M22">
-        <v>0.8778252981648234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8823354947305168</v>
+      </c>
+      <c r="N22">
+        <v>0.8693548145404972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8332712715657185</v>
+        <v>0.8388454803418031</v>
       </c>
       <c r="D23">
-        <v>0.9983198725544625</v>
+        <v>0.9992225206477608</v>
       </c>
       <c r="E23">
-        <v>0.8634558776663767</v>
+        <v>0.8681667219847636</v>
       </c>
       <c r="F23">
-        <v>0.8690295647632998</v>
+        <v>0.8734935344705017</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018417479923349</v>
+        <v>1.019417683319936</v>
       </c>
       <c r="J23">
-        <v>0.8726779373821452</v>
+        <v>0.8778499912825188</v>
       </c>
       <c r="K23">
-        <v>1.013611101618277</v>
+        <v>1.014496226289482</v>
       </c>
       <c r="L23">
-        <v>0.8819317077534629</v>
+        <v>0.8865084602259191</v>
       </c>
       <c r="M23">
-        <v>0.8873469578499581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8916860242421647</v>
+      </c>
+      <c r="N23">
+        <v>0.8790966389609414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8722500170793016</v>
+        <v>0.8772648274524921</v>
       </c>
       <c r="D24">
-        <v>1.007501548614977</v>
+        <v>1.00831280077294</v>
       </c>
       <c r="E24">
-        <v>0.8966191113729076</v>
+        <v>0.9008808828248968</v>
       </c>
       <c r="F24">
-        <v>0.9032660667431828</v>
+        <v>0.907267134692319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026334225801514</v>
+        <v>1.027236566111652</v>
       </c>
       <c r="J24">
-        <v>0.9057383551122604</v>
+        <v>0.9104695634127826</v>
       </c>
       <c r="K24">
-        <v>1.02139819699402</v>
+        <v>1.022195490195789</v>
       </c>
       <c r="L24">
-        <v>0.9127424776771006</v>
+        <v>0.9169051092949609</v>
       </c>
       <c r="M24">
-        <v>0.9192353531068136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9231451262669064</v>
+      </c>
+      <c r="N24">
+        <v>0.9117625346251476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9084974514292619</v>
+        <v>0.9131659735924073</v>
       </c>
       <c r="D25">
-        <v>1.016510610518233</v>
+        <v>1.017264169416403</v>
       </c>
       <c r="E25">
-        <v>0.9276557295286348</v>
+        <v>0.9316393793298696</v>
       </c>
       <c r="F25">
-        <v>0.9353994948660779</v>
+        <v>0.9391101576868025</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033769909161043</v>
+        <v>1.03461140782567</v>
       </c>
       <c r="J25">
-        <v>0.9365519798765118</v>
+        <v>0.9410160003279546</v>
       </c>
       <c r="K25">
-        <v>1.028857915304059</v>
+        <v>1.029600265038808</v>
       </c>
       <c r="L25">
-        <v>0.941491512286869</v>
+        <v>0.9454004966630233</v>
       </c>
       <c r="M25">
-        <v>0.9490908968184496</v>
+        <v>0.9527334735683928</v>
+      </c>
+      <c r="N25">
+        <v>0.9423523509844645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.937551743930165</v>
+        <v>0.9833369231770777</v>
       </c>
       <c r="D2">
-        <v>1.023577507877677</v>
+        <v>1.051022278134228</v>
       </c>
       <c r="E2">
-        <v>0.952616677737853</v>
+        <v>0.9914833317877082</v>
       </c>
       <c r="F2">
-        <v>0.9608694322101214</v>
+        <v>1.044181736701282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039621021268499</v>
+        <v>1.060406786254761</v>
       </c>
       <c r="J2">
-        <v>0.961775405125132</v>
+        <v>1.006027708846435</v>
       </c>
       <c r="K2">
-        <v>1.034717859385426</v>
+        <v>1.061813771069231</v>
       </c>
       <c r="L2">
-        <v>0.964778137495804</v>
+        <v>1.003062606484327</v>
       </c>
       <c r="M2">
-        <v>0.972902246011014</v>
+        <v>1.055058042820951</v>
       </c>
       <c r="N2">
-        <v>0.9631412365175906</v>
+        <v>1.007456383585988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9535286808493575</v>
+        <v>0.9915506828341057</v>
       </c>
       <c r="D3">
-        <v>1.02780839038976</v>
+        <v>1.055707985488514</v>
       </c>
       <c r="E3">
-        <v>0.9663914332677831</v>
+        <v>0.9983361602605225</v>
       </c>
       <c r="F3">
-        <v>0.9751742195554782</v>
+        <v>1.049942375578532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042887145913412</v>
+        <v>1.062775804918552</v>
       </c>
       <c r="J3">
-        <v>0.9753716824952877</v>
+        <v>1.012274365286263</v>
       </c>
       <c r="K3">
-        <v>1.038097404380283</v>
+        <v>1.06567443868985</v>
       </c>
       <c r="L3">
-        <v>0.9774732034532625</v>
+        <v>1.008990374588079</v>
       </c>
       <c r="M3">
-        <v>0.986134924823149</v>
+        <v>1.059973755038297</v>
       </c>
       <c r="N3">
-        <v>0.9767568221611267</v>
+        <v>1.013711910994462</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9632250768502396</v>
+        <v>0.9966942124694822</v>
       </c>
       <c r="D4">
-        <v>1.030410291193804</v>
+        <v>1.058649294812548</v>
       </c>
       <c r="E4">
-        <v>0.9747617301345233</v>
+        <v>1.002634394318208</v>
       </c>
       <c r="F4">
-        <v>0.9838724761267702</v>
+        <v>1.053559789584005</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044858125009802</v>
+        <v>1.064246505092749</v>
       </c>
       <c r="J4">
-        <v>0.9836186797967311</v>
+        <v>1.01618286032079</v>
       </c>
       <c r="K4">
-        <v>1.040155038305014</v>
+        <v>1.068087881471912</v>
       </c>
       <c r="L4">
-        <v>0.9851746151116727</v>
+        <v>1.012701128167791</v>
       </c>
       <c r="M4">
-        <v>0.9941695238722934</v>
+        <v>1.063052071333844</v>
       </c>
       <c r="N4">
-        <v>0.9850155311446822</v>
+        <v>1.017625956540249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9671660700364277</v>
+        <v>0.9988180510884171</v>
       </c>
       <c r="D5">
-        <v>1.031474851777048</v>
+        <v>1.059865176685584</v>
       </c>
       <c r="E5">
-        <v>0.9781657908243243</v>
+        <v>1.004410740191299</v>
       </c>
       <c r="F5">
-        <v>0.9874111175276837</v>
+        <v>1.055055563260276</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045656040160571</v>
+        <v>1.064850545800688</v>
       </c>
       <c r="J5">
-        <v>0.9869692041723125</v>
+        <v>1.017795870744178</v>
       </c>
       <c r="K5">
-        <v>1.040992222406089</v>
+        <v>1.069083182026239</v>
       </c>
       <c r="L5">
-        <v>0.988303658731719</v>
+        <v>1.014232949511542</v>
       </c>
       <c r="M5">
-        <v>0.9974354100445378</v>
+        <v>1.06432290103371</v>
       </c>
       <c r="N5">
-        <v>0.9883708136491871</v>
+        <v>1.019241257623453</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9678203053567832</v>
+        <v>0.9991724639651482</v>
       </c>
       <c r="D6">
-        <v>1.031651961599837</v>
+        <v>1.060068147099996</v>
       </c>
       <c r="E6">
-        <v>0.9787310001566426</v>
+        <v>1.004707253035352</v>
       </c>
       <c r="F6">
-        <v>0.9879987382165643</v>
+        <v>1.055305282673266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04578830118643</v>
+        <v>1.06495114965618</v>
       </c>
       <c r="J6">
-        <v>0.9875253288903583</v>
+        <v>1.018064986411232</v>
       </c>
       <c r="K6">
-        <v>1.041131234868299</v>
+        <v>1.069249191301762</v>
       </c>
       <c r="L6">
-        <v>0.9888230301245308</v>
+        <v>1.014488543812895</v>
       </c>
       <c r="M6">
-        <v>0.997977575992285</v>
+        <v>1.064534946943817</v>
       </c>
       <c r="N6">
-        <v>0.9889277281281209</v>
+        <v>1.019510755465622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9632782470932744</v>
+        <v>0.9967227394389268</v>
       </c>
       <c r="D7">
-        <v>1.030424627146519</v>
+        <v>1.058665621271047</v>
       </c>
       <c r="E7">
-        <v>0.9748076486950223</v>
+        <v>1.002658247881208</v>
       </c>
       <c r="F7">
-        <v>0.9839202055434211</v>
+        <v>1.053579872640843</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044868903344645</v>
+        <v>1.064254631453673</v>
       </c>
       <c r="J7">
-        <v>0.9836638894950742</v>
+        <v>1.016204529489621</v>
       </c>
       <c r="K7">
-        <v>1.040166330589651</v>
+        <v>1.068101255398343</v>
       </c>
       <c r="L7">
-        <v>0.9852168356922636</v>
+        <v>1.012721705002704</v>
       </c>
       <c r="M7">
-        <v>0.9942135852953456</v>
+        <v>1.063069142195496</v>
       </c>
       <c r="N7">
-        <v>0.9850608050459826</v>
+        <v>1.017647656481785</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9430963820557052</v>
+        <v>0.986149865356034</v>
       </c>
       <c r="D8">
-        <v>1.025037621523965</v>
+        <v>1.052625273201413</v>
       </c>
       <c r="E8">
-        <v>0.9573945079157949</v>
+        <v>0.9938286561666074</v>
       </c>
       <c r="F8">
-        <v>0.9658296929450687</v>
+        <v>1.0461522346087</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040756599383146</v>
+        <v>1.061220700561831</v>
       </c>
       <c r="J8">
-        <v>0.966494652363668</v>
+        <v>1.008167603794896</v>
       </c>
       <c r="K8">
-        <v>1.03588879511693</v>
+        <v>1.063136637373576</v>
       </c>
       <c r="L8">
-        <v>0.9691842924445958</v>
+        <v>1.005092876280825</v>
       </c>
       <c r="M8">
-        <v>0.977493318182265</v>
+        <v>1.056741331272971</v>
       </c>
       <c r="N8">
-        <v>0.9678671856285107</v>
+        <v>1.009599317430725</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9015179322243468</v>
+        <v>0.9660799201293769</v>
       </c>
       <c r="D9">
-        <v>1.01431367134458</v>
+        <v>1.041234108457869</v>
       </c>
       <c r="E9">
-        <v>0.9216422909160754</v>
+        <v>0.9771309879876385</v>
       </c>
       <c r="F9">
-        <v>0.9287520329611335</v>
+        <v>1.032151766796236</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032215643187802</v>
+        <v>1.055365294078497</v>
       </c>
       <c r="J9">
-        <v>0.931101364697288</v>
+        <v>0.9928900920972962</v>
       </c>
       <c r="K9">
-        <v>1.027178710706136</v>
+        <v>1.053691828887961</v>
       </c>
       <c r="L9">
-        <v>0.9361489286841678</v>
+        <v>0.9906063262140279</v>
       </c>
       <c r="M9">
-        <v>0.9431174935210835</v>
+        <v>1.044743885470424</v>
       </c>
       <c r="N9">
-        <v>0.9324236354339778</v>
+        <v>0.9943001099141597</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8674651159713285</v>
+        <v>0.9515281490015228</v>
       </c>
       <c r="D10">
-        <v>1.005944637376891</v>
+        <v>1.033053510252366</v>
       </c>
       <c r="E10">
-        <v>0.8925148007075787</v>
+        <v>0.965077976535531</v>
       </c>
       <c r="F10">
-        <v>0.8986202551255937</v>
+        <v>1.022095659413506</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025232116739972</v>
+        <v>1.051067151229118</v>
       </c>
       <c r="J10">
-        <v>0.9021402895335241</v>
+        <v>0.9818062539392524</v>
       </c>
       <c r="K10">
-        <v>1.020207382715596</v>
+        <v>1.046850561897971</v>
       </c>
       <c r="L10">
-        <v>0.9091398052193131</v>
+        <v>0.980107745337095</v>
       </c>
       <c r="M10">
-        <v>0.9150977014848333</v>
+        <v>1.036077109978631</v>
       </c>
       <c r="N10">
-        <v>0.9034214322215992</v>
+        <v>0.9832005314345976</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8502980913441496</v>
+        <v>0.9448939604487244</v>
       </c>
       <c r="D11">
-        <v>1.00187725180111</v>
+        <v>1.02934979859196</v>
       </c>
       <c r="E11">
-        <v>0.8778940778260295</v>
+        <v>0.9595985537646899</v>
       </c>
       <c r="F11">
-        <v>0.8835247968240045</v>
+        <v>1.017540807572476</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021736303555253</v>
+        <v>1.049098513338157</v>
       </c>
       <c r="J11">
-        <v>0.887563043593139</v>
+        <v>0.9767535531616737</v>
       </c>
       <c r="K11">
-        <v>1.01676385252454</v>
+        <v>1.043738663014819</v>
       </c>
       <c r="L11">
-        <v>0.8955554009172827</v>
+        <v>0.9753248360561299</v>
       </c>
       <c r="M11">
-        <v>0.901037176907697</v>
+        <v>1.032139341611658</v>
       </c>
       <c r="N11">
-        <v>0.8888234849199451</v>
+        <v>0.9781406552423615</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8434183310748408</v>
+        <v>0.9423740727547819</v>
       </c>
       <c r="D12">
-        <v>1.00027680248217</v>
+        <v>1.027947586939899</v>
       </c>
       <c r="E12">
-        <v>0.8720480427329483</v>
+        <v>0.9575199043050563</v>
       </c>
       <c r="F12">
-        <v>0.8774949310126391</v>
+        <v>1.015815896872325</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020342030157826</v>
+        <v>1.048349724405627</v>
       </c>
       <c r="J12">
-        <v>0.8817270059777426</v>
+        <v>0.9748346406916665</v>
       </c>
       <c r="K12">
-        <v>1.015398701314078</v>
+        <v>1.042558252197733</v>
       </c>
       <c r="L12">
-        <v>0.8901191273866588</v>
+        <v>0.9735088633664343</v>
       </c>
       <c r="M12">
-        <v>0.8954168326135056</v>
+        <v>1.030646235150361</v>
       </c>
       <c r="N12">
-        <v>0.882979159461732</v>
+        <v>0.976219017696545</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8449200479084413</v>
+        <v>0.9429172153352346</v>
       </c>
       <c r="D13">
-        <v>1.000624687620481</v>
+        <v>1.028249604117014</v>
       </c>
       <c r="E13">
-        <v>0.8733234417671049</v>
+        <v>0.9579678183029736</v>
       </c>
       <c r="F13">
-        <v>0.8788101335110082</v>
+        <v>1.016187442513985</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020646011378282</v>
+        <v>1.048511161001176</v>
       </c>
       <c r="J13">
-        <v>0.8830005836818675</v>
+        <v>0.9752482317280794</v>
       </c>
       <c r="K13">
-        <v>1.015695935658312</v>
+        <v>1.04281259962767</v>
       </c>
       <c r="L13">
-        <v>0.8913053482576416</v>
+        <v>0.9739002452843137</v>
       </c>
       <c r="M13">
-        <v>0.8966428946344209</v>
+        <v>1.03096793607817</v>
       </c>
       <c r="N13">
-        <v>0.8842545457922781</v>
+        <v>0.976633196079669</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8497407919707449</v>
+        <v>0.9446868366273502</v>
       </c>
       <c r="D14">
-        <v>1.001746970348585</v>
+        <v>1.029234445746004</v>
       </c>
       <c r="E14">
-        <v>0.877420223758844</v>
+        <v>0.9594276430155865</v>
       </c>
       <c r="F14">
-        <v>0.883035911357416</v>
+        <v>1.017398918220807</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021623205059046</v>
+        <v>1.049036985022314</v>
       </c>
       <c r="J14">
-        <v>0.8870901569413382</v>
+        <v>0.9765958200817236</v>
       </c>
       <c r="K14">
-        <v>1.016652942116145</v>
+        <v>1.043641602810354</v>
       </c>
       <c r="L14">
-        <v>0.8951148558793288</v>
+        <v>0.975175554673349</v>
       </c>
       <c r="M14">
-        <v>0.9005815745418982</v>
+        <v>1.03201655874296</v>
       </c>
       <c r="N14">
-        <v>0.8883499267148581</v>
+        <v>0.9779826981633459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8526387229650818</v>
+        <v>0.9457696014154263</v>
       </c>
       <c r="D15">
-        <v>1.002425646251184</v>
+        <v>1.029837657014403</v>
       </c>
       <c r="E15">
-        <v>0.8798847961493452</v>
+        <v>0.9603212076497341</v>
       </c>
       <c r="F15">
-        <v>0.8855789126216893</v>
+        <v>1.018140876366296</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022211597663638</v>
+        <v>1.049358591844004</v>
       </c>
       <c r="J15">
-        <v>0.8895493950476862</v>
+        <v>0.9774204011775752</v>
       </c>
       <c r="K15">
-        <v>1.017230288857374</v>
+        <v>1.044149064729239</v>
       </c>
       <c r="L15">
-        <v>0.8974059974872468</v>
+        <v>0.9759559724379447</v>
       </c>
       <c r="M15">
-        <v>0.902951292565808</v>
+        <v>1.032658529710285</v>
       </c>
       <c r="N15">
-        <v>0.8908126572213956</v>
+        <v>0.9788084502589341</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8685432657459878</v>
+        <v>0.9519609603003618</v>
       </c>
       <c r="D16">
-        <v>1.006203549607289</v>
+        <v>1.033295728381119</v>
       </c>
       <c r="E16">
-        <v>0.8934345405612075</v>
+        <v>0.9654357952902862</v>
       </c>
       <c r="F16">
-        <v>0.8995705479221497</v>
+        <v>1.022393486522863</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025452363347525</v>
+        <v>1.051195423428718</v>
       </c>
       <c r="J16">
-        <v>0.9030564095952467</v>
+        <v>0.9821359155696169</v>
       </c>
       <c r="K16">
-        <v>1.020425341844162</v>
+        <v>1.047053769332098</v>
       </c>
       <c r="L16">
-        <v>0.909993782868687</v>
+        <v>0.9804198685994486</v>
       </c>
       <c r="M16">
-        <v>0.91598235817806</v>
+        <v>1.036334331501428</v>
       </c>
       <c r="N16">
-        <v>0.9043388532788901</v>
+        <v>0.9835306612222899</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8777952865111524</v>
+        <v>0.9557517472826282</v>
       </c>
       <c r="D17">
-        <v>1.008441933594383</v>
+        <v>1.035420179877412</v>
       </c>
       <c r="E17">
-        <v>0.9013341310506979</v>
+        <v>0.9685715380989276</v>
       </c>
       <c r="F17">
-        <v>0.9077357781416585</v>
+        <v>1.025005429930641</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027345219053789</v>
+        <v>1.052317910830499</v>
       </c>
       <c r="J17">
-        <v>0.9109205675524429</v>
+        <v>0.9850233360390622</v>
       </c>
       <c r="K17">
-        <v>1.022303546668556</v>
+        <v>1.048834415342432</v>
       </c>
       <c r="L17">
-        <v>0.9173256401070023</v>
+        <v>0.9831540146072469</v>
       </c>
       <c r="M17">
-        <v>0.9235811354267006</v>
+        <v>1.038588782393018</v>
       </c>
       <c r="N17">
-        <v>0.9122141792424169</v>
+        <v>0.9864221821599934</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8829702535728525</v>
+        <v>0.9579311234528629</v>
       </c>
       <c r="D18">
-        <v>1.009706740435939</v>
+        <v>1.036643924441424</v>
       </c>
       <c r="E18">
-        <v>0.9057579041852122</v>
+        <v>0.970375757123868</v>
       </c>
       <c r="F18">
-        <v>0.9123107734667331</v>
+        <v>1.026509805462842</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028405913048235</v>
+        <v>1.052962369573049</v>
       </c>
       <c r="J18">
-        <v>0.9153210803022824</v>
+        <v>0.9866833816178624</v>
       </c>
       <c r="K18">
-        <v>1.023360000310679</v>
+        <v>1.049858755524877</v>
       </c>
       <c r="L18">
-        <v>0.9214291490955266</v>
+        <v>0.9847262172028164</v>
       </c>
       <c r="M18">
-        <v>0.9278367407152344</v>
+        <v>1.039886113946646</v>
       </c>
       <c r="N18">
-        <v>0.916620941225107</v>
+        <v>0.9880845851939256</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8847002660499473</v>
+        <v>0.958669009376603</v>
       </c>
       <c r="D19">
-        <v>1.010131596574239</v>
+        <v>1.037058638252918</v>
       </c>
       <c r="E19">
-        <v>0.9072376056491207</v>
+        <v>0.970986859714621</v>
       </c>
       <c r="F19">
-        <v>0.9138414423963958</v>
+        <v>1.027019596204331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028760775925871</v>
+        <v>1.053180410696849</v>
       </c>
       <c r="J19">
-        <v>0.9167924496793288</v>
+        <v>0.9872454333572737</v>
       </c>
       <c r="K19">
-        <v>1.023714089554522</v>
+        <v>1.050205664085042</v>
       </c>
       <c r="L19">
-        <v>0.9228013414984302</v>
+        <v>0.9852585738101109</v>
       </c>
       <c r="M19">
-        <v>0.9292602185917492</v>
+        <v>1.040325550812204</v>
       </c>
       <c r="N19">
-        <v>0.9180944001154375</v>
+        <v>0.988647435111275</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8768263158214198</v>
+        <v>0.9553483509586568</v>
       </c>
       <c r="D20">
-        <v>1.008206124008305</v>
+        <v>1.035193855592318</v>
       </c>
       <c r="E20">
-        <v>0.9005062284590103</v>
+        <v>0.9682376969591595</v>
       </c>
       <c r="F20">
-        <v>0.9068797686192627</v>
+        <v>1.024727191230467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027146757482637</v>
+        <v>1.052198550191212</v>
       </c>
       <c r="J20">
-        <v>0.9100967445402859</v>
+        <v>0.9847160671895352</v>
       </c>
       <c r="K20">
-        <v>1.022106197212541</v>
+        <v>1.048644859782614</v>
       </c>
       <c r="L20">
-        <v>0.9165574857681119</v>
+        <v>0.982863027560491</v>
       </c>
       <c r="M20">
-        <v>0.9227847232194332</v>
+        <v>1.038348744853032</v>
       </c>
       <c r="N20">
-        <v>0.9113891863070889</v>
+        <v>0.9861144769534557</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8483366493920882</v>
+        <v>0.9441673130224583</v>
       </c>
       <c r="D21">
-        <v>1.001419215817808</v>
+        <v>1.028945185178731</v>
       </c>
       <c r="E21">
-        <v>0.8762265520249845</v>
+        <v>0.9589989948704183</v>
       </c>
       <c r="F21">
-        <v>0.8818044760474304</v>
+        <v>1.017043106331189</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021338366185806</v>
+        <v>1.048882639650375</v>
       </c>
       <c r="J21">
-        <v>0.8858987994100658</v>
+        <v>0.9762001871984931</v>
       </c>
       <c r="K21">
-        <v>1.016373750512772</v>
+        <v>1.043398176599952</v>
       </c>
       <c r="L21">
-        <v>0.8940050167250705</v>
+        <v>0.974801128491653</v>
       </c>
       <c r="M21">
-        <v>0.8994339116027507</v>
+        <v>1.031708629166868</v>
       </c>
       <c r="N21">
-        <v>0.8871568773192406</v>
+        <v>0.9775865034360411</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.8273620315735312</v>
+        <v>0.9368118880450069</v>
       </c>
       <c r="D22">
-        <v>0.9966088429111909</v>
+        <v>1.024861790109061</v>
       </c>
       <c r="E22">
-        <v>0.8584361280676962</v>
+        <v>0.952936857568396</v>
       </c>
       <c r="F22">
-        <v>0.8634690797731498</v>
+        <v>1.01201890633251</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017105647589852</v>
+        <v>1.046695409258477</v>
       </c>
       <c r="J22">
-        <v>0.8681219817514272</v>
+        <v>0.9705997562974027</v>
       </c>
       <c r="K22">
-        <v>1.012247779957669</v>
+        <v>1.039956311657185</v>
       </c>
       <c r="L22">
-        <v>0.8774516419876431</v>
+        <v>0.9695020785782794</v>
       </c>
       <c r="M22">
-        <v>0.8823354947305168</v>
+        <v>1.027355968141869</v>
       </c>
       <c r="N22">
-        <v>0.8693548145404972</v>
+        <v>0.9719781192806932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8388454803418031</v>
+        <v>0.9407441008148095</v>
       </c>
       <c r="D23">
-        <v>0.9992225206477608</v>
+        <v>1.027041963543243</v>
       </c>
       <c r="E23">
-        <v>0.8681667219847636</v>
+        <v>0.9561761212992733</v>
       </c>
       <c r="F23">
-        <v>0.8734935344705017</v>
+        <v>1.014701705929769</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019417683319936</v>
+        <v>1.047865129348453</v>
       </c>
       <c r="J23">
-        <v>0.8778499912825188</v>
+        <v>0.973593510690449</v>
       </c>
       <c r="K23">
-        <v>1.014496226289482</v>
+        <v>1.041795233538929</v>
       </c>
       <c r="L23">
-        <v>0.8865084602259191</v>
+        <v>0.9723344524842045</v>
       </c>
       <c r="M23">
-        <v>0.8916860242421647</v>
+        <v>1.029681238028554</v>
       </c>
       <c r="N23">
-        <v>0.8790966389609414</v>
+        <v>0.9749761251483662</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8772648274524921</v>
+        <v>0.9555307260224885</v>
       </c>
       <c r="D24">
-        <v>1.00831280077294</v>
+        <v>1.035296169258158</v>
       </c>
       <c r="E24">
-        <v>0.9008808828248968</v>
+        <v>0.9683886217484786</v>
       </c>
       <c r="F24">
-        <v>0.907267134692319</v>
+        <v>1.024852974215279</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027236566111652</v>
+        <v>1.052252515757944</v>
       </c>
       <c r="J24">
-        <v>0.9104695634127826</v>
+        <v>0.9848549830506059</v>
       </c>
       <c r="K24">
-        <v>1.022195490195789</v>
+        <v>1.048730555761346</v>
       </c>
       <c r="L24">
-        <v>0.9169051092949609</v>
+        <v>0.9829945815764115</v>
       </c>
       <c r="M24">
-        <v>0.9231451262669064</v>
+        <v>1.038457261838</v>
       </c>
       <c r="N24">
-        <v>0.9117625346251476</v>
+        <v>0.9862535900909833</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9131659735924073</v>
+        <v>0.9714584115679156</v>
       </c>
       <c r="D25">
-        <v>1.017264169416403</v>
+        <v>1.044275589525364</v>
       </c>
       <c r="E25">
-        <v>0.9316393793298696</v>
+        <v>0.9815974831048043</v>
       </c>
       <c r="F25">
-        <v>0.9391101576868025</v>
+        <v>1.035889735678157</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03461140782567</v>
+        <v>1.056944379177009</v>
       </c>
       <c r="J25">
-        <v>0.9410160003279546</v>
+        <v>0.9969860291144822</v>
       </c>
       <c r="K25">
-        <v>1.029600265038808</v>
+        <v>1.056223375379773</v>
       </c>
       <c r="L25">
-        <v>0.9454004966630233</v>
+        <v>0.994488353927838</v>
       </c>
       <c r="M25">
-        <v>0.9527334735683928</v>
+        <v>1.0479553331718</v>
       </c>
       <c r="N25">
-        <v>0.9423523509844645</v>
+        <v>0.9984018636317208</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9833369231770777</v>
+        <v>0.9892761200051925</v>
       </c>
       <c r="D2">
-        <v>1.051022278134228</v>
+        <v>1.027645344642709</v>
       </c>
       <c r="E2">
-        <v>0.9914833317877082</v>
+        <v>0.9971876936419751</v>
       </c>
       <c r="F2">
-        <v>1.044181736701282</v>
+        <v>0.9655525599206748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060406786254761</v>
+        <v>1.044205773134425</v>
       </c>
       <c r="J2">
-        <v>1.006027708846435</v>
+        <v>1.01178238088312</v>
       </c>
       <c r="K2">
-        <v>1.061813771069231</v>
+        <v>1.038732516203279</v>
       </c>
       <c r="L2">
-        <v>1.003062606484327</v>
+        <v>1.008686347905605</v>
       </c>
       <c r="M2">
-        <v>1.055058042820951</v>
+        <v>0.9775136189854223</v>
       </c>
       <c r="N2">
-        <v>1.007456383585988</v>
+        <v>1.013219227917035</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915506828341057</v>
+        <v>0.994180396662924</v>
       </c>
       <c r="D3">
-        <v>1.055707985488514</v>
+        <v>1.030167804546284</v>
       </c>
       <c r="E3">
-        <v>0.9983361602605225</v>
+        <v>1.001115033444734</v>
       </c>
       <c r="F3">
-        <v>1.049942375578532</v>
+        <v>0.9732119870252299</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062775804918552</v>
+        <v>1.04555901544893</v>
       </c>
       <c r="J3">
-        <v>1.012274365286263</v>
+        <v>1.014830977060172</v>
       </c>
       <c r="K3">
-        <v>1.06567443868985</v>
+        <v>1.040428702316055</v>
       </c>
       <c r="L3">
-        <v>1.008990374588079</v>
+        <v>1.011733667063309</v>
       </c>
       <c r="M3">
-        <v>1.059973755038297</v>
+        <v>0.9841995016110963</v>
       </c>
       <c r="N3">
-        <v>1.013711910994462</v>
+        <v>1.016272153450337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9966942124694822</v>
+        <v>0.9972764462843662</v>
       </c>
       <c r="D4">
-        <v>1.058649294812548</v>
+        <v>1.031764479100706</v>
       </c>
       <c r="E4">
-        <v>1.002634394318208</v>
+        <v>1.003600353346824</v>
       </c>
       <c r="F4">
-        <v>1.053559789584005</v>
+        <v>0.978034043953397</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064246505092749</v>
+        <v>1.0464010443714</v>
       </c>
       <c r="J4">
-        <v>1.01618286032079</v>
+        <v>1.016750078365716</v>
       </c>
       <c r="K4">
-        <v>1.068087881471912</v>
+        <v>1.041494073767754</v>
       </c>
       <c r="L4">
-        <v>1.012701128167791</v>
+        <v>1.01365551863164</v>
       </c>
       <c r="M4">
-        <v>1.063052071333844</v>
+        <v>0.9884050133036208</v>
       </c>
       <c r="N4">
-        <v>1.017625956540249</v>
+        <v>1.018193980099859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988180510884171</v>
+        <v>0.9985603022570176</v>
       </c>
       <c r="D5">
-        <v>1.059865176685584</v>
+        <v>1.032427475048109</v>
       </c>
       <c r="E5">
-        <v>1.004410740191299</v>
+        <v>1.004632350034994</v>
       </c>
       <c r="F5">
-        <v>1.055055563260276</v>
+        <v>0.9800308867526243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064850545800688</v>
+        <v>1.04674721034505</v>
       </c>
       <c r="J5">
-        <v>1.017795870744178</v>
+        <v>1.017544557810955</v>
       </c>
       <c r="K5">
-        <v>1.069083182026239</v>
+        <v>1.041934473179937</v>
       </c>
       <c r="L5">
-        <v>1.014232949511542</v>
+        <v>1.014451980810675</v>
       </c>
       <c r="M5">
-        <v>1.06432290103371</v>
+        <v>0.9901456278579348</v>
       </c>
       <c r="N5">
-        <v>1.019241257623453</v>
+        <v>1.018989587797038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991724639651482</v>
+        <v>0.9987748501060801</v>
       </c>
       <c r="D6">
-        <v>1.060068147099996</v>
+        <v>1.032538318658182</v>
       </c>
       <c r="E6">
-        <v>1.004707253035352</v>
+        <v>1.004804889904664</v>
       </c>
       <c r="F6">
-        <v>1.055305282673266</v>
+        <v>0.9803644341881192</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06495114965618</v>
+        <v>1.046804880594222</v>
       </c>
       <c r="J6">
-        <v>1.018064986411232</v>
+        <v>1.01767724661249</v>
       </c>
       <c r="K6">
-        <v>1.069249191301762</v>
+        <v>1.042007985508706</v>
       </c>
       <c r="L6">
-        <v>1.014488543812895</v>
+        <v>1.014585050172587</v>
       </c>
       <c r="M6">
-        <v>1.064534946943817</v>
+        <v>0.9904363208064858</v>
       </c>
       <c r="N6">
-        <v>1.019510755465622</v>
+        <v>1.019122465031891</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9967227394389268</v>
+        <v>0.9972936698601459</v>
       </c>
       <c r="D7">
-        <v>1.058665621271047</v>
+        <v>1.031773370154815</v>
       </c>
       <c r="E7">
-        <v>1.002658247881208</v>
+        <v>1.003614192645313</v>
       </c>
       <c r="F7">
-        <v>1.053579872640843</v>
+        <v>0.9780608429002824</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064254631453673</v>
+        <v>1.046405700312497</v>
       </c>
       <c r="J7">
-        <v>1.016204529489621</v>
+        <v>1.01676074196529</v>
       </c>
       <c r="K7">
-        <v>1.068101255398343</v>
+        <v>1.041499987527457</v>
       </c>
       <c r="L7">
-        <v>1.012721705002704</v>
+        <v>1.013666205514364</v>
       </c>
       <c r="M7">
-        <v>1.063069142195496</v>
+        <v>0.9884283771604492</v>
       </c>
       <c r="N7">
-        <v>1.017647656481785</v>
+        <v>1.018204658842967</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.986149865356034</v>
+        <v>0.990950053037075</v>
       </c>
       <c r="D8">
-        <v>1.052625273201413</v>
+        <v>1.028505338785084</v>
       </c>
       <c r="E8">
-        <v>0.9938286561666074</v>
+        <v>0.9985268857392847</v>
       </c>
       <c r="F8">
-        <v>1.0461522346087</v>
+        <v>0.9681699680250893</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061220700561831</v>
+        <v>1.044670206125777</v>
       </c>
       <c r="J8">
-        <v>1.008167603794896</v>
+        <v>1.012824072162826</v>
       </c>
       <c r="K8">
-        <v>1.063136637373576</v>
+        <v>1.039312549300974</v>
       </c>
       <c r="L8">
-        <v>1.005092876280825</v>
+        <v>1.009726848337898</v>
       </c>
       <c r="M8">
-        <v>1.056741331272971</v>
+        <v>0.9797990860541655</v>
       </c>
       <c r="N8">
-        <v>1.009599317430725</v>
+        <v>1.014262398517842</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9660799201293769</v>
+        <v>0.9791407650331626</v>
       </c>
       <c r="D9">
-        <v>1.041234108457869</v>
+        <v>1.022462017351805</v>
       </c>
       <c r="E9">
-        <v>0.9771309879876385</v>
+        <v>0.98910684492453</v>
       </c>
       <c r="F9">
-        <v>1.032151766796236</v>
+        <v>0.9496270130085926</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055365294078497</v>
+        <v>1.041343734273805</v>
       </c>
       <c r="J9">
-        <v>0.9928900920972962</v>
+        <v>1.005452247218128</v>
       </c>
       <c r="K9">
-        <v>1.053691828887961</v>
+        <v>1.035200880656647</v>
       </c>
       <c r="L9">
-        <v>0.9906063262140279</v>
+        <v>1.002379163483167</v>
       </c>
       <c r="M9">
-        <v>1.044743885470424</v>
+        <v>0.9635938892006524</v>
       </c>
       <c r="N9">
-        <v>0.9943001099141597</v>
+        <v>1.006880104736162</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9515281490015228</v>
+        <v>0.9707843508725505</v>
       </c>
       <c r="D10">
-        <v>1.033053510252366</v>
+        <v>1.018222637062974</v>
       </c>
       <c r="E10">
-        <v>0.965077976535531</v>
+        <v>0.9824788433589716</v>
       </c>
       <c r="F10">
-        <v>1.022095659413506</v>
+        <v>0.9363801215140972</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051067151229118</v>
+        <v>1.038928924045409</v>
       </c>
       <c r="J10">
-        <v>0.9818062539392524</v>
+        <v>1.000207058866163</v>
       </c>
       <c r="K10">
-        <v>1.046850561897971</v>
+        <v>1.032270490438633</v>
       </c>
       <c r="L10">
-        <v>0.980107745337095</v>
+        <v>0.997171821599864</v>
       </c>
       <c r="M10">
-        <v>1.036077109978631</v>
+        <v>0.9520016081891763</v>
       </c>
       <c r="N10">
-        <v>0.9832005314345976</v>
+        <v>1.001627467615106</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9448939604487244</v>
+        <v>0.9670362375013689</v>
       </c>
       <c r="D11">
-        <v>1.02934979859196</v>
+        <v>1.016332213924127</v>
       </c>
       <c r="E11">
-        <v>0.9595985537646899</v>
+        <v>0.9795157684948602</v>
       </c>
       <c r="F11">
-        <v>1.017540807572476</v>
+        <v>0.9303988160076038</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049098513338157</v>
+        <v>1.037832266641894</v>
       </c>
       <c r="J11">
-        <v>0.9767535531616737</v>
+        <v>0.9978476864758256</v>
       </c>
       <c r="K11">
-        <v>1.043738663014819</v>
+        <v>1.030952564025981</v>
       </c>
       <c r="L11">
-        <v>0.9753248360561299</v>
+        <v>0.9948346100994875</v>
       </c>
       <c r="M11">
-        <v>1.032139341611658</v>
+        <v>0.9467645647946714</v>
       </c>
       <c r="N11">
-        <v>0.9781406552423615</v>
+        <v>0.9992647446453504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9423740727547819</v>
+        <v>0.9656230947221812</v>
       </c>
       <c r="D12">
-        <v>1.027947586939899</v>
+        <v>1.015621346074452</v>
       </c>
       <c r="E12">
-        <v>0.9575199043050563</v>
+        <v>0.9784001532532511</v>
       </c>
       <c r="F12">
-        <v>1.015815896872325</v>
+        <v>0.9281367700903256</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048349724405627</v>
+        <v>1.037416844687844</v>
       </c>
       <c r="J12">
-        <v>0.9748346406916665</v>
+        <v>0.996957128424943</v>
       </c>
       <c r="K12">
-        <v>1.042558252197733</v>
+        <v>1.030455262861629</v>
       </c>
       <c r="L12">
-        <v>0.9735088633664343</v>
+        <v>0.993953211399297</v>
       </c>
       <c r="M12">
-        <v>1.030646235150361</v>
+        <v>0.9447836439672787</v>
       </c>
       <c r="N12">
-        <v>0.976219017696545</v>
+        <v>0.9983729218998871</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9429172153352346</v>
+        <v>0.9659271903368398</v>
       </c>
       <c r="D13">
-        <v>1.028249604117014</v>
+        <v>1.015774230268221</v>
       </c>
       <c r="E13">
-        <v>0.9579678183029736</v>
+        <v>0.9786401525409123</v>
       </c>
       <c r="F13">
-        <v>1.016187442513985</v>
+        <v>0.9286238717909715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048511161001176</v>
+        <v>1.037506326527488</v>
       </c>
       <c r="J13">
-        <v>0.9752482317280794</v>
+        <v>0.9971488140623472</v>
       </c>
       <c r="K13">
-        <v>1.04281259962767</v>
+        <v>1.030562293815863</v>
       </c>
       <c r="L13">
-        <v>0.9739002452843137</v>
+        <v>0.9941428892825838</v>
       </c>
       <c r="M13">
-        <v>1.03096793607817</v>
+        <v>0.9452102232210656</v>
       </c>
       <c r="N13">
-        <v>0.976633196079669</v>
+        <v>0.9985648797528832</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9446868366273502</v>
+        <v>0.9669198624164757</v>
       </c>
       <c r="D14">
-        <v>1.029234445746004</v>
+        <v>1.016273633242129</v>
       </c>
       <c r="E14">
-        <v>0.9594276430155865</v>
+        <v>0.9794238635451468</v>
       </c>
       <c r="F14">
-        <v>1.017398918220807</v>
+        <v>0.9302126787709625</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049036985022314</v>
+        <v>1.037798094966405</v>
       </c>
       <c r="J14">
-        <v>0.9765958200817236</v>
+        <v>0.9977743677529924</v>
       </c>
       <c r="K14">
-        <v>1.043641602810354</v>
+        <v>1.03091161778533</v>
       </c>
       <c r="L14">
-        <v>0.975175554673349</v>
+        <v>0.9947620291867701</v>
       </c>
       <c r="M14">
-        <v>1.03201655874296</v>
+        <v>0.9466015670112667</v>
       </c>
       <c r="N14">
-        <v>0.9779826981633459</v>
+        <v>0.9991913218015215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457696014154263</v>
+        <v>0.9675286619524175</v>
       </c>
       <c r="D15">
-        <v>1.029837657014403</v>
+        <v>1.016580167243749</v>
       </c>
       <c r="E15">
-        <v>0.9603212076497341</v>
+        <v>0.9799047144841638</v>
       </c>
       <c r="F15">
-        <v>1.018140876366296</v>
+        <v>0.9311861408837037</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049358591844004</v>
+        <v>1.037976780230608</v>
       </c>
       <c r="J15">
-        <v>0.9774204011775752</v>
+        <v>0.9981578830487114</v>
       </c>
       <c r="K15">
-        <v>1.044149064729239</v>
+        <v>1.031125806398993</v>
       </c>
       <c r="L15">
-        <v>0.9759559724379447</v>
+        <v>0.9951417176225831</v>
       </c>
       <c r="M15">
-        <v>1.032658529710285</v>
+        <v>0.9474540007231713</v>
       </c>
       <c r="N15">
-        <v>0.9788084502589341</v>
+        <v>0.9995753817329502</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9519609603003618</v>
+        <v>0.9710302483365992</v>
       </c>
       <c r="D16">
-        <v>1.033295728381119</v>
+        <v>1.018346906924474</v>
       </c>
       <c r="E16">
-        <v>0.9654357952902862</v>
+        <v>0.9826734474708402</v>
       </c>
       <c r="F16">
-        <v>1.022393486522863</v>
+        <v>0.9367716263932089</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051195423428718</v>
+        <v>1.039000596605527</v>
       </c>
       <c r="J16">
-        <v>0.9821359155696169</v>
+        <v>1.000361707416771</v>
       </c>
       <c r="K16">
-        <v>1.047053769332098</v>
+        <v>1.032356890621294</v>
       </c>
       <c r="L16">
-        <v>0.9804198685994486</v>
+        <v>0.9973251260244511</v>
       </c>
       <c r="M16">
-        <v>1.036334331501428</v>
+        <v>0.9523443454692189</v>
       </c>
       <c r="N16">
-        <v>0.9835306612222899</v>
+        <v>1.001782335784395</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9557517472826282</v>
+        <v>0.9731910004478665</v>
       </c>
       <c r="D17">
-        <v>1.035420179877412</v>
+        <v>1.019440171431426</v>
       </c>
       <c r="E17">
-        <v>0.9685715380989276</v>
+        <v>0.9843845931243053</v>
       </c>
       <c r="F17">
-        <v>1.025005429930641</v>
+        <v>0.940207260977435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052317910830499</v>
+        <v>1.039628872812491</v>
       </c>
       <c r="J17">
-        <v>0.9850233360390622</v>
+        <v>1.001719872937213</v>
       </c>
       <c r="K17">
-        <v>1.048834415342432</v>
+        <v>1.03311571867535</v>
       </c>
       <c r="L17">
-        <v>0.9831540146072469</v>
+        <v>0.998672071092128</v>
       </c>
       <c r="M17">
-        <v>1.038588782393018</v>
+        <v>0.9553517104026675</v>
       </c>
       <c r="N17">
-        <v>0.9864221821599934</v>
+        <v>1.003142430055659</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9579311234528629</v>
+        <v>0.9744389180008094</v>
       </c>
       <c r="D18">
-        <v>1.036643924441424</v>
+        <v>1.020072605213844</v>
       </c>
       <c r="E18">
-        <v>0.970375757123868</v>
+        <v>0.9853737654797795</v>
       </c>
       <c r="F18">
-        <v>1.026509805462842</v>
+        <v>0.942187795120629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052962369573049</v>
+        <v>1.039990441905905</v>
       </c>
       <c r="J18">
-        <v>0.9866833816178624</v>
+        <v>1.002503628944097</v>
       </c>
       <c r="K18">
-        <v>1.049858755524877</v>
+        <v>1.033553626575795</v>
       </c>
       <c r="L18">
-        <v>0.9847262172028164</v>
+        <v>0.9994498349472148</v>
       </c>
       <c r="M18">
-        <v>1.039886113946646</v>
+        <v>0.9570850880768446</v>
       </c>
       <c r="N18">
-        <v>0.9880845851939256</v>
+        <v>1.003927299085971</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.958669009376603</v>
+        <v>0.9748623614529638</v>
       </c>
       <c r="D19">
-        <v>1.037058638252918</v>
+        <v>1.020287371615202</v>
       </c>
       <c r="E19">
-        <v>0.970986859714621</v>
+        <v>0.985709565365411</v>
       </c>
       <c r="F19">
-        <v>1.027019596204331</v>
+        <v>0.9428592331384917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053180410696849</v>
+        <v>1.040112909255606</v>
       </c>
       <c r="J19">
-        <v>0.9872454333572737</v>
+        <v>1.002769464877451</v>
       </c>
       <c r="K19">
-        <v>1.050205664085042</v>
+        <v>1.033702155399012</v>
       </c>
       <c r="L19">
-        <v>0.9852585738101109</v>
+        <v>0.9997137197211734</v>
       </c>
       <c r="M19">
-        <v>1.040325550812204</v>
+        <v>0.9576726869365981</v>
       </c>
       <c r="N19">
-        <v>0.988647435111275</v>
+        <v>1.004193512536842</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9553483509586568</v>
+        <v>0.9729604659907123</v>
       </c>
       <c r="D20">
-        <v>1.035193855592318</v>
+        <v>1.019323420569658</v>
       </c>
       <c r="E20">
-        <v>0.9682376969591595</v>
+        <v>0.9842019319468335</v>
       </c>
       <c r="F20">
-        <v>1.024727191230467</v>
+        <v>0.9398410953374929</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052198550191212</v>
+        <v>1.039561973722066</v>
       </c>
       <c r="J20">
-        <v>0.9847160671895352</v>
+        <v>1.001575033950389</v>
       </c>
       <c r="K20">
-        <v>1.048644859782614</v>
+        <v>1.03303479286063</v>
       </c>
       <c r="L20">
-        <v>0.982863027560491</v>
+        <v>0.99852837838869</v>
       </c>
       <c r="M20">
-        <v>1.038348744853032</v>
+        <v>0.955031216987008</v>
       </c>
       <c r="N20">
-        <v>0.9861144769534557</v>
+        <v>1.002997385380861</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9441673130224583</v>
+        <v>0.9666281352002611</v>
       </c>
       <c r="D21">
-        <v>1.028945185178731</v>
+        <v>1.016126815026219</v>
       </c>
       <c r="E21">
-        <v>0.9589989948704183</v>
+        <v>0.9791935028260116</v>
       </c>
       <c r="F21">
-        <v>1.017043106331189</v>
+        <v>0.9297459578693085</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048882639650375</v>
+        <v>1.037712402826356</v>
       </c>
       <c r="J21">
-        <v>0.9762001871984931</v>
+        <v>0.9975905573042828</v>
       </c>
       <c r="K21">
-        <v>1.043398176599952</v>
+        <v>1.030808968307028</v>
       </c>
       <c r="L21">
-        <v>0.974801128491653</v>
+        <v>0.9945800813011881</v>
       </c>
       <c r="M21">
-        <v>1.031708629166868</v>
+        <v>0.9461928607804897</v>
       </c>
       <c r="N21">
-        <v>0.9775865034360411</v>
+        <v>0.9990072503208913</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9368118880450069</v>
+        <v>0.9625248464367852</v>
       </c>
       <c r="D22">
-        <v>1.024861790109061</v>
+        <v>1.014066499489648</v>
       </c>
       <c r="E22">
-        <v>0.952936857568396</v>
+        <v>0.9759571541406971</v>
       </c>
       <c r="F22">
-        <v>1.01201890633251</v>
+        <v>0.9231633958845683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046695409258477</v>
+        <v>1.036502552136041</v>
       </c>
       <c r="J22">
-        <v>0.9705997562974027</v>
+        <v>0.9950027642464883</v>
       </c>
       <c r="K22">
-        <v>1.039956311657185</v>
+        <v>1.029364353473903</v>
       </c>
       <c r="L22">
-        <v>0.9695020785782794</v>
+        <v>0.9920204397461505</v>
       </c>
       <c r="M22">
-        <v>1.027355968141869</v>
+        <v>0.9404278209055382</v>
       </c>
       <c r="N22">
-        <v>0.9719781192806932</v>
+        <v>0.9964157823001306</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9407441008148095</v>
+        <v>0.9647121526481733</v>
       </c>
       <c r="D23">
-        <v>1.027041963543243</v>
+        <v>1.015163661288984</v>
       </c>
       <c r="E23">
-        <v>0.9561761212992733</v>
+        <v>0.9776814493455768</v>
       </c>
       <c r="F23">
-        <v>1.014701705929769</v>
+        <v>0.9266765217810939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047865129348453</v>
+        <v>1.037148515382385</v>
       </c>
       <c r="J23">
-        <v>0.973593510690449</v>
+        <v>0.9963827713296978</v>
       </c>
       <c r="K23">
-        <v>1.041795233538929</v>
+        <v>1.030134594013773</v>
       </c>
       <c r="L23">
-        <v>0.9723344524842045</v>
+        <v>0.9933849886283449</v>
       </c>
       <c r="M23">
-        <v>1.029681238028554</v>
+        <v>0.9435047880773111</v>
       </c>
       <c r="N23">
-        <v>0.9749761251483662</v>
+        <v>0.997797749151687</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9555307260224885</v>
+        <v>0.9730646728414055</v>
       </c>
       <c r="D24">
-        <v>1.035296169258158</v>
+        <v>1.019376191446201</v>
       </c>
       <c r="E24">
-        <v>0.9683886217484786</v>
+        <v>0.9842844961306695</v>
       </c>
       <c r="F24">
-        <v>1.024852974215279</v>
+        <v>0.9400066219264325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052252515757944</v>
+        <v>1.039592217634568</v>
       </c>
       <c r="J24">
-        <v>0.9848549830506059</v>
+        <v>1.001640506463954</v>
       </c>
       <c r="K24">
-        <v>1.048730555761346</v>
+        <v>1.033071374259642</v>
       </c>
       <c r="L24">
-        <v>0.9829945815764115</v>
+        <v>0.9985933312431425</v>
       </c>
       <c r="M24">
-        <v>1.038457261838</v>
+        <v>0.9551760981235661</v>
       </c>
       <c r="N24">
-        <v>0.9862535900909833</v>
+        <v>1.003062950872905</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9714584115679156</v>
+        <v>0.9822743012300549</v>
       </c>
       <c r="D25">
-        <v>1.044275589525364</v>
+        <v>1.024059960295743</v>
       </c>
       <c r="E25">
-        <v>0.9815974831048043</v>
+        <v>0.9916001963788361</v>
       </c>
       <c r="F25">
-        <v>1.035889735678157</v>
+        <v>0.9545659163571857</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056944379177009</v>
+        <v>1.042237133656697</v>
       </c>
       <c r="J25">
-        <v>0.9969860291144822</v>
+        <v>1.007413294049976</v>
       </c>
       <c r="K25">
-        <v>1.056223375379773</v>
+        <v>1.03629591442027</v>
       </c>
       <c r="L25">
-        <v>0.994488353927838</v>
+        <v>1.00433032320083</v>
       </c>
       <c r="M25">
-        <v>1.0479553331718</v>
+        <v>0.9679130144081769</v>
       </c>
       <c r="N25">
-        <v>0.9984018636317208</v>
+        <v>1.008843936479447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9892761200051925</v>
+        <v>1.022252759893007</v>
       </c>
       <c r="D2">
-        <v>1.027645344642709</v>
+        <v>1.030752338702968</v>
       </c>
       <c r="E2">
-        <v>0.9971876936419751</v>
+        <v>1.02302102075481</v>
       </c>
       <c r="F2">
-        <v>0.9655525599206748</v>
+        <v>1.020697650145091</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044205773134425</v>
+        <v>1.032912691336351</v>
       </c>
       <c r="J2">
-        <v>1.01178238088312</v>
+        <v>1.027439639688858</v>
       </c>
       <c r="K2">
-        <v>1.038732516203279</v>
+        <v>1.033562440400202</v>
       </c>
       <c r="L2">
-        <v>1.008686347905605</v>
+        <v>1.025853685629013</v>
       </c>
       <c r="M2">
-        <v>0.9775136189854223</v>
+        <v>1.023537168260061</v>
       </c>
       <c r="N2">
-        <v>1.013219227917035</v>
+        <v>1.028898721826192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.994180396662924</v>
+        <v>1.023249111908376</v>
       </c>
       <c r="D3">
-        <v>1.030167804546284</v>
+        <v>1.031256055203984</v>
       </c>
       <c r="E3">
-        <v>1.001115033444734</v>
+        <v>1.023867409682729</v>
       </c>
       <c r="F3">
-        <v>0.9732119870252299</v>
+        <v>1.022332814411987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04555901544893</v>
+        <v>1.033110015714587</v>
       </c>
       <c r="J3">
-        <v>1.014830977060172</v>
+        <v>1.028073717667712</v>
       </c>
       <c r="K3">
-        <v>1.040428702316055</v>
+        <v>1.033875395810438</v>
       </c>
       <c r="L3">
-        <v>1.011733667063309</v>
+        <v>1.026506756700713</v>
       </c>
       <c r="M3">
-        <v>0.9841995016110963</v>
+        <v>1.024976355960243</v>
       </c>
       <c r="N3">
-        <v>1.016272153450337</v>
+        <v>1.029533700268504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9972764462843662</v>
+        <v>1.023893463459748</v>
       </c>
       <c r="D4">
-        <v>1.031764479100706</v>
+        <v>1.031581708288471</v>
       </c>
       <c r="E4">
-        <v>1.003600353346824</v>
+        <v>1.024415161479446</v>
       </c>
       <c r="F4">
-        <v>0.978034043953397</v>
+        <v>1.023390400685407</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0464010443714</v>
+        <v>1.033236056739292</v>
       </c>
       <c r="J4">
-        <v>1.016750078365716</v>
+        <v>1.028483091010765</v>
       </c>
       <c r="K4">
-        <v>1.041494073767754</v>
+        <v>1.0340768979839</v>
       </c>
       <c r="L4">
-        <v>1.01365551863164</v>
+        <v>1.026928780453009</v>
       </c>
       <c r="M4">
-        <v>0.9884050133036208</v>
+        <v>1.025906677666045</v>
       </c>
       <c r="N4">
-        <v>1.018193980099859</v>
+        <v>1.02994365496866</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9985603022570176</v>
+        <v>1.024164264857275</v>
       </c>
       <c r="D5">
-        <v>1.032427475048109</v>
+        <v>1.031718543382869</v>
       </c>
       <c r="E5">
-        <v>1.004632350034994</v>
+        <v>1.024645456066863</v>
       </c>
       <c r="F5">
-        <v>0.9800308867526243</v>
+        <v>1.02383490322629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04674721034505</v>
+        <v>1.033288651316737</v>
       </c>
       <c r="J5">
-        <v>1.017544557810955</v>
+        <v>1.028654972504056</v>
       </c>
       <c r="K5">
-        <v>1.041934473179937</v>
+        <v>1.034161369243622</v>
       </c>
       <c r="L5">
-        <v>1.014451980810675</v>
+        <v>1.027106066306928</v>
       </c>
       <c r="M5">
-        <v>0.9901456278579348</v>
+        <v>1.026297568410138</v>
       </c>
       <c r="N5">
-        <v>1.018989587797038</v>
+        <v>1.030115780553386</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9987748501060801</v>
+        <v>1.024209728705519</v>
       </c>
       <c r="D6">
-        <v>1.032538318658182</v>
+        <v>1.031741514489152</v>
       </c>
       <c r="E6">
-        <v>1.004804889904664</v>
+        <v>1.024684124704321</v>
       </c>
       <c r="F6">
-        <v>0.9803644341881192</v>
+        <v>1.023909531098296</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046804880594222</v>
+        <v>1.033297459122005</v>
       </c>
       <c r="J6">
-        <v>1.01767724661249</v>
+        <v>1.028683819334377</v>
       </c>
       <c r="K6">
-        <v>1.042007985508706</v>
+        <v>1.034175538232566</v>
       </c>
       <c r="L6">
-        <v>1.014585050172587</v>
+        <v>1.027135825597943</v>
       </c>
       <c r="M6">
-        <v>0.9904363208064858</v>
+        <v>1.026363188161322</v>
       </c>
       <c r="N6">
-        <v>1.019122465031891</v>
+        <v>1.030144668349515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9972936698601459</v>
+        <v>1.023897082250147</v>
       </c>
       <c r="D7">
-        <v>1.031773370154815</v>
+        <v>1.031583536960164</v>
       </c>
       <c r="E7">
-        <v>1.003614192645313</v>
+        <v>1.02441823860923</v>
       </c>
       <c r="F7">
-        <v>0.9780608429002824</v>
+        <v>1.023396340561016</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046405700312497</v>
+        <v>1.033236761055369</v>
       </c>
       <c r="J7">
-        <v>1.01676074196529</v>
+        <v>1.028485388559732</v>
       </c>
       <c r="K7">
-        <v>1.041499987527457</v>
+        <v>1.03407802763786</v>
       </c>
       <c r="L7">
-        <v>1.013666205514364</v>
+        <v>1.026931149877131</v>
       </c>
       <c r="M7">
-        <v>0.9884283771604492</v>
+        <v>1.025911901610701</v>
       </c>
       <c r="N7">
-        <v>1.018204658842967</v>
+        <v>1.029945955780409</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.990950053037075</v>
+        <v>1.02258955576641</v>
       </c>
       <c r="D8">
-        <v>1.028505338785084</v>
+        <v>1.030922630387698</v>
       </c>
       <c r="E8">
-        <v>0.9985268857392847</v>
+        <v>1.023307045094566</v>
       </c>
       <c r="F8">
-        <v>0.9681699680250893</v>
+        <v>1.021250363899914</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044670206125777</v>
+        <v>1.032979717704037</v>
       </c>
       <c r="J8">
-        <v>1.012824072162826</v>
+        <v>1.027654119646978</v>
       </c>
       <c r="K8">
-        <v>1.039312549300974</v>
+        <v>1.033668412010577</v>
       </c>
       <c r="L8">
-        <v>1.009726848337898</v>
+        <v>1.026074509604016</v>
       </c>
       <c r="M8">
-        <v>0.9797990860541655</v>
+        <v>1.024023744386487</v>
       </c>
       <c r="N8">
-        <v>1.014262398517842</v>
+        <v>1.029113506370452</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9791407650331626</v>
+        <v>1.020282766036584</v>
       </c>
       <c r="D9">
-        <v>1.022462017351805</v>
+        <v>1.029755896427656</v>
       </c>
       <c r="E9">
-        <v>0.98910684492453</v>
+        <v>1.021349594621962</v>
       </c>
       <c r="F9">
-        <v>0.9496270130085926</v>
+        <v>1.017464939583013</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041343734273805</v>
+        <v>1.032514214374268</v>
       </c>
       <c r="J9">
-        <v>1.005452247218128</v>
+        <v>1.026182263222738</v>
       </c>
       <c r="K9">
-        <v>1.035200880656647</v>
+        <v>1.032938978726784</v>
       </c>
       <c r="L9">
-        <v>1.002379163483167</v>
+        <v>1.024560716439517</v>
       </c>
       <c r="M9">
-        <v>0.9635938892006524</v>
+        <v>1.020689190778867</v>
       </c>
       <c r="N9">
-        <v>1.006880104736162</v>
+        <v>1.027639559741265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9707843508725505</v>
+        <v>1.018742985900804</v>
       </c>
       <c r="D10">
-        <v>1.018222637062974</v>
+        <v>1.028976709015724</v>
       </c>
       <c r="E10">
-        <v>0.9824788433589716</v>
+        <v>1.020045023161906</v>
       </c>
       <c r="F10">
-        <v>0.9363801215140972</v>
+        <v>1.014938245282607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038928924045409</v>
+        <v>1.032195443763205</v>
       </c>
       <c r="J10">
-        <v>1.000207058866163</v>
+        <v>1.025196241730306</v>
       </c>
       <c r="K10">
-        <v>1.032270490438633</v>
+        <v>1.032447590098265</v>
       </c>
       <c r="L10">
-        <v>0.997171821599864</v>
+        <v>1.023548612598819</v>
       </c>
       <c r="M10">
-        <v>0.9520016081891763</v>
+        <v>1.018460822289531</v>
       </c>
       <c r="N10">
-        <v>1.001627467615106</v>
+        <v>1.026652137985215</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9670362375013689</v>
+        <v>1.018075773399514</v>
       </c>
       <c r="D11">
-        <v>1.016332213924127</v>
+        <v>1.028639002662249</v>
       </c>
       <c r="E11">
-        <v>0.9795157684948602</v>
+        <v>1.019480218180555</v>
       </c>
       <c r="F11">
-        <v>0.9303988160076038</v>
+        <v>1.013843332714447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037832266641894</v>
+        <v>1.032055413401451</v>
       </c>
       <c r="J11">
-        <v>0.9978476864758256</v>
+        <v>1.024768138945929</v>
       </c>
       <c r="K11">
-        <v>1.030952564025981</v>
+        <v>1.032233610898374</v>
       </c>
       <c r="L11">
-        <v>0.9948346100994875</v>
+        <v>1.023109663474649</v>
       </c>
       <c r="M11">
-        <v>0.9467645647946714</v>
+        <v>1.017494566212241</v>
       </c>
       <c r="N11">
-        <v>0.9992647446453504</v>
+        <v>1.02622342724578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9656230947221812</v>
+        <v>1.0178278677981</v>
       </c>
       <c r="D12">
-        <v>1.015621346074452</v>
+        <v>1.028513517549566</v>
       </c>
       <c r="E12">
-        <v>0.9784001532532511</v>
+        <v>1.019270436409968</v>
       </c>
       <c r="F12">
-        <v>0.9281367700903256</v>
+        <v>1.013436499318009</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037416844687844</v>
+        <v>1.032003099374187</v>
       </c>
       <c r="J12">
-        <v>0.996957128424943</v>
+        <v>1.024608948939279</v>
       </c>
       <c r="K12">
-        <v>1.030455262861629</v>
+        <v>1.032153949024186</v>
       </c>
       <c r="L12">
-        <v>0.993953211399297</v>
+        <v>1.022946512125434</v>
       </c>
       <c r="M12">
-        <v>0.9447836439672787</v>
+        <v>1.017135444459043</v>
       </c>
       <c r="N12">
-        <v>0.9983729218998871</v>
+        <v>1.026064011171063</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9659271903368398</v>
+        <v>1.017881047725306</v>
       </c>
       <c r="D13">
-        <v>1.015774230268221</v>
+        <v>1.02854043659346</v>
       </c>
       <c r="E13">
-        <v>0.9786401525409123</v>
+        <v>1.019315434779937</v>
       </c>
       <c r="F13">
-        <v>0.9286238717909715</v>
+        <v>1.013523772665904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037506326527488</v>
+        <v>1.032014334508889</v>
       </c>
       <c r="J13">
-        <v>0.9971488140623472</v>
+        <v>1.024643103605964</v>
       </c>
       <c r="K13">
-        <v>1.030562293815863</v>
+        <v>1.032171044925142</v>
       </c>
       <c r="L13">
-        <v>0.9941428892825838</v>
+        <v>1.022981513456471</v>
       </c>
       <c r="M13">
-        <v>0.9452102232210656</v>
+        <v>1.017212486968956</v>
       </c>
       <c r="N13">
-        <v>0.9985648797528832</v>
+        <v>1.026098214341291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9669198624164757</v>
+        <v>1.018055282946123</v>
       </c>
       <c r="D14">
-        <v>1.016273633242129</v>
+        <v>1.028628630954488</v>
       </c>
       <c r="E14">
-        <v>0.9794238635451468</v>
+        <v>1.019462877313365</v>
       </c>
       <c r="F14">
-        <v>0.9302126787709625</v>
+        <v>1.013809706523289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037798094966405</v>
+        <v>1.032051095237816</v>
       </c>
       <c r="J14">
-        <v>0.9977743677529924</v>
+        <v>1.024754983796669</v>
       </c>
       <c r="K14">
-        <v>1.03091161778533</v>
+        <v>1.032227029701617</v>
       </c>
       <c r="L14">
-        <v>0.9947620291867701</v>
+        <v>1.023096179501795</v>
       </c>
       <c r="M14">
-        <v>0.9466015670112667</v>
+        <v>1.017464885446942</v>
       </c>
       <c r="N14">
-        <v>0.9991913218015215</v>
+        <v>1.0262102534147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9675286619524175</v>
+        <v>1.01816262527744</v>
       </c>
       <c r="D15">
-        <v>1.016580167243749</v>
+        <v>1.028682964356633</v>
       </c>
       <c r="E15">
-        <v>0.9799047144841638</v>
+        <v>1.019553723091399</v>
       </c>
       <c r="F15">
-        <v>0.9311861408837037</v>
+        <v>1.013985861787988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037976780230608</v>
+        <v>1.03207370491622</v>
       </c>
       <c r="J15">
-        <v>0.9981578830487114</v>
+        <v>1.024823893846123</v>
       </c>
       <c r="K15">
-        <v>1.031125806398993</v>
+        <v>1.032261499871172</v>
       </c>
       <c r="L15">
-        <v>0.9951417176225831</v>
+        <v>1.023166814955994</v>
       </c>
       <c r="M15">
-        <v>0.9474540007231713</v>
+        <v>1.017620368273356</v>
       </c>
       <c r="N15">
-        <v>0.9995753817329502</v>
+        <v>1.026279261324328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9710302483365992</v>
+        <v>1.01878725641448</v>
       </c>
       <c r="D16">
-        <v>1.018346906924474</v>
+        <v>1.028999114972329</v>
       </c>
       <c r="E16">
-        <v>0.9826734474708402</v>
+        <v>1.020082509113399</v>
       </c>
       <c r="F16">
-        <v>0.9367716263932089</v>
+        <v>1.015010892673793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039000596605527</v>
+        <v>1.032204694971479</v>
       </c>
       <c r="J16">
-        <v>1.000361707416771</v>
+        <v>1.025224629213771</v>
       </c>
       <c r="K16">
-        <v>1.032356890621294</v>
+        <v>1.032461765856215</v>
       </c>
       <c r="L16">
-        <v>0.9973251260244511</v>
+        <v>1.023577729366756</v>
       </c>
       <c r="M16">
-        <v>0.9523443454692189</v>
+        <v>1.018524920299543</v>
       </c>
       <c r="N16">
-        <v>1.001782335784395</v>
+        <v>1.026680565782163</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9731910004478665</v>
+        <v>1.019178942171207</v>
       </c>
       <c r="D17">
-        <v>1.019440171431426</v>
+        <v>1.029197344864533</v>
       </c>
       <c r="E17">
-        <v>0.9843845931243053</v>
+        <v>1.020414224483366</v>
       </c>
       <c r="F17">
-        <v>0.940207260977435</v>
+        <v>1.01565363744601</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039628872812491</v>
+        <v>1.032286325996293</v>
       </c>
       <c r="J17">
-        <v>1.001719872937213</v>
+        <v>1.025475691643233</v>
       </c>
       <c r="K17">
-        <v>1.03311571867535</v>
+        <v>1.032587065259081</v>
       </c>
       <c r="L17">
-        <v>0.998672071092128</v>
+        <v>1.023835296816339</v>
       </c>
       <c r="M17">
-        <v>0.9553517104026675</v>
+        <v>1.019091953274534</v>
       </c>
       <c r="N17">
-        <v>1.003142430055659</v>
+        <v>1.026931984749072</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9744389180008094</v>
+        <v>1.019407359866868</v>
       </c>
       <c r="D18">
-        <v>1.020072605213844</v>
+        <v>1.029312938728078</v>
       </c>
       <c r="E18">
-        <v>0.9853737654797795</v>
+        <v>1.020607716498035</v>
       </c>
       <c r="F18">
-        <v>0.942187795120629</v>
+        <v>1.016028459374702</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039990441905905</v>
+        <v>1.032333746961765</v>
       </c>
       <c r="J18">
-        <v>1.002503628944097</v>
+        <v>1.025622021316132</v>
       </c>
       <c r="K18">
-        <v>1.033553626575795</v>
+        <v>1.03266003401244</v>
       </c>
       <c r="L18">
-        <v>0.9994498349472148</v>
+        <v>1.023985463917455</v>
       </c>
       <c r="M18">
-        <v>0.9570850880768446</v>
+        <v>1.019422563492724</v>
       </c>
       <c r="N18">
-        <v>1.003927299085971</v>
+        <v>1.027078522226891</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9748623614529638</v>
+        <v>1.01948523664249</v>
       </c>
       <c r="D19">
-        <v>1.020287371615202</v>
+        <v>1.029352348078929</v>
       </c>
       <c r="E19">
-        <v>0.985709565365411</v>
+        <v>1.020673693656433</v>
       </c>
       <c r="F19">
-        <v>0.9428592331384917</v>
+        <v>1.016156250611638</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040112909255606</v>
+        <v>1.032349883542656</v>
       </c>
       <c r="J19">
-        <v>1.002769464877451</v>
+        <v>1.025671897189158</v>
       </c>
       <c r="K19">
-        <v>1.033702155399012</v>
+        <v>1.03268489473461</v>
       </c>
       <c r="L19">
-        <v>0.9997137197211734</v>
+        <v>1.024036655567707</v>
       </c>
       <c r="M19">
-        <v>0.9576726869365981</v>
+        <v>1.019535271113728</v>
       </c>
       <c r="N19">
-        <v>1.004193512536842</v>
+        <v>1.027128468929377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9729604659907123</v>
+        <v>1.019136922762282</v>
       </c>
       <c r="D20">
-        <v>1.019323420569658</v>
+        <v>1.029176079797006</v>
       </c>
       <c r="E20">
-        <v>0.9842019319468335</v>
+        <v>1.020378633734331</v>
       </c>
       <c r="F20">
-        <v>0.9398410953374929</v>
+        <v>1.015584685371856</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039561973722066</v>
+        <v>1.032277587725463</v>
       </c>
       <c r="J20">
-        <v>1.001575033950389</v>
+        <v>1.025448766487244</v>
       </c>
       <c r="K20">
-        <v>1.03303479286063</v>
+        <v>1.03257363384135</v>
       </c>
       <c r="L20">
-        <v>0.99852837838869</v>
+        <v>1.023807669267291</v>
       </c>
       <c r="M20">
-        <v>0.955031216987008</v>
+        <v>1.019031129554617</v>
       </c>
       <c r="N20">
-        <v>1.002997385380861</v>
+        <v>1.026905021356273</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9666281352002611</v>
+        <v>1.018003977047679</v>
       </c>
       <c r="D21">
-        <v>1.016126815026219</v>
+        <v>1.028602661172684</v>
       </c>
       <c r="E21">
-        <v>0.9791935028260116</v>
+        <v>1.01941945883672</v>
       </c>
       <c r="F21">
-        <v>0.9297459578693085</v>
+        <v>1.013725509898428</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037712402826356</v>
+        <v>1.032040278414738</v>
       </c>
       <c r="J21">
-        <v>0.9975905573042828</v>
+        <v>1.024722042668167</v>
       </c>
       <c r="K21">
-        <v>1.030808968307028</v>
+        <v>1.032210548558129</v>
       </c>
       <c r="L21">
-        <v>0.9945800813011881</v>
+        <v>1.023062416144078</v>
       </c>
       <c r="M21">
-        <v>0.9461928607804897</v>
+        <v>1.017390566275091</v>
       </c>
       <c r="N21">
-        <v>0.9990072503208913</v>
+        <v>1.026177265506017</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9625248464367852</v>
+        <v>1.017291225051058</v>
       </c>
       <c r="D22">
-        <v>1.014066499489648</v>
+        <v>1.028241864882576</v>
       </c>
       <c r="E22">
-        <v>0.9759571541406971</v>
+        <v>1.018816456359184</v>
       </c>
       <c r="F22">
-        <v>0.9231633958845683</v>
+        <v>1.012555792366041</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036502552136041</v>
+        <v>1.031889333958357</v>
       </c>
       <c r="J22">
-        <v>0.9950027642464883</v>
+        <v>1.024264117849401</v>
       </c>
       <c r="K22">
-        <v>1.029364353473903</v>
+        <v>1.031981218524016</v>
       </c>
       <c r="L22">
-        <v>0.9920204397461505</v>
+        <v>1.022593231702202</v>
       </c>
       <c r="M22">
-        <v>0.9404278209055382</v>
+        <v>1.016357853344496</v>
       </c>
       <c r="N22">
-        <v>0.9964157823001306</v>
+        <v>1.025718690381484</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9647121526481733</v>
+        <v>1.017669109045916</v>
       </c>
       <c r="D23">
-        <v>1.015163661288984</v>
+        <v>1.028433154601603</v>
       </c>
       <c r="E23">
-        <v>0.9776814493455768</v>
+        <v>1.019136113037261</v>
       </c>
       <c r="F23">
-        <v>0.9266765217810939</v>
+        <v>1.013175958502764</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037148515382385</v>
+        <v>1.031969517262338</v>
       </c>
       <c r="J23">
-        <v>0.9963827713296978</v>
+        <v>1.024506968016171</v>
       </c>
       <c r="K23">
-        <v>1.030134594013773</v>
+        <v>1.032102889494101</v>
       </c>
       <c r="L23">
-        <v>0.9933849886283449</v>
+        <v>1.022842013714107</v>
       </c>
       <c r="M23">
-        <v>0.9435047880773111</v>
+        <v>1.016905432614176</v>
       </c>
       <c r="N23">
-        <v>0.997797749151687</v>
+        <v>1.025961885423346</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9730646728414055</v>
+        <v>1.019155909666095</v>
       </c>
       <c r="D24">
-        <v>1.019376191446201</v>
+        <v>1.029185688659312</v>
       </c>
       <c r="E24">
-        <v>0.9842844961306695</v>
+        <v>1.020394715636701</v>
       </c>
       <c r="F24">
-        <v>0.9400066219264325</v>
+        <v>1.0156158420921</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039592217634568</v>
+        <v>1.032281536770271</v>
       </c>
       <c r="J24">
-        <v>1.001640506463954</v>
+        <v>1.025460933148266</v>
       </c>
       <c r="K24">
-        <v>1.033071374259642</v>
+        <v>1.032579703280122</v>
       </c>
       <c r="L24">
-        <v>0.9985933312431425</v>
+        <v>1.023820153176198</v>
       </c>
       <c r="M24">
-        <v>0.9551760981235661</v>
+        <v>1.019058613577108</v>
       </c>
       <c r="N24">
-        <v>1.003062950872905</v>
+        <v>1.026917205295349</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9822743012300549</v>
+        <v>1.020879460209492</v>
       </c>
       <c r="D25">
-        <v>1.024059960295743</v>
+        <v>1.030057770656934</v>
       </c>
       <c r="E25">
-        <v>0.9916001963788361</v>
+        <v>1.02185557143502</v>
       </c>
       <c r="F25">
-        <v>0.9545659163571857</v>
+        <v>1.018444073422341</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042237133656697</v>
+        <v>1.032636045560172</v>
       </c>
       <c r="J25">
-        <v>1.007413294049976</v>
+        <v>1.026563613537125</v>
       </c>
       <c r="K25">
-        <v>1.03629591442027</v>
+        <v>1.033128456164862</v>
       </c>
       <c r="L25">
-        <v>1.00433032320083</v>
+        <v>1.024952578759847</v>
       </c>
       <c r="M25">
-        <v>0.9679130144081769</v>
+        <v>1.021552165416754</v>
       </c>
       <c r="N25">
-        <v>1.008843936479447</v>
+        <v>1.02802145161684</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022252759893007</v>
+        <v>0.9892761200051919</v>
       </c>
       <c r="D2">
-        <v>1.030752338702968</v>
+        <v>1.027645344642709</v>
       </c>
       <c r="E2">
-        <v>1.02302102075481</v>
+        <v>0.9971876936419745</v>
       </c>
       <c r="F2">
-        <v>1.020697650145091</v>
+        <v>0.9655525599206743</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032912691336351</v>
+        <v>1.044205773134425</v>
       </c>
       <c r="J2">
-        <v>1.027439639688858</v>
+        <v>1.011782380883119</v>
       </c>
       <c r="K2">
-        <v>1.033562440400202</v>
+        <v>1.038732516203279</v>
       </c>
       <c r="L2">
-        <v>1.025853685629013</v>
+        <v>1.008686347905604</v>
       </c>
       <c r="M2">
-        <v>1.023537168260061</v>
+        <v>0.9775136189854219</v>
       </c>
       <c r="N2">
-        <v>1.028898721826192</v>
+        <v>1.013219227917034</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023249111908376</v>
+        <v>0.994180396662924</v>
       </c>
       <c r="D3">
-        <v>1.031256055203984</v>
+        <v>1.030167804546284</v>
       </c>
       <c r="E3">
-        <v>1.023867409682729</v>
+        <v>1.001115033444735</v>
       </c>
       <c r="F3">
-        <v>1.022332814411987</v>
+        <v>0.9732119870252297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033110015714587</v>
+        <v>1.04555901544893</v>
       </c>
       <c r="J3">
-        <v>1.028073717667712</v>
+        <v>1.014830977060172</v>
       </c>
       <c r="K3">
-        <v>1.033875395810438</v>
+        <v>1.040428702316056</v>
       </c>
       <c r="L3">
-        <v>1.026506756700713</v>
+        <v>1.011733667063309</v>
       </c>
       <c r="M3">
-        <v>1.024976355960243</v>
+        <v>0.9841995016110962</v>
       </c>
       <c r="N3">
-        <v>1.029533700268504</v>
+        <v>1.016272153450337</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023893463459748</v>
+        <v>0.9972764462843657</v>
       </c>
       <c r="D4">
-        <v>1.031581708288471</v>
+        <v>1.031764479100705</v>
       </c>
       <c r="E4">
-        <v>1.024415161479446</v>
+        <v>1.003600353346823</v>
       </c>
       <c r="F4">
-        <v>1.023390400685407</v>
+        <v>0.9780340439533969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033236056739292</v>
+        <v>1.046401044371399</v>
       </c>
       <c r="J4">
-        <v>1.028483091010765</v>
+        <v>1.016750078365715</v>
       </c>
       <c r="K4">
-        <v>1.0340768979839</v>
+        <v>1.041494073767753</v>
       </c>
       <c r="L4">
-        <v>1.026928780453009</v>
+        <v>1.013655518631639</v>
       </c>
       <c r="M4">
-        <v>1.025906677666045</v>
+        <v>0.9884050133036207</v>
       </c>
       <c r="N4">
-        <v>1.02994365496866</v>
+        <v>1.018193980099859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024164264857275</v>
+        <v>0.9985603022570165</v>
       </c>
       <c r="D5">
-        <v>1.031718543382869</v>
+        <v>1.032427475048109</v>
       </c>
       <c r="E5">
-        <v>1.024645456066863</v>
+        <v>1.004632350034993</v>
       </c>
       <c r="F5">
-        <v>1.02383490322629</v>
+        <v>0.9800308867526232</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033288651316737</v>
+        <v>1.04674721034505</v>
       </c>
       <c r="J5">
-        <v>1.028654972504056</v>
+        <v>1.017544557810953</v>
       </c>
       <c r="K5">
-        <v>1.034161369243622</v>
+        <v>1.041934473179936</v>
       </c>
       <c r="L5">
-        <v>1.027106066306928</v>
+        <v>1.014451980810674</v>
       </c>
       <c r="M5">
-        <v>1.026297568410138</v>
+        <v>0.9901456278579334</v>
       </c>
       <c r="N5">
-        <v>1.030115780553386</v>
+        <v>1.018989587797037</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024209728705519</v>
+        <v>0.9987748501060792</v>
       </c>
       <c r="D6">
-        <v>1.031741514489152</v>
+        <v>1.032538318658182</v>
       </c>
       <c r="E6">
-        <v>1.024684124704321</v>
+        <v>1.004804889904663</v>
       </c>
       <c r="F6">
-        <v>1.023909531098296</v>
+        <v>0.9803644341881187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033297459122005</v>
+        <v>1.046804880594222</v>
       </c>
       <c r="J6">
-        <v>1.028683819334377</v>
+        <v>1.017677246612489</v>
       </c>
       <c r="K6">
-        <v>1.034175538232566</v>
+        <v>1.042007985508705</v>
       </c>
       <c r="L6">
-        <v>1.027135825597943</v>
+        <v>1.014585050172586</v>
       </c>
       <c r="M6">
-        <v>1.026363188161322</v>
+        <v>0.9904363208064852</v>
       </c>
       <c r="N6">
-        <v>1.030144668349515</v>
+        <v>1.01912246503189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023897082250147</v>
+        <v>0.9972936698601458</v>
       </c>
       <c r="D7">
-        <v>1.031583536960164</v>
+        <v>1.031773370154815</v>
       </c>
       <c r="E7">
-        <v>1.02441823860923</v>
+        <v>1.003614192645313</v>
       </c>
       <c r="F7">
-        <v>1.023396340561016</v>
+        <v>0.9780608429002825</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033236761055369</v>
+        <v>1.046405700312496</v>
       </c>
       <c r="J7">
-        <v>1.028485388559732</v>
+        <v>1.01676074196529</v>
       </c>
       <c r="K7">
-        <v>1.03407802763786</v>
+        <v>1.041499987527457</v>
       </c>
       <c r="L7">
-        <v>1.026931149877131</v>
+        <v>1.013666205514364</v>
       </c>
       <c r="M7">
-        <v>1.025911901610701</v>
+        <v>0.9884283771604493</v>
       </c>
       <c r="N7">
-        <v>1.029945955780409</v>
+        <v>1.018204658842967</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02258955576641</v>
+        <v>0.9909500530370744</v>
       </c>
       <c r="D8">
-        <v>1.030922630387698</v>
+        <v>1.028505338785084</v>
       </c>
       <c r="E8">
-        <v>1.023307045094566</v>
+        <v>0.9985268857392841</v>
       </c>
       <c r="F8">
-        <v>1.021250363899914</v>
+        <v>0.9681699680250888</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032979717704037</v>
+        <v>1.044670206125776</v>
       </c>
       <c r="J8">
-        <v>1.027654119646978</v>
+        <v>1.012824072162825</v>
       </c>
       <c r="K8">
-        <v>1.033668412010577</v>
+        <v>1.039312549300973</v>
       </c>
       <c r="L8">
-        <v>1.026074509604016</v>
+        <v>1.009726848337897</v>
       </c>
       <c r="M8">
-        <v>1.024023744386487</v>
+        <v>0.9797990860541651</v>
       </c>
       <c r="N8">
-        <v>1.029113506370452</v>
+        <v>1.014262398517841</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020282766036584</v>
+        <v>0.9791407650331629</v>
       </c>
       <c r="D9">
-        <v>1.029755896427656</v>
+        <v>1.022462017351806</v>
       </c>
       <c r="E9">
-        <v>1.021349594621962</v>
+        <v>0.9891068449245305</v>
       </c>
       <c r="F9">
-        <v>1.017464939583013</v>
+        <v>0.9496270130085931</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032514214374268</v>
+        <v>1.041343734273805</v>
       </c>
       <c r="J9">
-        <v>1.026182263222738</v>
+        <v>1.005452247218128</v>
       </c>
       <c r="K9">
-        <v>1.032938978726784</v>
+        <v>1.035200880656647</v>
       </c>
       <c r="L9">
-        <v>1.024560716439517</v>
+        <v>1.002379163483167</v>
       </c>
       <c r="M9">
-        <v>1.020689190778867</v>
+        <v>0.9635938892006529</v>
       </c>
       <c r="N9">
-        <v>1.027639559741265</v>
+        <v>1.006880104736162</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018742985900804</v>
+        <v>0.9707843508725493</v>
       </c>
       <c r="D10">
-        <v>1.028976709015724</v>
+        <v>1.018222637062974</v>
       </c>
       <c r="E10">
-        <v>1.020045023161906</v>
+        <v>0.9824788433589703</v>
       </c>
       <c r="F10">
-        <v>1.014938245282607</v>
+        <v>0.9363801215140961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032195443763205</v>
+        <v>1.038928924045408</v>
       </c>
       <c r="J10">
-        <v>1.025196241730306</v>
+        <v>1.000207058866162</v>
       </c>
       <c r="K10">
-        <v>1.032447590098265</v>
+        <v>1.032270490438632</v>
       </c>
       <c r="L10">
-        <v>1.023548612598819</v>
+        <v>0.9971718215998626</v>
       </c>
       <c r="M10">
-        <v>1.018460822289531</v>
+        <v>0.9520016081891755</v>
       </c>
       <c r="N10">
-        <v>1.026652137985215</v>
+        <v>1.001627467615105</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018075773399514</v>
+        <v>0.9670362375013679</v>
       </c>
       <c r="D11">
-        <v>1.028639002662249</v>
+        <v>1.016332213924127</v>
       </c>
       <c r="E11">
-        <v>1.019480218180555</v>
+        <v>0.9795157684948589</v>
       </c>
       <c r="F11">
-        <v>1.013843332714447</v>
+        <v>0.9303988160076023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032055413401451</v>
+        <v>1.037832266641893</v>
       </c>
       <c r="J11">
-        <v>1.024768138945929</v>
+        <v>0.9978476864758243</v>
       </c>
       <c r="K11">
-        <v>1.032233610898374</v>
+        <v>1.030952564025981</v>
       </c>
       <c r="L11">
-        <v>1.023109663474649</v>
+        <v>0.9948346100994863</v>
       </c>
       <c r="M11">
-        <v>1.017494566212241</v>
+        <v>0.9467645647946701</v>
       </c>
       <c r="N11">
-        <v>1.02622342724578</v>
+        <v>0.9992647446453493</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0178278677981</v>
+        <v>0.9656230947221804</v>
       </c>
       <c r="D12">
-        <v>1.028513517549566</v>
+        <v>1.015621346074452</v>
       </c>
       <c r="E12">
-        <v>1.019270436409968</v>
+        <v>0.9784001532532502</v>
       </c>
       <c r="F12">
-        <v>1.013436499318009</v>
+        <v>0.9281367700903257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032003099374187</v>
+        <v>1.037416844687844</v>
       </c>
       <c r="J12">
-        <v>1.024608948939279</v>
+        <v>0.9969571284249424</v>
       </c>
       <c r="K12">
-        <v>1.032153949024186</v>
+        <v>1.030455262861629</v>
       </c>
       <c r="L12">
-        <v>1.022946512125434</v>
+        <v>0.9939532113992963</v>
       </c>
       <c r="M12">
-        <v>1.017135444459043</v>
+        <v>0.9447836439672787</v>
       </c>
       <c r="N12">
-        <v>1.026064011171063</v>
+        <v>0.9983729218998866</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017881047725306</v>
+        <v>0.9659271903368395</v>
       </c>
       <c r="D13">
-        <v>1.02854043659346</v>
+        <v>1.015774230268221</v>
       </c>
       <c r="E13">
-        <v>1.019315434779937</v>
+        <v>0.9786401525409116</v>
       </c>
       <c r="F13">
-        <v>1.013523772665904</v>
+        <v>0.9286238717909712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032014334508889</v>
+        <v>1.037506326527488</v>
       </c>
       <c r="J13">
-        <v>1.024643103605964</v>
+        <v>0.9971488140623469</v>
       </c>
       <c r="K13">
-        <v>1.032171044925142</v>
+        <v>1.030562293815863</v>
       </c>
       <c r="L13">
-        <v>1.022981513456471</v>
+        <v>0.9941428892825832</v>
       </c>
       <c r="M13">
-        <v>1.017212486968956</v>
+        <v>0.945210223221065</v>
       </c>
       <c r="N13">
-        <v>1.026098214341291</v>
+        <v>0.9985648797528829</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018055282946123</v>
+        <v>0.9669198624164754</v>
       </c>
       <c r="D14">
-        <v>1.028628630954488</v>
+        <v>1.016273633242129</v>
       </c>
       <c r="E14">
-        <v>1.019462877313365</v>
+        <v>0.9794238635451464</v>
       </c>
       <c r="F14">
-        <v>1.013809706523289</v>
+        <v>0.9302126787709629</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032051095237816</v>
+        <v>1.037798094966405</v>
       </c>
       <c r="J14">
-        <v>1.024754983796669</v>
+        <v>0.9977743677529921</v>
       </c>
       <c r="K14">
-        <v>1.032227029701617</v>
+        <v>1.03091161778533</v>
       </c>
       <c r="L14">
-        <v>1.023096179501795</v>
+        <v>0.9947620291867699</v>
       </c>
       <c r="M14">
-        <v>1.017464885446942</v>
+        <v>0.9466015670112669</v>
       </c>
       <c r="N14">
-        <v>1.0262102534147</v>
+        <v>0.9991913218015209</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01816262527744</v>
+        <v>0.9675286619524165</v>
       </c>
       <c r="D15">
-        <v>1.028682964356633</v>
+        <v>1.016580167243749</v>
       </c>
       <c r="E15">
-        <v>1.019553723091399</v>
+        <v>0.9799047144841632</v>
       </c>
       <c r="F15">
-        <v>1.013985861787988</v>
+        <v>0.9311861408837031</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03207370491622</v>
+        <v>1.037976780230608</v>
       </c>
       <c r="J15">
-        <v>1.024823893846123</v>
+        <v>0.9981578830487107</v>
       </c>
       <c r="K15">
-        <v>1.032261499871172</v>
+        <v>1.031125806398993</v>
       </c>
       <c r="L15">
-        <v>1.023166814955994</v>
+        <v>0.9951417176225823</v>
       </c>
       <c r="M15">
-        <v>1.017620368273356</v>
+        <v>0.9474540007231707</v>
       </c>
       <c r="N15">
-        <v>1.026279261324328</v>
+        <v>0.9995753817329494</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01878725641448</v>
+        <v>0.9710302483365988</v>
       </c>
       <c r="D16">
-        <v>1.028999114972329</v>
+        <v>1.018346906924475</v>
       </c>
       <c r="E16">
-        <v>1.020082509113399</v>
+        <v>0.9826734474708397</v>
       </c>
       <c r="F16">
-        <v>1.015010892673793</v>
+        <v>0.9367716263932083</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032204694971479</v>
+        <v>1.039000596605528</v>
       </c>
       <c r="J16">
-        <v>1.025224629213771</v>
+        <v>1.000361707416771</v>
       </c>
       <c r="K16">
-        <v>1.032461765856215</v>
+        <v>1.032356890621294</v>
       </c>
       <c r="L16">
-        <v>1.023577729366756</v>
+        <v>0.9973251260244507</v>
       </c>
       <c r="M16">
-        <v>1.018524920299543</v>
+        <v>0.9523443454692184</v>
       </c>
       <c r="N16">
-        <v>1.026680565782163</v>
+        <v>1.001782335784394</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019178942171207</v>
+        <v>0.9731910004478662</v>
       </c>
       <c r="D17">
-        <v>1.029197344864533</v>
+        <v>1.019440171431426</v>
       </c>
       <c r="E17">
-        <v>1.020414224483366</v>
+        <v>0.9843845931243053</v>
       </c>
       <c r="F17">
-        <v>1.01565363744601</v>
+        <v>0.9402072609774347</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032286325996293</v>
+        <v>1.039628872812491</v>
       </c>
       <c r="J17">
-        <v>1.025475691643233</v>
+        <v>1.001719872937212</v>
       </c>
       <c r="K17">
-        <v>1.032587065259081</v>
+        <v>1.03311571867535</v>
       </c>
       <c r="L17">
-        <v>1.023835296816339</v>
+        <v>0.998672071092128</v>
       </c>
       <c r="M17">
-        <v>1.019091953274534</v>
+        <v>0.9553517104026673</v>
       </c>
       <c r="N17">
-        <v>1.026931984749072</v>
+        <v>1.003142430055658</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019407359866868</v>
+        <v>0.9744389180008084</v>
       </c>
       <c r="D18">
-        <v>1.029312938728078</v>
+        <v>1.020072605213844</v>
       </c>
       <c r="E18">
-        <v>1.020607716498035</v>
+        <v>0.9853737654797783</v>
       </c>
       <c r="F18">
-        <v>1.016028459374702</v>
+        <v>0.9421877951206281</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032333746961765</v>
+        <v>1.039990441905904</v>
       </c>
       <c r="J18">
-        <v>1.025622021316132</v>
+        <v>1.002503628944096</v>
       </c>
       <c r="K18">
-        <v>1.03266003401244</v>
+        <v>1.033553626575795</v>
       </c>
       <c r="L18">
-        <v>1.023985463917455</v>
+        <v>0.9994498349472136</v>
       </c>
       <c r="M18">
-        <v>1.019422563492724</v>
+        <v>0.9570850880768438</v>
       </c>
       <c r="N18">
-        <v>1.027078522226891</v>
+        <v>1.00392729908597</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01948523664249</v>
+        <v>0.9748623614529629</v>
       </c>
       <c r="D19">
-        <v>1.029352348078929</v>
+        <v>1.020287371615201</v>
       </c>
       <c r="E19">
-        <v>1.020673693656433</v>
+        <v>0.9857095653654102</v>
       </c>
       <c r="F19">
-        <v>1.016156250611638</v>
+        <v>0.942859233138491</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032349883542656</v>
+        <v>1.040112909255605</v>
       </c>
       <c r="J19">
-        <v>1.025671897189158</v>
+        <v>1.00276946487745</v>
       </c>
       <c r="K19">
-        <v>1.03268489473461</v>
+        <v>1.033702155399012</v>
       </c>
       <c r="L19">
-        <v>1.024036655567707</v>
+        <v>0.9997137197211724</v>
       </c>
       <c r="M19">
-        <v>1.019535271113728</v>
+        <v>0.9576726869365975</v>
       </c>
       <c r="N19">
-        <v>1.027128468929377</v>
+        <v>1.004193512536841</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019136922762282</v>
+        <v>0.9729604659907114</v>
       </c>
       <c r="D20">
-        <v>1.029176079797006</v>
+        <v>1.019323420569658</v>
       </c>
       <c r="E20">
-        <v>1.020378633734331</v>
+        <v>0.984201931946833</v>
       </c>
       <c r="F20">
-        <v>1.015584685371856</v>
+        <v>0.9398410953374925</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032277587725463</v>
+        <v>1.039561973722065</v>
       </c>
       <c r="J20">
-        <v>1.025448766487244</v>
+        <v>1.001575033950388</v>
       </c>
       <c r="K20">
-        <v>1.03257363384135</v>
+        <v>1.03303479286063</v>
       </c>
       <c r="L20">
-        <v>1.023807669267291</v>
+        <v>0.9985283783886895</v>
       </c>
       <c r="M20">
-        <v>1.019031129554617</v>
+        <v>0.9550312169870075</v>
       </c>
       <c r="N20">
-        <v>1.026905021356273</v>
+        <v>1.00299738538086</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018003977047679</v>
+        <v>0.9666281352002599</v>
       </c>
       <c r="D21">
-        <v>1.028602661172684</v>
+        <v>1.016126815026219</v>
       </c>
       <c r="E21">
-        <v>1.01941945883672</v>
+        <v>0.9791935028260106</v>
       </c>
       <c r="F21">
-        <v>1.013725509898428</v>
+        <v>0.9297459578693075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032040278414738</v>
+        <v>1.037712402826356</v>
       </c>
       <c r="J21">
-        <v>1.024722042668167</v>
+        <v>0.997590557304282</v>
       </c>
       <c r="K21">
-        <v>1.032210548558129</v>
+        <v>1.030808968307028</v>
       </c>
       <c r="L21">
-        <v>1.023062416144078</v>
+        <v>0.9945800813011872</v>
       </c>
       <c r="M21">
-        <v>1.017390566275091</v>
+        <v>0.9461928607804887</v>
       </c>
       <c r="N21">
-        <v>1.026177265506017</v>
+        <v>0.9990072503208904</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017291225051058</v>
+        <v>0.9625248464367849</v>
       </c>
       <c r="D22">
-        <v>1.028241864882576</v>
+        <v>1.014066499489648</v>
       </c>
       <c r="E22">
-        <v>1.018816456359184</v>
+        <v>0.9759571541406968</v>
       </c>
       <c r="F22">
-        <v>1.012555792366041</v>
+        <v>0.9231633958845687</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031889333958357</v>
+        <v>1.036502552136041</v>
       </c>
       <c r="J22">
-        <v>1.024264117849401</v>
+        <v>0.995002764246488</v>
       </c>
       <c r="K22">
-        <v>1.031981218524016</v>
+        <v>1.029364353473903</v>
       </c>
       <c r="L22">
-        <v>1.022593231702202</v>
+        <v>0.9920204397461503</v>
       </c>
       <c r="M22">
-        <v>1.016357853344496</v>
+        <v>0.9404278209055384</v>
       </c>
       <c r="N22">
-        <v>1.025718690381484</v>
+        <v>0.9964157823001303</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017669109045916</v>
+        <v>0.9647121526481727</v>
       </c>
       <c r="D23">
-        <v>1.028433154601603</v>
+        <v>1.015163661288984</v>
       </c>
       <c r="E23">
-        <v>1.019136113037261</v>
+        <v>0.977681449345576</v>
       </c>
       <c r="F23">
-        <v>1.013175958502764</v>
+        <v>0.9266765217810925</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031969517262338</v>
+        <v>1.037148515382385</v>
       </c>
       <c r="J23">
-        <v>1.024506968016171</v>
+        <v>0.9963827713296969</v>
       </c>
       <c r="K23">
-        <v>1.032102889494101</v>
+        <v>1.030134594013772</v>
       </c>
       <c r="L23">
-        <v>1.022842013714107</v>
+        <v>0.993384988628344</v>
       </c>
       <c r="M23">
-        <v>1.016905432614176</v>
+        <v>0.9435047880773096</v>
       </c>
       <c r="N23">
-        <v>1.025961885423346</v>
+        <v>0.9977977491516862</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019155909666095</v>
+        <v>0.9730646728414049</v>
       </c>
       <c r="D24">
-        <v>1.029185688659312</v>
+        <v>1.0193761914462</v>
       </c>
       <c r="E24">
-        <v>1.020394715636701</v>
+        <v>0.9842844961306689</v>
       </c>
       <c r="F24">
-        <v>1.0156158420921</v>
+        <v>0.9400066219264319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032281536770271</v>
+        <v>1.039592217634568</v>
       </c>
       <c r="J24">
-        <v>1.025460933148266</v>
+        <v>1.001640506463953</v>
       </c>
       <c r="K24">
-        <v>1.032579703280122</v>
+        <v>1.033071374259642</v>
       </c>
       <c r="L24">
-        <v>1.023820153176198</v>
+        <v>0.998593331243142</v>
       </c>
       <c r="M24">
-        <v>1.019058613577108</v>
+        <v>0.9551760981235656</v>
       </c>
       <c r="N24">
-        <v>1.026917205295349</v>
+        <v>1.003062950872904</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020879460209492</v>
+        <v>0.982274301230054</v>
       </c>
       <c r="D25">
-        <v>1.030057770656934</v>
+        <v>1.024059960295742</v>
       </c>
       <c r="E25">
-        <v>1.02185557143502</v>
+        <v>0.991600196378835</v>
       </c>
       <c r="F25">
-        <v>1.018444073422341</v>
+        <v>0.9545659163571844</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032636045560172</v>
+        <v>1.042237133656696</v>
       </c>
       <c r="J25">
-        <v>1.026563613537125</v>
+        <v>1.007413294049975</v>
       </c>
       <c r="K25">
-        <v>1.033128456164862</v>
+        <v>1.036295914420269</v>
       </c>
       <c r="L25">
-        <v>1.024952578759847</v>
+        <v>1.004330323200828</v>
       </c>
       <c r="M25">
-        <v>1.021552165416754</v>
+        <v>0.9679130144081756</v>
       </c>
       <c r="N25">
-        <v>1.02802145161684</v>
+        <v>1.008843936479446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9892761200051919</v>
+        <v>1.001667770960073</v>
       </c>
       <c r="D2">
-        <v>1.027645344642709</v>
+        <v>1.045733913192607</v>
       </c>
       <c r="E2">
-        <v>0.9971876936419745</v>
+        <v>1.007925107481695</v>
       </c>
       <c r="F2">
-        <v>0.9655525599206743</v>
+        <v>1.044354736256145</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044205773134425</v>
+        <v>1.055548089124893</v>
       </c>
       <c r="J2">
-        <v>1.011782380883119</v>
+        <v>1.02379871345491</v>
       </c>
       <c r="K2">
-        <v>1.038732516203279</v>
+        <v>1.056590853235085</v>
       </c>
       <c r="L2">
-        <v>1.008686347905604</v>
+        <v>1.019275126170688</v>
       </c>
       <c r="M2">
-        <v>0.9775136189854219</v>
+        <v>1.055228880355431</v>
       </c>
       <c r="N2">
-        <v>1.013219227917034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011895900125276</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.052282250196262</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051084784838414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.994180396662924</v>
+        <v>1.005074265011973</v>
       </c>
       <c r="D3">
-        <v>1.030167804546284</v>
+        <v>1.047658628724879</v>
       </c>
       <c r="E3">
-        <v>1.001115033444735</v>
+        <v>1.010566092272476</v>
       </c>
       <c r="F3">
-        <v>0.9732119870252297</v>
+        <v>1.04653998796677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04555901544893</v>
+        <v>1.056320423080295</v>
       </c>
       <c r="J3">
-        <v>1.014830977060172</v>
+        <v>1.025427549816765</v>
       </c>
       <c r="K3">
-        <v>1.040428702316056</v>
+        <v>1.057715969046574</v>
       </c>
       <c r="L3">
-        <v>1.011733667063309</v>
+        <v>1.021065539749291</v>
       </c>
       <c r="M3">
-        <v>0.9841995016110962</v>
+        <v>1.056610095626513</v>
       </c>
       <c r="N3">
-        <v>1.016272153450337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012442432305252</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053375371190393</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051877690045683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9972764462843657</v>
+        <v>1.007242126789918</v>
       </c>
       <c r="D4">
-        <v>1.031764479100705</v>
+        <v>1.048888859022079</v>
       </c>
       <c r="E4">
-        <v>1.003600353346823</v>
+        <v>1.012252592558406</v>
       </c>
       <c r="F4">
-        <v>0.9780340439533969</v>
+        <v>1.047937774754264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046401044371399</v>
+        <v>1.056803785663761</v>
       </c>
       <c r="J4">
-        <v>1.016750078365715</v>
+        <v>1.026462375092196</v>
       </c>
       <c r="K4">
-        <v>1.041494073767753</v>
+        <v>1.058430981549006</v>
       </c>
       <c r="L4">
-        <v>1.013655518631639</v>
+        <v>1.02220535499123</v>
       </c>
       <c r="M4">
-        <v>0.9884050133036207</v>
+        <v>1.057490112463135</v>
       </c>
       <c r="N4">
-        <v>1.018193980099859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012789667341357</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05407183303748</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.05238412816792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9985603022570165</v>
+        <v>1.00814612435283</v>
       </c>
       <c r="D5">
-        <v>1.032427475048109</v>
+        <v>1.049407304802028</v>
       </c>
       <c r="E5">
-        <v>1.004632350034993</v>
+        <v>1.012957406935582</v>
       </c>
       <c r="F5">
-        <v>0.9800308867526232</v>
+        <v>1.048524460810757</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04674721034505</v>
+        <v>1.057005163929005</v>
       </c>
       <c r="J5">
-        <v>1.017544557810953</v>
+        <v>1.02689400281409</v>
       </c>
       <c r="K5">
-        <v>1.041934473179936</v>
+        <v>1.058733282157814</v>
       </c>
       <c r="L5">
-        <v>1.014451980810674</v>
+        <v>1.022681179780102</v>
       </c>
       <c r="M5">
-        <v>0.9901456278579334</v>
+        <v>1.057859673505574</v>
       </c>
       <c r="N5">
-        <v>1.018989587797037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.0129347443615</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.054364310393963</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.052604923339421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9987748501060792</v>
+        <v>1.008298753293178</v>
       </c>
       <c r="D6">
-        <v>1.032538318658182</v>
+        <v>1.049500014092352</v>
       </c>
       <c r="E6">
-        <v>1.004804889904663</v>
+        <v>1.013076704481166</v>
       </c>
       <c r="F6">
-        <v>0.9803644341881187</v>
+        <v>1.048626220010156</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046804880594222</v>
+        <v>1.05704123966545</v>
       </c>
       <c r="J6">
-        <v>1.017677246612489</v>
+        <v>1.02696751640653</v>
       </c>
       <c r="K6">
-        <v>1.042007985508705</v>
+        <v>1.058789667906196</v>
       </c>
       <c r="L6">
-        <v>1.014585050172586</v>
+        <v>1.022762063508775</v>
       </c>
       <c r="M6">
-        <v>0.9904363208064852</v>
+        <v>1.057924973526714</v>
       </c>
       <c r="N6">
-        <v>1.01912246503189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012959749269899</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.054415990011212</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.052653390136837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9972936698601458</v>
+        <v>1.007257800583272</v>
       </c>
       <c r="D7">
-        <v>1.031773370154815</v>
+        <v>1.048911496820159</v>
       </c>
       <c r="E7">
-        <v>1.003614192645313</v>
+        <v>1.012265398736697</v>
       </c>
       <c r="F7">
-        <v>0.9780608429002825</v>
+        <v>1.047954912206212</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046405700312496</v>
+        <v>1.056813136624227</v>
       </c>
       <c r="J7">
-        <v>1.01676074196529</v>
+        <v>1.026471632255799</v>
       </c>
       <c r="K7">
-        <v>1.041499987527457</v>
+        <v>1.058450560896613</v>
       </c>
       <c r="L7">
-        <v>1.013666205514364</v>
+        <v>1.022215058680271</v>
       </c>
       <c r="M7">
-        <v>0.9884283771604493</v>
+        <v>1.057504246654858</v>
       </c>
       <c r="N7">
-        <v>1.018204658842967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012793582363469</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054083019096951</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.052417747476955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9909500530370744</v>
+        <v>1.002831011777613</v>
       </c>
       <c r="D8">
-        <v>1.028505338785084</v>
+        <v>1.046406809588897</v>
       </c>
       <c r="E8">
-        <v>0.9985268857392841</v>
+        <v>1.008826479165068</v>
       </c>
       <c r="F8">
-        <v>0.9681699680250888</v>
+        <v>1.045108004041029</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044670206125776</v>
+        <v>1.055820599342901</v>
       </c>
       <c r="J8">
-        <v>1.012824072162825</v>
+        <v>1.024357409918389</v>
       </c>
       <c r="K8">
-        <v>1.039312549300973</v>
+        <v>1.056992826591525</v>
       </c>
       <c r="L8">
-        <v>1.009726848337897</v>
+        <v>1.019888202950773</v>
       </c>
       <c r="M8">
-        <v>0.9797990860541651</v>
+        <v>1.055709752542655</v>
       </c>
       <c r="N8">
-        <v>1.014262398517841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012084401909335</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.052662822104845</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051391526868528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9791407650331629</v>
+        <v>0.9947353567299534</v>
       </c>
       <c r="D9">
-        <v>1.022462017351806</v>
+        <v>1.041849068808188</v>
       </c>
       <c r="E9">
-        <v>0.9891068449245305</v>
+        <v>1.002583651890892</v>
       </c>
       <c r="F9">
-        <v>0.9496270130085931</v>
+        <v>1.039948879399751</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041343734273805</v>
+        <v>1.053933575396248</v>
       </c>
       <c r="J9">
-        <v>1.005452247218128</v>
+        <v>1.020475402740769</v>
       </c>
       <c r="K9">
-        <v>1.035200880656647</v>
+        <v>1.054297796688829</v>
       </c>
       <c r="L9">
-        <v>1.002379163483167</v>
+        <v>1.015634949765716</v>
       </c>
       <c r="M9">
-        <v>0.9635938892006529</v>
+        <v>1.052425437296409</v>
       </c>
       <c r="N9">
-        <v>1.006880104736162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010781072124607</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050063545202746</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.049482909315192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9707843508725493</v>
+        <v>0.9891528167359004</v>
       </c>
       <c r="D10">
-        <v>1.018222637062974</v>
+        <v>1.038785237145408</v>
       </c>
       <c r="E10">
-        <v>0.9824788433589703</v>
+        <v>0.9983166159911678</v>
       </c>
       <c r="F10">
-        <v>0.9363801215140961</v>
+        <v>1.036520529446051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038928924045408</v>
+        <v>1.05261713466305</v>
       </c>
       <c r="J10">
-        <v>1.000207058866162</v>
+        <v>1.017803511681859</v>
       </c>
       <c r="K10">
-        <v>1.032270490438632</v>
+        <v>1.052487827356464</v>
       </c>
       <c r="L10">
-        <v>0.9971718215998626</v>
+        <v>1.012716331120044</v>
       </c>
       <c r="M10">
-        <v>0.9520016081891755</v>
+        <v>1.050260282473328</v>
       </c>
       <c r="N10">
-        <v>1.001627467615105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009888343624449</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.048400817140836</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.048219722019344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9670362375013679</v>
+        <v>0.98686466032586</v>
       </c>
       <c r="D11">
-        <v>1.016332213924127</v>
+        <v>1.037882768899649</v>
       </c>
       <c r="E11">
-        <v>0.9795157684948589</v>
+        <v>0.9966063860642862</v>
       </c>
       <c r="F11">
-        <v>0.9303988160076023</v>
+        <v>1.035802590398911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037832266641893</v>
+        <v>1.052250015531538</v>
       </c>
       <c r="J11">
-        <v>0.9978476864758243</v>
+        <v>1.016794281686505</v>
       </c>
       <c r="K11">
-        <v>1.030952564025981</v>
+        <v>1.05212396680537</v>
       </c>
       <c r="L11">
-        <v>0.9948346100994863</v>
+        <v>1.011592586004246</v>
       </c>
       <c r="M11">
-        <v>0.9467645647946701</v>
+        <v>1.050079496680334</v>
       </c>
       <c r="N11">
-        <v>0.9992647446453493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009584351609079</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.048688874522988</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.047994749901554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9656230947221804</v>
+        <v>0.9860501718006731</v>
       </c>
       <c r="D12">
-        <v>1.015621346074452</v>
+        <v>1.037677462394298</v>
       </c>
       <c r="E12">
-        <v>0.9784001532532502</v>
+        <v>0.9960087074041076</v>
       </c>
       <c r="F12">
-        <v>0.9281367700903257</v>
+        <v>1.035794447832954</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037416844687844</v>
+        <v>1.052170891958776</v>
       </c>
       <c r="J12">
-        <v>0.9969571284249424</v>
+        <v>1.016456876176734</v>
       </c>
       <c r="K12">
-        <v>1.030455262861629</v>
+        <v>1.052116750368106</v>
       </c>
       <c r="L12">
-        <v>0.9939532113992963</v>
+        <v>1.011212775861098</v>
       </c>
       <c r="M12">
-        <v>0.9447836439672787</v>
+        <v>1.0502665768584</v>
       </c>
       <c r="N12">
-        <v>0.9983729218998866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009497623838549</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049159764606585</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.047989647810351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9659271903368395</v>
+        <v>0.9863223304897963</v>
       </c>
       <c r="D13">
-        <v>1.015774230268221</v>
+        <v>1.038018392704946</v>
       </c>
       <c r="E13">
-        <v>0.9786401525409116</v>
+        <v>0.9962311412845455</v>
       </c>
       <c r="F13">
-        <v>0.9286238717909712</v>
+        <v>1.036357146519469</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037506326527488</v>
+        <v>1.05232369484416</v>
       </c>
       <c r="J13">
-        <v>0.9971488140623469</v>
+        <v>1.016622265343557</v>
       </c>
       <c r="K13">
-        <v>1.030562293815863</v>
+        <v>1.052410036554881</v>
       </c>
       <c r="L13">
-        <v>0.9941428892825832</v>
+        <v>1.011386626691752</v>
       </c>
       <c r="M13">
-        <v>0.945210223221065</v>
+        <v>1.050777634724472</v>
       </c>
       <c r="N13">
-        <v>0.9985648797528829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009576177305407</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049837907776642</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.048194554593623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9669198624164754</v>
+        <v>0.9870044085377913</v>
       </c>
       <c r="D14">
-        <v>1.016273633242129</v>
+        <v>1.038505180880472</v>
       </c>
       <c r="E14">
-        <v>0.9794238635451464</v>
+        <v>0.9967576653625511</v>
       </c>
       <c r="F14">
-        <v>0.9302126787709629</v>
+        <v>1.037008777882597</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037798094966405</v>
+        <v>1.052534855954438</v>
       </c>
       <c r="J14">
-        <v>0.9977743677529921</v>
+        <v>1.016964436883446</v>
       </c>
       <c r="K14">
-        <v>1.03091161778533</v>
+        <v>1.052751796654395</v>
       </c>
       <c r="L14">
-        <v>0.9947620291867699</v>
+        <v>1.01175803701351</v>
       </c>
       <c r="M14">
-        <v>0.9466015670112669</v>
+        <v>1.051281055731694</v>
       </c>
       <c r="N14">
-        <v>0.9991913218015209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00970564678089</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.050407751711145</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.048437582228545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9675286619524165</v>
+        <v>0.9874096791990068</v>
       </c>
       <c r="D15">
-        <v>1.016580167243749</v>
+        <v>1.038754251334147</v>
       </c>
       <c r="E15">
-        <v>0.9799047144841632</v>
+        <v>0.9970673775589829</v>
       </c>
       <c r="F15">
-        <v>0.9311861408837031</v>
+        <v>1.037308346617549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037976780230608</v>
+        <v>1.052643022159665</v>
       </c>
       <c r="J15">
-        <v>0.9981578830487107</v>
+        <v>1.017161452320066</v>
       </c>
       <c r="K15">
-        <v>1.031125806398993</v>
+        <v>1.052912463734195</v>
       </c>
       <c r="L15">
-        <v>0.9951417176225823</v>
+        <v>1.011972575071058</v>
       </c>
       <c r="M15">
-        <v>0.9474540007231707</v>
+        <v>1.051491169915161</v>
       </c>
       <c r="N15">
-        <v>0.9995753817329494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009774923875516</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050611082265925</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.048556944491177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9710302483365988</v>
+        <v>0.9897200195461191</v>
       </c>
       <c r="D16">
-        <v>1.018346906924475</v>
+        <v>1.04000195772254</v>
       </c>
       <c r="E16">
-        <v>0.9826734474708397</v>
+        <v>0.9988242703404124</v>
       </c>
       <c r="F16">
-        <v>0.9367716263932083</v>
+        <v>1.038689462026631</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039000596605528</v>
+        <v>1.053194104536075</v>
       </c>
       <c r="J16">
-        <v>1.000361707416771</v>
+        <v>1.018269409933485</v>
       </c>
       <c r="K16">
-        <v>1.032356890621294</v>
+        <v>1.053649997422028</v>
       </c>
       <c r="L16">
-        <v>0.9973251260244507</v>
+        <v>1.013178045174825</v>
       </c>
       <c r="M16">
-        <v>0.9523443454692184</v>
+        <v>1.052358886725504</v>
       </c>
       <c r="N16">
-        <v>1.001782335784394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010140986390469</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051258503573756</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.049081505230093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9731910004478662</v>
+        <v>0.9911378944327813</v>
       </c>
       <c r="D17">
-        <v>1.019440171431426</v>
+        <v>1.040705319391023</v>
       </c>
       <c r="E17">
-        <v>0.9843845931243053</v>
+        <v>0.9999001520424405</v>
       </c>
       <c r="F17">
-        <v>0.9402072609774347</v>
+        <v>1.039403967490273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039628872812491</v>
+        <v>1.053504106498424</v>
       </c>
       <c r="J17">
-        <v>1.001719872937212</v>
+        <v>1.018940942288849</v>
       </c>
       <c r="K17">
-        <v>1.03311571867535</v>
+        <v>1.054035391579631</v>
       </c>
       <c r="L17">
-        <v>0.998672071092128</v>
+        <v>1.013909932181613</v>
       </c>
       <c r="M17">
-        <v>0.9553517104026673</v>
+        <v>1.052754661329289</v>
       </c>
       <c r="N17">
-        <v>1.003142430055658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010354184994118</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051443332415338</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.049356530708039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9744389180008084</v>
+        <v>0.991916528817732</v>
       </c>
       <c r="D18">
-        <v>1.020072605213844</v>
+        <v>1.040972106156183</v>
       </c>
       <c r="E18">
-        <v>0.9853737654797783</v>
+        <v>1.0004827496028</v>
       </c>
       <c r="F18">
-        <v>0.9421877951206281</v>
+        <v>1.039559997694869</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039990441905904</v>
+        <v>1.053619151792481</v>
       </c>
       <c r="J18">
-        <v>1.002503628944096</v>
+        <v>1.01928843708686</v>
       </c>
       <c r="K18">
-        <v>1.033553626575795</v>
+        <v>1.054119196576518</v>
       </c>
       <c r="L18">
-        <v>0.9994498349472136</v>
+        <v>1.014293155359504</v>
       </c>
       <c r="M18">
-        <v>0.9570850880768438</v>
+        <v>1.052729109849314</v>
       </c>
       <c r="N18">
-        <v>1.00392729908597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010450697191543</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051187595610908</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.049404346444719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9748623614529629</v>
+        <v>0.9920975702801363</v>
       </c>
       <c r="D19">
-        <v>1.020287371615201</v>
+        <v>1.040847048267448</v>
       </c>
       <c r="E19">
-        <v>0.9857095653654102</v>
+        <v>1.000602375495869</v>
       </c>
       <c r="F19">
-        <v>0.942859233138491</v>
+        <v>1.039198401970761</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040112909255605</v>
+        <v>1.053551396912047</v>
       </c>
       <c r="J19">
-        <v>1.00276946487745</v>
+        <v>1.019326087591702</v>
       </c>
       <c r="K19">
-        <v>1.033702155399012</v>
+        <v>1.053935117365214</v>
       </c>
       <c r="L19">
-        <v>0.9997137197211724</v>
+        <v>1.014346231600857</v>
       </c>
       <c r="M19">
-        <v>0.9576726869365975</v>
+        <v>1.052312060439357</v>
       </c>
       <c r="N19">
-        <v>1.004193512536841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010438760943152</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050535676652313</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.049280486269754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9729604659907114</v>
+        <v>0.9906061272118203</v>
       </c>
       <c r="D20">
-        <v>1.019323420569658</v>
+        <v>1.039615606427118</v>
       </c>
       <c r="E20">
-        <v>0.984201931946833</v>
+        <v>0.9994267374207234</v>
       </c>
       <c r="F20">
-        <v>0.9398410953374925</v>
+        <v>1.037431038599757</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039561973722065</v>
+        <v>1.05297727443973</v>
       </c>
       <c r="J20">
-        <v>1.001575033950388</v>
+        <v>1.01850403209397</v>
       </c>
       <c r="K20">
-        <v>1.03303479286063</v>
+        <v>1.052995882444942</v>
       </c>
       <c r="L20">
-        <v>0.9985283783886895</v>
+        <v>1.013479674455192</v>
       </c>
       <c r="M20">
-        <v>0.9550312169870075</v>
+        <v>1.050846161288966</v>
       </c>
       <c r="N20">
-        <v>1.00299738538086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010124880505854</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.048854048531085</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.048620284833709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9666281352002599</v>
+        <v>0.9863837003026635</v>
       </c>
       <c r="D21">
-        <v>1.016126815026219</v>
+        <v>1.037237436165838</v>
       </c>
       <c r="E21">
-        <v>0.9791935028260106</v>
+        <v>0.9962053856368233</v>
       </c>
       <c r="F21">
-        <v>0.9297459578693075</v>
+        <v>1.034718009387916</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037712402826356</v>
+        <v>1.051929079581182</v>
       </c>
       <c r="J21">
-        <v>0.997590557304282</v>
+        <v>1.016461954573289</v>
       </c>
       <c r="K21">
-        <v>1.030808968307028</v>
+        <v>1.051546083524705</v>
       </c>
       <c r="L21">
-        <v>0.9945800813011872</v>
+        <v>1.01125900653829</v>
       </c>
       <c r="M21">
-        <v>0.9461928607804887</v>
+        <v>1.04907019604726</v>
       </c>
       <c r="N21">
-        <v>0.9990072503208904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00943636640209</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.047408126604134</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0475984199742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9625248464367849</v>
+        <v>0.9836887904008645</v>
       </c>
       <c r="D22">
-        <v>1.014066499489648</v>
+        <v>1.035735563126124</v>
       </c>
       <c r="E22">
-        <v>0.9759571541406968</v>
+        <v>0.9941583714764748</v>
       </c>
       <c r="F22">
-        <v>0.9231633958845687</v>
+        <v>1.033032546723474</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036502552136041</v>
+        <v>1.051258865905435</v>
       </c>
       <c r="J22">
-        <v>0.995002764246488</v>
+        <v>1.015161976422777</v>
       </c>
       <c r="K22">
-        <v>1.029364353473903</v>
+        <v>1.050630845112463</v>
       </c>
       <c r="L22">
-        <v>0.9920204397461503</v>
+        <v>1.009846447258464</v>
       </c>
       <c r="M22">
-        <v>0.9404278209055384</v>
+        <v>1.047976846199518</v>
       </c>
       <c r="N22">
-        <v>0.9964157823001303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008999042771304</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.046542821189411</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.046938045733479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9647121526481727</v>
+        <v>0.985119301902473</v>
       </c>
       <c r="D23">
-        <v>1.015163661288984</v>
+        <v>1.036520209332251</v>
       </c>
       <c r="E23">
-        <v>0.977681449345576</v>
+        <v>0.9952435920014071</v>
       </c>
       <c r="F23">
-        <v>0.9266765217810925</v>
+        <v>1.033920278145253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037148515382385</v>
+        <v>1.051610626828296</v>
       </c>
       <c r="J23">
-        <v>0.9963827713296969</v>
+        <v>1.015850752347337</v>
       </c>
       <c r="K23">
-        <v>1.030134594013772</v>
+        <v>1.051104435673032</v>
       </c>
       <c r="L23">
-        <v>0.993384988628344</v>
+        <v>1.010594855307448</v>
       </c>
       <c r="M23">
-        <v>0.9435047880773096</v>
+        <v>1.048550473788662</v>
       </c>
       <c r="N23">
-        <v>0.9977977491516862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009229875985121</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.046996805061339</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.047263412774883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9730646728414049</v>
+        <v>0.9906519417992501</v>
       </c>
       <c r="D24">
-        <v>1.0193761914462</v>
+        <v>1.039589193408633</v>
       </c>
       <c r="E24">
-        <v>0.9842844961306689</v>
+        <v>0.9994577602327749</v>
       </c>
       <c r="F24">
-        <v>0.9400066219264319</v>
+        <v>1.037383148565798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039592217634568</v>
+        <v>1.052962508600828</v>
       </c>
       <c r="J24">
-        <v>1.001640506463953</v>
+        <v>1.018514647671727</v>
       </c>
       <c r="K24">
-        <v>1.033071374259642</v>
+        <v>1.052955004839651</v>
       </c>
       <c r="L24">
-        <v>0.998593331243142</v>
+        <v>1.013494404905189</v>
       </c>
       <c r="M24">
-        <v>0.9551760981235656</v>
+        <v>1.050784107607402</v>
       </c>
       <c r="N24">
-        <v>1.003062950872904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01012416544286</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04876455860867</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.048564438979486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.982274301230054</v>
+        <v>0.9968695022872558</v>
       </c>
       <c r="D25">
-        <v>1.024059960295742</v>
+        <v>1.04306597135911</v>
       </c>
       <c r="E25">
-        <v>0.991600196378835</v>
+        <v>1.004224643995521</v>
       </c>
       <c r="F25">
-        <v>0.9545659163571844</v>
+        <v>1.041312420623524</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042237133656696</v>
+        <v>1.054446801948526</v>
       </c>
       <c r="J25">
-        <v>1.007413294049975</v>
+        <v>1.021502681417921</v>
       </c>
       <c r="K25">
-        <v>1.036295914420269</v>
+        <v>1.055030603394678</v>
       </c>
       <c r="L25">
-        <v>1.004330323200828</v>
+        <v>1.016757729902547</v>
       </c>
       <c r="M25">
-        <v>0.9679130144081756</v>
+        <v>1.053301561860275</v>
       </c>
       <c r="N25">
-        <v>1.008843936479446</v>
+        <v>1.011127326017784</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.050756929688761</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.05002913517061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001667770960073</v>
+        <v>1.001383765206907</v>
       </c>
       <c r="D2">
-        <v>1.045733913192607</v>
+        <v>1.042351684978331</v>
       </c>
       <c r="E2">
-        <v>1.007925107481695</v>
+        <v>1.007682161489313</v>
       </c>
       <c r="F2">
-        <v>1.044354736256145</v>
+        <v>1.042346898243907</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055548089124893</v>
+        <v>1.054164216049894</v>
       </c>
       <c r="J2">
-        <v>1.02379871345491</v>
+        <v>1.023523166721861</v>
       </c>
       <c r="K2">
-        <v>1.056590853235085</v>
+        <v>1.053250916535389</v>
       </c>
       <c r="L2">
-        <v>1.019275126170688</v>
+        <v>1.019035499118718</v>
       </c>
       <c r="M2">
-        <v>1.055228880355431</v>
+        <v>1.053246189897011</v>
       </c>
       <c r="N2">
-        <v>1.011895900125276</v>
+        <v>1.013478229667605</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052282250196262</v>
+        <v>1.050713107103267</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051084784838414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048731869152086</v>
+      </c>
+      <c r="S2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.02616041516441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005074265011973</v>
+        <v>1.004729152584268</v>
       </c>
       <c r="D3">
-        <v>1.047658628724879</v>
+        <v>1.044126700399683</v>
       </c>
       <c r="E3">
-        <v>1.010566092272476</v>
+        <v>1.01026950088952</v>
       </c>
       <c r="F3">
-        <v>1.04653998796677</v>
+        <v>1.044436826620134</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056320423080295</v>
+        <v>1.054862692924139</v>
       </c>
       <c r="J3">
-        <v>1.025427549816765</v>
+        <v>1.0250917211347</v>
       </c>
       <c r="K3">
-        <v>1.057715969046574</v>
+        <v>1.05422446656477</v>
       </c>
       <c r="L3">
-        <v>1.021065539749291</v>
+        <v>1.020772646404959</v>
       </c>
       <c r="M3">
-        <v>1.056610095626513</v>
+        <v>1.054531029616147</v>
       </c>
       <c r="N3">
-        <v>1.012442432305252</v>
+        <v>1.013896565883133</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053375371190393</v>
+        <v>1.051729956760437</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051877690045683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049417335235231</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026321022230067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007242126789918</v>
+        <v>1.006858352232719</v>
       </c>
       <c r="D4">
-        <v>1.048888859022079</v>
+        <v>1.045261797159082</v>
       </c>
       <c r="E4">
-        <v>1.012252592558406</v>
+        <v>1.01192202258143</v>
       </c>
       <c r="F4">
-        <v>1.047937774754264</v>
+        <v>1.045774070288119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056803785663761</v>
+        <v>1.055298986058031</v>
       </c>
       <c r="J4">
-        <v>1.026462375092196</v>
+        <v>1.02608823295232</v>
       </c>
       <c r="K4">
-        <v>1.058430981549006</v>
+        <v>1.054842998675823</v>
       </c>
       <c r="L4">
-        <v>1.02220535499123</v>
+        <v>1.021878657630844</v>
       </c>
       <c r="M4">
-        <v>1.057490112463135</v>
+        <v>1.055349732272351</v>
       </c>
       <c r="N4">
-        <v>1.012789667341357</v>
+        <v>1.01416237112625</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05407183303748</v>
+        <v>1.052377894849054</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05238412816792</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049855642596913</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02642081477027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00814612435283</v>
+        <v>1.007746202721069</v>
       </c>
       <c r="D5">
-        <v>1.049407304802028</v>
+        <v>1.045740462076624</v>
       </c>
       <c r="E5">
-        <v>1.012957406935582</v>
+        <v>1.012612631316234</v>
       </c>
       <c r="F5">
-        <v>1.048524460810757</v>
+        <v>1.046335445541138</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057005163929005</v>
+        <v>1.055480648144542</v>
       </c>
       <c r="J5">
-        <v>1.02689400281409</v>
+        <v>1.026503821973238</v>
       </c>
       <c r="K5">
-        <v>1.058733282157814</v>
+        <v>1.055104922750171</v>
       </c>
       <c r="L5">
-        <v>1.022681179780102</v>
+        <v>1.022340335440886</v>
       </c>
       <c r="M5">
-        <v>1.057859673505574</v>
+        <v>1.055693639482892</v>
       </c>
       <c r="N5">
-        <v>1.0129347443615</v>
+        <v>1.014273405721882</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054364310393963</v>
+        <v>1.05265006990879</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052604923339421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05004860840248</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026463194032752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008298753293178</v>
+        <v>1.007896017700148</v>
       </c>
       <c r="D6">
-        <v>1.049500014092352</v>
+        <v>1.045826282839925</v>
       </c>
       <c r="E6">
-        <v>1.013076704481166</v>
+        <v>1.012729444079281</v>
       </c>
       <c r="F6">
-        <v>1.048626220010156</v>
+        <v>1.046432821125763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05704123966545</v>
+        <v>1.055513306633586</v>
       </c>
       <c r="J6">
-        <v>1.02696751640653</v>
+        <v>1.02657454025696</v>
       </c>
       <c r="K6">
-        <v>1.058789667906196</v>
+        <v>1.055154320110246</v>
       </c>
       <c r="L6">
-        <v>1.022762063508775</v>
+        <v>1.022418744570682</v>
       </c>
       <c r="M6">
-        <v>1.057924973526714</v>
+        <v>1.055754498535008</v>
       </c>
       <c r="N6">
-        <v>1.012959749269899</v>
+        <v>1.014292513534485</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054415990011212</v>
+        <v>1.052698234972255</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052653390136837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050093011255298</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026471960386101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007257800583272</v>
+        <v>1.006881544160855</v>
       </c>
       <c r="D7">
-        <v>1.048911496820159</v>
+        <v>1.045285410465557</v>
       </c>
       <c r="E7">
-        <v>1.012265398736697</v>
+        <v>1.011941492238745</v>
       </c>
       <c r="F7">
-        <v>1.047954912206212</v>
+        <v>1.045793223689439</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056813136624227</v>
+        <v>1.055310615829433</v>
       </c>
       <c r="J7">
-        <v>1.026471632255799</v>
+        <v>1.026104815609464</v>
       </c>
       <c r="K7">
-        <v>1.058450560896613</v>
+        <v>1.054863527938714</v>
       </c>
       <c r="L7">
-        <v>1.022215058680271</v>
+        <v>1.021894945315392</v>
       </c>
       <c r="M7">
-        <v>1.057504246654858</v>
+        <v>1.055365851956683</v>
       </c>
       <c r="N7">
-        <v>1.012793582363469</v>
+        <v>1.014193243903781</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054083019096951</v>
+        <v>1.052390652292537</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052417747476955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049891951143863</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026426629353447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002831011777613</v>
+        <v>1.002550464057769</v>
       </c>
       <c r="D8">
-        <v>1.046406809588897</v>
+        <v>1.042979384314092</v>
       </c>
       <c r="E8">
-        <v>1.008826479165068</v>
+        <v>1.00858683370768</v>
       </c>
       <c r="F8">
-        <v>1.045108004041029</v>
+        <v>1.043075669786091</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055820599342901</v>
+        <v>1.054419972050131</v>
       </c>
       <c r="J8">
-        <v>1.024357409918389</v>
+        <v>1.024084940576417</v>
       </c>
       <c r="K8">
-        <v>1.056992826591525</v>
+        <v>1.053607020559386</v>
       </c>
       <c r="L8">
-        <v>1.019888202950773</v>
+        <v>1.019651733699337</v>
       </c>
       <c r="M8">
-        <v>1.055709752542655</v>
+        <v>1.053702132195713</v>
       </c>
       <c r="N8">
-        <v>1.012084401909335</v>
+        <v>1.013707424484107</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052662822104845</v>
+        <v>1.051073949756397</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051391526868528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049008468634696</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026223222936923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9947353567299534</v>
+        <v>0.9946054081960971</v>
       </c>
       <c r="D9">
-        <v>1.041849068808188</v>
+        <v>1.038779715741612</v>
       </c>
       <c r="E9">
-        <v>1.002583651890892</v>
+        <v>1.002476020950689</v>
       </c>
       <c r="F9">
-        <v>1.039948879399751</v>
+        <v>1.038145460483757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053933575396248</v>
+        <v>1.052709646942243</v>
       </c>
       <c r="J9">
-        <v>1.020475402740769</v>
+        <v>1.02035011223018</v>
       </c>
       <c r="K9">
-        <v>1.054297796688829</v>
+        <v>1.051273461364412</v>
       </c>
       <c r="L9">
-        <v>1.015634949765716</v>
+        <v>1.015529053771186</v>
       </c>
       <c r="M9">
-        <v>1.052425437296409</v>
+        <v>1.050648550785632</v>
       </c>
       <c r="N9">
-        <v>1.010781072124607</v>
+        <v>1.012720411130537</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050063545202746</v>
+        <v>1.048657275677121</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.049482909315192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047355128742092</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025823359210525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9891528167359004</v>
+        <v>0.989161960995646</v>
       </c>
       <c r="D10">
-        <v>1.038785237145408</v>
+        <v>1.035966895530802</v>
       </c>
       <c r="E10">
-        <v>0.9983166159911678</v>
+        <v>0.998330816265073</v>
       </c>
       <c r="F10">
-        <v>1.036520529446051</v>
+        <v>1.03488447075108</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05261713466305</v>
+        <v>1.051524590633814</v>
       </c>
       <c r="J10">
-        <v>1.017803511681859</v>
+        <v>1.01781228174602</v>
       </c>
       <c r="K10">
-        <v>1.052487827356464</v>
+        <v>1.049715765233125</v>
       </c>
       <c r="L10">
-        <v>1.012716331120044</v>
+        <v>1.012730273882456</v>
       </c>
       <c r="M10">
-        <v>1.050260282473328</v>
+        <v>1.048651200976307</v>
       </c>
       <c r="N10">
-        <v>1.009888343624449</v>
+        <v>1.012163404118667</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048400817140836</v>
+        <v>1.047127427316437</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048219722019344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046271990531978</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025553009226397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.98686466032586</v>
+        <v>0.9869737833737127</v>
       </c>
       <c r="D11">
-        <v>1.037882768899649</v>
+        <v>1.035134776279436</v>
       </c>
       <c r="E11">
-        <v>0.9966063860642862</v>
+        <v>0.9967067581989932</v>
       </c>
       <c r="F11">
-        <v>1.035802590398911</v>
+        <v>1.034228178946898</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052250015531538</v>
+        <v>1.051211369167564</v>
       </c>
       <c r="J11">
-        <v>1.016794281686505</v>
+        <v>1.016898691502198</v>
       </c>
       <c r="K11">
-        <v>1.05212396680537</v>
+        <v>1.049423185623642</v>
       </c>
       <c r="L11">
-        <v>1.011592586004246</v>
+        <v>1.011691048620968</v>
       </c>
       <c r="M11">
-        <v>1.050079496680334</v>
+        <v>1.048532235132362</v>
       </c>
       <c r="N11">
-        <v>1.009584351609079</v>
+        <v>1.012171510116391</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048688874522988</v>
+        <v>1.047465010075607</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047994749901554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046100653676455</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025547654225331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9860501718006731</v>
+        <v>0.9861997750407621</v>
       </c>
       <c r="D12">
-        <v>1.037677462394298</v>
+        <v>1.034939765036952</v>
       </c>
       <c r="E12">
-        <v>0.9960087074041076</v>
+        <v>0.9961430099054679</v>
       </c>
       <c r="F12">
-        <v>1.035794447832954</v>
+        <v>1.034236870434176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052170891958776</v>
+        <v>1.051148965140742</v>
       </c>
       <c r="J12">
-        <v>1.016456876176734</v>
+        <v>1.016599890280024</v>
       </c>
       <c r="K12">
-        <v>1.052116750368106</v>
+        <v>1.049426851396544</v>
       </c>
       <c r="L12">
-        <v>1.011212775861098</v>
+        <v>1.011344478701617</v>
       </c>
       <c r="M12">
-        <v>1.0502665768584</v>
+        <v>1.04873628177228</v>
       </c>
       <c r="N12">
-        <v>1.009497623838549</v>
+        <v>1.012211101505721</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049159764606585</v>
+        <v>1.047949721881232</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.047989647810351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046103245372635</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025575309593075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9863223304897963</v>
+        <v>0.9864573311812447</v>
       </c>
       <c r="D13">
-        <v>1.038018392704946</v>
+        <v>1.035241348953712</v>
       </c>
       <c r="E13">
-        <v>0.9962311412845455</v>
+        <v>0.996351028921833</v>
       </c>
       <c r="F13">
-        <v>1.036357146519469</v>
+        <v>1.034778277351477</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05232369484416</v>
+        <v>1.051286229368329</v>
       </c>
       <c r="J13">
-        <v>1.016622265343557</v>
+        <v>1.016751346434054</v>
       </c>
       <c r="K13">
-        <v>1.052410036554881</v>
+        <v>1.049681278144158</v>
       </c>
       <c r="L13">
-        <v>1.011386626691752</v>
+        <v>1.011504202811282</v>
       </c>
       <c r="M13">
-        <v>1.050777634724472</v>
+        <v>1.049226290766987</v>
       </c>
       <c r="N13">
-        <v>1.009576177305407</v>
+        <v>1.01224408669716</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049837907776642</v>
+        <v>1.048611524210453</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048194554593623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046280430733069</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025638758145101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9870044085377913</v>
+        <v>0.9871052827335681</v>
       </c>
       <c r="D14">
-        <v>1.038505180880472</v>
+        <v>1.035678868767978</v>
       </c>
       <c r="E14">
-        <v>0.9967576653625511</v>
+        <v>0.9968466353293831</v>
       </c>
       <c r="F14">
-        <v>1.037008777882597</v>
+        <v>1.035398465479355</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052534855954438</v>
+        <v>1.051472519274869</v>
       </c>
       <c r="J14">
-        <v>1.016964436883446</v>
+        <v>1.017060949592769</v>
       </c>
       <c r="K14">
-        <v>1.052751796654395</v>
+        <v>1.049974033945285</v>
       </c>
       <c r="L14">
-        <v>1.01175803701351</v>
+        <v>1.011845312804754</v>
       </c>
       <c r="M14">
-        <v>1.051281055731694</v>
+        <v>1.049698466017596</v>
       </c>
       <c r="N14">
-        <v>1.00970564678089</v>
+        <v>1.012265257601496</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050407751711145</v>
+        <v>1.04915683422346</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.048437582228545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046488948422981</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025699502617749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9874096791990068</v>
+        <v>0.987490357533483</v>
       </c>
       <c r="D15">
-        <v>1.038754251334147</v>
+        <v>1.035904250224776</v>
       </c>
       <c r="E15">
-        <v>0.9970673775589829</v>
+        <v>0.99713844869228</v>
       </c>
       <c r="F15">
-        <v>1.037308346617549</v>
+        <v>1.035681532900574</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052643022159665</v>
+        <v>1.051567167924662</v>
       </c>
       <c r="J15">
-        <v>1.017161452320066</v>
+        <v>1.017238672481198</v>
       </c>
       <c r="K15">
-        <v>1.052912463734195</v>
+        <v>1.050111057753296</v>
       </c>
       <c r="L15">
-        <v>1.011972575071058</v>
+        <v>1.012042303219558</v>
       </c>
       <c r="M15">
-        <v>1.051491169915161</v>
+        <v>1.049892152521772</v>
       </c>
       <c r="N15">
-        <v>1.009774923875516</v>
+        <v>1.012273089849979</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050611082265925</v>
+        <v>1.049347212932583</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.048556944491177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.046592169312223</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025725739027612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9897200195461191</v>
+        <v>0.9896911345580056</v>
       </c>
       <c r="D16">
-        <v>1.04000195772254</v>
+        <v>1.037038197760879</v>
       </c>
       <c r="E16">
-        <v>0.9988242703404124</v>
+        <v>0.9987996988401362</v>
       </c>
       <c r="F16">
-        <v>1.038689462026631</v>
+        <v>1.036976980340268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053194104536075</v>
+        <v>1.052046229400236</v>
       </c>
       <c r="J16">
-        <v>1.018269409933485</v>
+        <v>1.018241701310405</v>
       </c>
       <c r="K16">
-        <v>1.053649997422028</v>
+        <v>1.050734626002087</v>
       </c>
       <c r="L16">
-        <v>1.013178045174825</v>
+        <v>1.013153917385156</v>
       </c>
       <c r="M16">
-        <v>1.052358886725504</v>
+        <v>1.050674411811005</v>
       </c>
       <c r="N16">
-        <v>1.010140986390469</v>
+        <v>1.012330159081184</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051258503573756</v>
+        <v>1.049927051061451</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.049081505230093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047036460742067</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025836152542025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9911378944327813</v>
+        <v>0.9910513927439608</v>
       </c>
       <c r="D17">
-        <v>1.040705319391023</v>
+        <v>1.037682036977283</v>
       </c>
       <c r="E17">
-        <v>0.9999001520424405</v>
+        <v>0.9998257511008068</v>
       </c>
       <c r="F17">
-        <v>1.039403967490273</v>
+        <v>1.037644954869576</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053504106498424</v>
+        <v>1.052316868752416</v>
       </c>
       <c r="J17">
-        <v>1.018940942288849</v>
+        <v>1.018857849846749</v>
       </c>
       <c r="K17">
-        <v>1.054035391579631</v>
+        <v>1.051060118976492</v>
       </c>
       <c r="L17">
-        <v>1.013909932181613</v>
+        <v>1.013836836221399</v>
       </c>
       <c r="M17">
-        <v>1.052754661329289</v>
+        <v>1.051023627959526</v>
       </c>
       <c r="N17">
-        <v>1.010354184994118</v>
+        <v>1.012392098423028</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051443332415338</v>
+        <v>1.050074944499435</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.049356530708039</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.047269387170763</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025888335471946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.991916528817732</v>
+        <v>0.9918027500049927</v>
       </c>
       <c r="D18">
-        <v>1.040972106156183</v>
+        <v>1.03793141648452</v>
       </c>
       <c r="E18">
-        <v>1.0004827496028</v>
+        <v>1.000385432426977</v>
       </c>
       <c r="F18">
-        <v>1.039559997694869</v>
+        <v>1.037782726470746</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053619151792481</v>
+        <v>1.052415443170608</v>
       </c>
       <c r="J18">
-        <v>1.01928843708686</v>
+        <v>1.019179056976152</v>
       </c>
       <c r="K18">
-        <v>1.054119196576518</v>
+        <v>1.051126021428035</v>
       </c>
       <c r="L18">
-        <v>1.014293155359504</v>
+        <v>1.014197516120218</v>
       </c>
       <c r="M18">
-        <v>1.052729109849314</v>
+        <v>1.050979664013659</v>
       </c>
       <c r="N18">
-        <v>1.010450697191543</v>
+        <v>1.012423057931045</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051187595610908</v>
+        <v>1.049804368985008</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.049404346444719</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.047303401638985</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025884777039616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9920975702801363</v>
+        <v>0.99198196280645</v>
       </c>
       <c r="D19">
-        <v>1.040847048267448</v>
+        <v>1.037827901176317</v>
       </c>
       <c r="E19">
-        <v>1.000602375495869</v>
+        <v>1.000504686388613</v>
       </c>
       <c r="F19">
-        <v>1.039198401970761</v>
+        <v>1.037429462007831</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053551396912047</v>
+        <v>1.052352794968844</v>
       </c>
       <c r="J19">
-        <v>1.019326087591702</v>
+        <v>1.019214921041484</v>
       </c>
       <c r="K19">
-        <v>1.053935117365214</v>
+        <v>1.05096291091025</v>
       </c>
       <c r="L19">
-        <v>1.014346231600857</v>
+        <v>1.014250217283301</v>
       </c>
       <c r="M19">
-        <v>1.052312060439357</v>
+        <v>1.050570692626606</v>
       </c>
       <c r="N19">
-        <v>1.010438760943152</v>
+        <v>1.012404384439848</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050535676652313</v>
+        <v>1.049158395689268</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.049280486269754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.047194997021699</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025830273730814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9906061272118203</v>
+        <v>0.9905557782715206</v>
       </c>
       <c r="D20">
-        <v>1.039615606427118</v>
+        <v>1.036724179149418</v>
       </c>
       <c r="E20">
-        <v>0.9994267374207234</v>
+        <v>0.9993884258927208</v>
       </c>
       <c r="F20">
-        <v>1.037431038599757</v>
+        <v>1.035742480393324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05297727443973</v>
+        <v>1.051841732279149</v>
       </c>
       <c r="J20">
-        <v>1.01850403209397</v>
+        <v>1.01845567665591</v>
       </c>
       <c r="K20">
-        <v>1.052995882444942</v>
+        <v>1.05015061748321</v>
       </c>
       <c r="L20">
-        <v>1.013479674455192</v>
+        <v>1.013442037624959</v>
       </c>
       <c r="M20">
-        <v>1.050846161288966</v>
+        <v>1.049184666955646</v>
       </c>
       <c r="N20">
-        <v>1.010124880505854</v>
+        <v>1.012237638141327</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048854048531085</v>
+        <v>1.047539164722499</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.048620284833709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04662493614003</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025633449007751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9863837003026635</v>
+        <v>0.9865504304922554</v>
       </c>
       <c r="D21">
-        <v>1.037237436165838</v>
+        <v>1.034574347474723</v>
       </c>
       <c r="E21">
-        <v>0.9962053856368233</v>
+        <v>0.9963591582936338</v>
       </c>
       <c r="F21">
-        <v>1.034718009387916</v>
+        <v>1.033199250378646</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051929079581182</v>
+        <v>1.050935316578223</v>
       </c>
       <c r="J21">
-        <v>1.016461954573289</v>
+        <v>1.016621437680223</v>
       </c>
       <c r="K21">
-        <v>1.051546083524705</v>
+        <v>1.048929025087502</v>
       </c>
       <c r="L21">
-        <v>1.01125900653829</v>
+        <v>1.011409837400456</v>
       </c>
       <c r="M21">
-        <v>1.04907019604726</v>
+        <v>1.047577816167875</v>
       </c>
       <c r="N21">
-        <v>1.00943636640209</v>
+        <v>1.01216394430943</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047408126604134</v>
+        <v>1.046227018224515</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0475984199742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.045764740955704</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02541118330581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9836887904008645</v>
+        <v>0.9839917284260788</v>
       </c>
       <c r="D22">
-        <v>1.035735563126124</v>
+        <v>1.033215446030667</v>
       </c>
       <c r="E22">
-        <v>0.9941583714764748</v>
+        <v>0.9944327221492628</v>
       </c>
       <c r="F22">
-        <v>1.033032546723474</v>
+        <v>1.031620438783404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051258865905435</v>
+        <v>1.050353779374636</v>
       </c>
       <c r="J22">
-        <v>1.015161976422777</v>
+        <v>1.01545098274284</v>
       </c>
       <c r="K22">
-        <v>1.050630845112463</v>
+        <v>1.048156418217326</v>
       </c>
       <c r="L22">
-        <v>1.009846447258464</v>
+        <v>1.01011528059569</v>
       </c>
       <c r="M22">
-        <v>1.047976846199518</v>
+        <v>1.046590478916617</v>
       </c>
       <c r="N22">
-        <v>1.008999042771304</v>
+        <v>1.012109085049356</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046542821189411</v>
+        <v>1.045445612718329</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046938045733479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045203893984254</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025269435692301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.985119301902473</v>
+        <v>0.985337463227025</v>
       </c>
       <c r="D23">
-        <v>1.036520209332251</v>
+        <v>1.033921383999011</v>
       </c>
       <c r="E23">
-        <v>0.9952435920014071</v>
+        <v>0.9954428076755905</v>
       </c>
       <c r="F23">
-        <v>1.033920278145253</v>
+        <v>1.032447511400668</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051610626828296</v>
+        <v>1.050654267402116</v>
       </c>
       <c r="J23">
-        <v>1.015850752347337</v>
+        <v>1.01605917412134</v>
       </c>
       <c r="K23">
-        <v>1.051104435673032</v>
+        <v>1.048551560026089</v>
       </c>
       <c r="L23">
-        <v>1.010594855307448</v>
+        <v>1.010790168502206</v>
       </c>
       <c r="M23">
-        <v>1.048550473788662</v>
+        <v>1.047103880316439</v>
       </c>
       <c r="N23">
-        <v>1.009229875985121</v>
+        <v>1.012094728416155</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046996805061339</v>
+        <v>1.045851932628337</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.047263412774883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045472847668781</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025340150922679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9906519417992501</v>
+        <v>0.990601820642538</v>
       </c>
       <c r="D24">
-        <v>1.039589193408633</v>
+        <v>1.036701017061358</v>
       </c>
       <c r="E24">
-        <v>0.9994577602327749</v>
+        <v>0.9994198596869793</v>
       </c>
       <c r="F24">
-        <v>1.037383148565798</v>
+        <v>1.035696276398612</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052962508600828</v>
+        <v>1.051828197617992</v>
       </c>
       <c r="J24">
-        <v>1.018514647671727</v>
+        <v>1.01846650794377</v>
       </c>
       <c r="K24">
-        <v>1.052955004839651</v>
+        <v>1.050112882922274</v>
       </c>
       <c r="L24">
-        <v>1.013494404905189</v>
+        <v>1.013457170904611</v>
       </c>
       <c r="M24">
-        <v>1.050784107607402</v>
+        <v>1.049124240938572</v>
       </c>
       <c r="N24">
-        <v>1.01012416544286</v>
+        <v>1.012233640185078</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04876455860867</v>
+        <v>1.047450899105936</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.048564438979486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.046568617015142</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025619564868272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9968695022872558</v>
+        <v>0.9966893157376666</v>
       </c>
       <c r="D25">
-        <v>1.04306597135911</v>
+        <v>1.039898619294482</v>
       </c>
       <c r="E25">
-        <v>1.004224643995521</v>
+        <v>1.004072842102016</v>
       </c>
       <c r="F25">
-        <v>1.041312420623524</v>
+        <v>1.039444553692801</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054446801948526</v>
+        <v>1.053172403398089</v>
       </c>
       <c r="J25">
-        <v>1.021502681417921</v>
+        <v>1.021328613617027</v>
       </c>
       <c r="K25">
-        <v>1.055030603394678</v>
+        <v>1.051907597116123</v>
       </c>
       <c r="L25">
-        <v>1.016757729902547</v>
+        <v>1.016608259752634</v>
       </c>
       <c r="M25">
-        <v>1.053301561860275</v>
+        <v>1.051459916823947</v>
       </c>
       <c r="N25">
-        <v>1.011127326017784</v>
+        <v>1.012949514616559</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050756929688761</v>
+        <v>1.049299410058024</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.05002913517061</v>
+        <v>1.047834422802377</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025936712803208</v>
       </c>
     </row>
   </sheetData>
